--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="184">
   <si>
     <t>Doi</t>
   </si>
@@ -710,6 +710,87 @@
   </si>
   <si>
     <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,  Wen%Li%NULL%1,  Yuan%Yang%NULL%3,  Yuan%Yang%NULL%0,  Yu%Wang%NULL%2,  Qinge%Zhang%NULL%1,  Teris%Cheung%NULL%1,  Xinjuan%Wu%NULL%1,  Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,  Baoren%Tu%NULL%1,  Jing%Ma%NULL%1,  Limin%Chen%NULL%1,  Lei%Fu%NULL%1,  Yongfang%Jiang%NULL%1,  Quan%Zhuang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,  Jing%Wei%NULL%1,  Huadong%Zhu%NULL%1,  Yanping%Duan%NULL%1,  Wenqi%Geng%NULL%1,  Xia%Hong%NULL%1,  Jing%Jiang%NULL%1,  Xiaohui%Zhao%NULL%1,  Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,  Ziwei%Fang%NULL%1,  Guoqiang%Hou%NULL%1,  Mei%Han%NULL%1,  Xinrong%Xu%NULL%1,  Jiaxin%Dong%NULL%1,  Jianzhong%Zheng%zhengjj@czmc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,  Pinpin%Zheng%NULL%2,  Pinpin%Zheng%NULL%0,  Yingnan%Jia%NULL%1,  Hao%Chen%NULL%1,  Yimeng%Mao%NULL%1,  Suhong%Chen%NULL%1,  Yi%Wang%NULL%1,  Hua%Fu%NULL%1,  Junming%Dai%NULL%1,  Kenji%Hashimoto%NULL%7,  Kenji%Hashimoto%NULL%0,  Junling%Gao%NULL%3,  Junling%Gao%NULL%0,  Junling%Gao%NULL%0,  Kenji%Hashimoto%NULL%0,  Kenji%Hashimoto%NULL%0,  Kenji%Hashimoto%NULL%0,  Kenji%Hashimoto%NULL%0,  Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%2,   Yu%Wang%null%0,   Hong%Wang%null%1,   Zhaorui%Liu%null%1,   Xin%Yu%null%1,   Jie%Yan%null%5,   Yaqin%Yu%null%1,   Changgui%Kou%null%1,   Xiufeng%Xu%null%1,   Jin%Lu%null%1,   Zhizhong%Wang%null%1,   Shulan%He%null%1,   Yifeng%Xu%null%1,   Yanling%He%null%1,   Tao%Li%null%0,   Wanjun%Guo%null%1,   Hongjun%Tian%null%1,   Guangming%Xu%null%1,   Xiangdong%Xu%null%1,   Yanjuan%Ma%null%1,   Linhong%Wang%null%1,   Limin%Wang%null%1,   Yongping%Yan%null%1,   Bo%Wang%null%0,   Shuiyuan%Xiao%null%1,   Liang%Zhou%null%1,   Lingjiang%Li%null%2,   Liwen%Tan%null%1,   Tingting%Zhang%null%1,   Chao%Ma%null%1,   Qiang%Li%null%2,   Hua%Ding%null%1,   Hongchun%Geng%null%1,   Fujun%Jia%null%1,   Jianfei%Shi%null%1,   Shiliang%Wang%null%1,   Ning%Zhang%null%0,   Xinbai%Du%null%1,   Xiangdong%Du%null%1,   Yue%Wu%null%1,  Yueqin%Huang%null%0,  Yu%Wang%null%0,  Hong%Wang%null%1,  Zhaorui%Liu%null%1,  Xin%Yu%null%1,  Jie%Yan%null%1,  Yaqin%Yu%null%1,  Changgui%Kou%null%1,  Xiufeng%Xu%null%1,  Jin%Lu%null%1,  Zhizhong%Wang%null%1,  Shulan%He%null%1,  Yifeng%Xu%null%0,  Yanling%He%null%1,  Tao%Li%null%0,  Wanjun%Guo%null%1,  Hongjun%Tian%null%1,  Guangming%Xu%null%1,  Xiangdong%Xu%null%1,  Yanjuan%Ma%null%1,  Linhong%Wang%null%1,  Limin%Wang%null%1,  Yongping%Yan%null%1,  Bo%Wang%null%1,  Shuiyuan%Xiao%null%1,  Liang%Zhou%null%1,  Lingjiang%Li%null%1,  Liwen%Tan%null%1,  Tingting%Zhang%null%1,  Chao%Ma%null%1,  Qiang%Li%null%1,  Hua%Ding%null%1,  Hongchun%Geng%null%1,  Fujun%Jia%null%1,  Jianfei%Shi%null%1,  Shiliang%Wang%null%1,  Ning%Zhang%null%1,  Xinbai%Du%null%1,  Xiangdong%Du%null%1,  Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,  Simeng%Ma%NULL%2,  Min%Chen%NULL%1,  Jun%Yang%NULL%1,  Ying%Wang%NULL%2,  Ruiting%Li%NULL%3,  Lihua%Yao%NULL%2,  Hanping%Bai%NULL%1,  Zhongxiang%Cai%NULL%2,  Bing%Xiang Yang%NULL%1,  Shaohua%Hu%NULL%2,  Kerang%Zhang%NULL%1,  Gaohua%Wang%NULL%2,  Ci%Ma%NULL%1,  Zhongchun%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,  Kin Kit%Li%NULL%1,  Henry Ho Hin%Chan%NULL%1,  Yuan Yuan%Yi%NULL%1,  Arthur%Tang%NULL%1,  Wan In%Wei%NULL%1,  Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,  Simeng%Ma%NULL%0,  Ying%Wang%NULL%0,  Zhongxiang%Cai%NULL%0,  Jianbo%Hu%NULL%1,  Ning%Wei%NULL%1,  Jiang%Wu%NULL%1,  Hui%Du%NULL%1,  Tingting%Chen%NULL%1,  Ruiting%Li%NULL%0,  Huawei%Tan%NULL%1,  Lijun%Kang%NULL%1,  Lihua%Yao%NULL%0,  Manli%Huang%NULL%1,  Huafen%Wang%NULL%1,  Gaohua%Wang%NULL%0,  Zhongchun%Liu%NULL%0,  Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,  Fan%Zhang%NULL%1,  Cun%Wei%NULL%1,  Yanpu%Jia%NULL%1,  Zhilei%Shang%NULL%1,  Luna%Sun%NULL%1,  Lili%Wu%NULL%1,  Zhuoer%Sun%NULL%1,  Yaoguang%Zhou%NULL%1,  Yan%Wang%NULL%1,  Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,  Hang%Wang%NULL%1,  Yuxing%Lin%NULL%1,  Li%Li%lilifuzhou@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,  Lan%Deng%NULL%2,  Lan%Deng%NULL%0,  Liyan%Zhang%NULL%1,  Qiuyan%Lang%NULL%1,  Chunyan%Liao%NULL%1,  Nannan%Wang%NULL%1,  Mingqin%Qin%2026142822@qq.com%1,  Huiqiao%Huang%820325832@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,  Minh H.%Nguyen%NULL%1,  Binh N.%Do%NULL%1,  Cuong Q.%Tran%NULL%2,  Cuong Q.%Tran%NULL%0,  Thao T. P.%Nguyen%NULL%1,  Khue M.%Pham%NULL%2,  Khue M.%Pham%NULL%0,  Linh V.%Pham%NULL%2,  Linh V.%Pham%NULL%0,  Khanh V.%Tran%NULL%1,  Trang T.%Duong%NULL%1,  Tien V.%Tran%NULL%1,  Thai H.%Duong%NULL%1,  Tham T.%Nguyen%NULL%1,  Quyen H.%Nguyen%NULL%1,  Thanh M.%Hoang%NULL%1,  Kien T.%Nguyen%NULL%1,  Thu T. M.%Pham%NULL%1,  Shwu-Huey%Yang%NULL%1,  Jane C.-J.%Chao%NULL%2,  Jane C.-J.%Chao%NULL%0,  Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,  Francesco%Cinetto%NULL%1,  Cinzia%Milito%NULL%1,  Livia%Bonanni%NULL%1,  Anna Maria%Pesce%NULL%1,  Giorgia%Leodori%NULL%1,  Giulia%Garzi%NULL%1,  Marzia%Miglionico%NULL%1,  Stefano%Tabolli%NULL%1,  Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,  Bin%Shen%NULL%1,  Min%Zhao%NULL%1,  Zhen%Wang%NULL%2,  Zhen%Wang%NULL%0,  Bin%Xie%NULL%1,  Yifeng%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,  Sarvodaya%Tripathy%NULL%1,  Sujita Kumar%Kar%NULL%1,  Nivedita%Sharma%NULL%1,  Sudhir Kumar%Verma%NULL%1,  Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,  Nicholas W.S.%Chew%NULL%1,  Grace K.H.%Lee%NULL%1,  Mingxue%Jing%NULL%1,  Yihui%Goh%NULL%1,  Leonard L.L.%Yeo%NULL%1,  Ka%Zhang%NULL%1,  Howe-Keat%Chin%NULL%1,  Aftab%Ahmad%NULL%1,  Faheem Ahmed%Khan%NULL%1,  Ganesh Napolean%Shanmugam%NULL%1,  Bernard P.L.%Chan%NULL%1,  Sibi%Sunny%NULL%1,  Bharatendu%Chandra%NULL%1,  Jonathan J.Y.%Ong%NULL%1,  Prakash R.%Paliwal%NULL%1,  Lily Y.H.%Wong%NULL%1,  Renarebecca%Sagayanathan%NULL%1,  Jin Tao%Chen%NULL%1,  Alison Ying%Ying Ng%NULL%1,  Hock Luen%Teoh%NULL%1,  Cyrus S.%Ho%NULL%2,  Roger C.%Ho%NULL%3,  Vijay K.%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,  Riyu%Pan%NULL%2,  Riyu%Pan%NULL%0,  Xiaoyang%Wan%NULL%1,  Yilin%Tan%NULL%1,  Linkang%Xu%NULL%1,  Cyrus S.%Ho%NULL%0,  Roger C.%Ho%NULL%0,  Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,  Marina%Serper%NULL%1,  Lauren%Opsasnick%NULL%1,  Rachel M.%O'Conor%NULL%1,  Laura M.%Curtis%NULL%1,  Julia Yoshino%Benavente%NULL%1,  Guisselle%Wismer%NULL%1,  Stephanie%Batio%NULL%1,  Morgan%Eifler%NULL%1,  Pauline%Zheng%NULL%1,  Andrea%Russell%NULL%1,  Marina%Arvanitis%NULL%1,  Daniela%Ladner%NULL%1,  Mary%Kwasny%NULL%1,  Stephen D.%Persell%NULL%1,  Theresa%Rowe%NULL%1,  Jeffrey A.%Linder%NULL%1,  Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,  Yan%Zhang%NULL%1,  Desheng%Kong%NULL%1,  Shiyue%Li%NULL%1,  Ningxi%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,  Zhenxin%Liao%NULL%1,  Haojie%Huang%NULL%1,  Boyue%Jiang%NULL%1,  Xueyan%Zhang%NULL%1,  Yingwen%Wang%NULL%1,  Mingyi%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,  Kun%Wang%NULL%1,  Lu%Yin%NULL%1,  Wen-feng%Zhao%NULL%1,  Qing%Xue%NULL%1,  Mao%Peng%NULL%1,  Bao-quan%Min%NULL%1,  Qing%Tian%NULL%1,  Hai-xia%Leng%NULL%1,  Jia-lin%Du%NULL%1,  Hong%Chang%NULL%1,  Yuan%Yang%NULL%0,  Wei%Li%NULL%1,  Fang-fang%Shangguan%NULL%1,  Tian-yi%Yan%NULL%1,  Hui-qing%Dong%NULL%1,  Ying%Han%NULL%1,  Yu-ping%Wang%NULL%1,  Fiammetta%Cosci%NULL%1,  Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,  Zheng Feei%Ma%NULL%2,  Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,  M.%Zhou%NULL%1,  F.%Tang%NULL%1,  Y.%Wang%NULL%0,  H.%Nie%NULL%1,  L.%Zhang%NULL%1,  G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1072,6 +1153,9 @@
       <c r="H1" t="s">
         <v>40</v>
       </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1087,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1097,6 +1181,9 @@
       </c>
       <c r="H2" t="s">
         <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3">
@@ -1113,7 +1200,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1123,6 +1210,9 @@
       </c>
       <c r="H3" t="s">
         <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4">
@@ -1139,7 +1229,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -1149,6 +1239,9 @@
       </c>
       <c r="H4" t="s">
         <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5">
@@ -1165,7 +1258,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1175,6 +1268,9 @@
       </c>
       <c r="H5" t="s">
         <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6">
@@ -1202,6 +1298,9 @@
       <c r="H6" t="s">
         <v>61</v>
       </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -1228,6 +1327,9 @@
       <c r="H7" t="s">
         <v>61</v>
       </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -1243,7 +1345,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -1253,6 +1355,9 @@
       </c>
       <c r="H8" t="s">
         <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9">
@@ -1280,6 +1385,9 @@
       <c r="H9" t="s">
         <v>61</v>
       </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -1295,7 +1403,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1305,6 +1413,9 @@
       </c>
       <c r="H10" t="s">
         <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1321,7 +1432,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1331,6 +1442,9 @@
       </c>
       <c r="H11" t="s">
         <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="12">
@@ -1347,7 +1461,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1357,6 +1471,9 @@
       </c>
       <c r="H12" t="s">
         <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1373,7 +1490,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1383,6 +1500,9 @@
       </c>
       <c r="H13" t="s">
         <v>86</v>
+      </c>
+      <c r="I13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14">
@@ -1399,7 +1519,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1409,6 +1529,9 @@
       </c>
       <c r="H14" t="s">
         <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -1425,7 +1548,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1435,6 +1558,9 @@
       </c>
       <c r="H15" t="s">
         <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="16">
@@ -1451,7 +1577,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -1461,6 +1587,9 @@
       </c>
       <c r="H16" t="s">
         <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1488,6 +1617,9 @@
       <c r="H17" t="s">
         <v>61</v>
       </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
@@ -1503,7 +1635,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -1513,6 +1645,9 @@
       </c>
       <c r="H18" t="s">
         <v>105</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19">
@@ -1529,7 +1664,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -1539,6 +1674,9 @@
       </c>
       <c r="H19" t="s">
         <v>110</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="20">
@@ -1555,7 +1693,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -1565,6 +1703,9 @@
       </c>
       <c r="H20" t="s">
         <v>115</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21">
@@ -1581,7 +1722,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -1591,6 +1732,9 @@
       </c>
       <c r="H21" t="s">
         <v>120</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22">
@@ -1607,7 +1751,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -1617,6 +1761,9 @@
       </c>
       <c r="H22" t="s">
         <v>61</v>
+      </c>
+      <c r="I22" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23">
@@ -1633,7 +1780,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -1643,6 +1790,9 @@
       </c>
       <c r="H23" t="s">
         <v>128</v>
+      </c>
+      <c r="I23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24">
@@ -1670,6 +1820,9 @@
       <c r="H24" t="s">
         <v>61</v>
       </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -1685,7 +1838,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -1695,6 +1848,9 @@
       </c>
       <c r="H25" t="s">
         <v>61</v>
+      </c>
+      <c r="I25" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="26">
@@ -1711,7 +1867,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -1721,6 +1877,9 @@
       </c>
       <c r="H26" t="s">
         <v>137</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="27">
@@ -1737,7 +1896,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -1747,6 +1906,9 @@
       </c>
       <c r="H27" t="s">
         <v>142</v>
+      </c>
+      <c r="I27" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="28">
@@ -1763,7 +1925,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -1773,6 +1935,9 @@
       </c>
       <c r="H28" t="s">
         <v>147</v>
+      </c>
+      <c r="I28" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="29">
@@ -1789,7 +1954,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -1799,6 +1964,9 @@
       </c>
       <c r="H29" t="s">
         <v>77</v>
+      </c>
+      <c r="I29" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="30">
@@ -1815,7 +1983,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>
@@ -1825,6 +1993,9 @@
       </c>
       <c r="H30" t="s">
         <v>156</v>
+      </c>
+      <c r="I30" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="280">
   <si>
     <t>Doi</t>
   </si>
@@ -791,6 +791,294 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,  M.%Zhou%NULL%1,  F.%Tang%NULL%1,  Y.%Wang%NULL%0,  H.%Nie%NULL%1,  L.%Zhang%NULL%1,  G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,   Wen%Li%NULL%1,   Yuan%Yang%NULL%3,   Yuan%Yang%NULL%0,   Yu%Wang%NULL%0,   Qinge%Zhang%NULL%1,   Teris%Cheung%NULL%1,   Xinjuan%Wu%NULL%1,   Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,   Baoren%Tu%NULL%1,   Jing%Ma%NULL%1,   Limin%Chen%NULL%1,   Lei%Fu%NULL%1,   Yongfang%Jiang%NULL%1,   Quan%Zhuang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,   Jing%Wei%NULL%1,   Huadong%Zhu%NULL%1,   Yanping%Duan%NULL%1,   Wenqi%Geng%NULL%1,   Xia%Hong%NULL%1,   Jing%Jiang%NULL%1,   Xiaohui%Zhao%NULL%1,   Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,   Ziwei%Fang%NULL%1,   Guoqiang%Hou%NULL%1,   Mei%Han%NULL%1,   Xinrong%Xu%NULL%1,   Jiaxin%Dong%NULL%1,   Jianzhong%Zheng%zhengjj@czmc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,   Pinpin%Zheng%NULL%2,   Pinpin%Zheng%NULL%0,   Yingnan%Jia%NULL%1,   Hao%Chen%NULL%1,   Yimeng%Mao%NULL%1,   Suhong%Chen%NULL%1,   Yi%Wang%NULL%1,   Hua%Fu%NULL%1,   Junming%Dai%NULL%1,   Kenji%Hashimoto%NULL%7,   Kenji%Hashimoto%NULL%0,   Junling%Gao%NULL%3,   Junling%Gao%NULL%0,   Junling%Gao%NULL%0,   Kenji%Hashimoto%NULL%0,   Kenji%Hashimoto%NULL%0,   Kenji%Hashimoto%NULL%0,   Kenji%Hashimoto%NULL%0,   Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,    Yu%Wang%null%0,    Hong%Wang%null%1,    Zhaorui%Liu%null%1,    Xin%Yu%null%1,    Jie%Yan%null%5,    Yaqin%Yu%null%1,    Changgui%Kou%null%1,    Xiufeng%Xu%null%1,    Jin%Lu%null%1,    Zhizhong%Wang%null%1,    Shulan%He%null%1,    Yifeng%Xu%null%1,    Yanling%He%null%1,    Tao%Li%null%5,    Wanjun%Guo%null%1,    Hongjun%Tian%null%1,    Guangming%Xu%null%1,    Xiangdong%Xu%null%1,    Yanjuan%Ma%null%1,    Linhong%Wang%null%1,    Limin%Wang%null%1,    Yongping%Yan%null%1,    Bo%Wang%null%0,    Shuiyuan%Xiao%null%1,    Liang%Zhou%null%1,    Lingjiang%Li%null%2,    Liwen%Tan%null%1,    Tingting%Zhang%null%1,    Chao%Ma%null%1,    Qiang%Li%null%2,    Hua%Ding%null%1,    Hongchun%Geng%null%1,    Fujun%Jia%null%1,    Jianfei%Shi%null%1,    Shiliang%Wang%null%1,    Ning%Zhang%null%1,    Xinbai%Du%null%1,    Xiangdong%Du%null%1,    Yue%Wu%null%1,   Yueqin%Huang%null%1,   Yu%Wang%null%0,   Hong%Wang%null%1,   Zhaorui%Liu%null%1,   Xin%Yu%null%1,   Jie%Yan%null%1,   Yaqin%Yu%null%1,   Changgui%Kou%null%1,   Xiufeng%Xu%null%1,   Jin%Lu%null%1,   Zhizhong%Wang%null%1,   Shulan%He%null%1,   Yifeng%Xu%null%2,   Yanling%He%null%1,   Tao%Li%null%0,   Wanjun%Guo%null%1,   Hongjun%Tian%null%1,   Guangming%Xu%null%1,   Xiangdong%Xu%null%1,   Yanjuan%Ma%null%1,   Linhong%Wang%null%1,   Limin%Wang%null%1,   Yongping%Yan%null%1,   Bo%Wang%null%0,   Shuiyuan%Xiao%null%1,   Liang%Zhou%null%1,   Lingjiang%Li%null%1,   Liwen%Tan%null%1,   Tingting%Zhang%null%1,   Chao%Ma%null%1,   Qiang%Li%null%1,   Hua%Ding%null%1,   Hongchun%Geng%null%1,   Fujun%Jia%null%1,   Jianfei%Shi%null%1,   Shiliang%Wang%null%1,   Ning%Zhang%null%0,   Xinbai%Du%null%1,   Xiangdong%Du%null%1,   Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,   Simeng%Ma%NULL%2,   Min%Chen%NULL%1,   Jun%Yang%NULL%1,   Ying%Wang%NULL%2,   Ruiting%Li%NULL%3,   Lihua%Yao%NULL%2,   Hanping%Bai%NULL%1,   Zhongxiang%Cai%NULL%2,   Bing%Xiang Yang%NULL%1,   Shaohua%Hu%NULL%2,   Kerang%Zhang%NULL%1,   Gaohua%Wang%NULL%2,   Ci%Ma%NULL%1,   Zhongchun%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,   Kin Kit%Li%NULL%1,   Henry Ho Hin%Chan%NULL%1,   Yuan Yuan%Yi%NULL%1,   Arthur%Tang%NULL%1,   Wan In%Wei%NULL%1,   Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,   Simeng%Ma%NULL%0,   Ying%Wang%NULL%0,   Zhongxiang%Cai%NULL%0,   Jianbo%Hu%NULL%1,   Ning%Wei%NULL%1,   Jiang%Wu%NULL%1,   Hui%Du%NULL%1,   Tingting%Chen%NULL%1,   Ruiting%Li%NULL%0,   Huawei%Tan%NULL%1,   Lijun%Kang%NULL%1,   Lihua%Yao%NULL%0,   Manli%Huang%NULL%1,   Huafen%Wang%NULL%1,   Gaohua%Wang%NULL%0,   Zhongchun%Liu%NULL%0,   Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,   Fan%Zhang%NULL%1,   Cun%Wei%NULL%1,   Yanpu%Jia%NULL%1,   Zhilei%Shang%NULL%1,   Luna%Sun%NULL%1,   Lili%Wu%NULL%1,   Zhuoer%Sun%NULL%1,   Yaoguang%Zhou%NULL%1,   Yan%Wang%NULL%1,   Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,   Hang%Wang%NULL%1,   Yuxing%Lin%NULL%1,   Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,   Lan%Deng%NULL%2,   Lan%Deng%NULL%0,   Liyan%Zhang%NULL%1,   Qiuyan%Lang%NULL%1,   Chunyan%Liao%NULL%1,   Nannan%Wang%NULL%1,   Mingqin%Qin%2026142822@qq.com%1,   Huiqiao%Huang%820325832@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,   Minh H.%Nguyen%NULL%1,   Binh N.%Do%NULL%1,   Cuong Q.%Tran%NULL%2,   Cuong Q.%Tran%NULL%0,   Thao T. P.%Nguyen%NULL%1,   Khue M.%Pham%NULL%2,   Khue M.%Pham%NULL%0,   Linh V.%Pham%NULL%2,   Linh V.%Pham%NULL%0,   Khanh V.%Tran%NULL%1,   Trang T.%Duong%NULL%1,   Tien V.%Tran%NULL%1,   Thai H.%Duong%NULL%1,   Tham T.%Nguyen%NULL%1,   Quyen H.%Nguyen%NULL%1,   Thanh M.%Hoang%NULL%1,   Kien T.%Nguyen%NULL%1,   Thu T. M.%Pham%NULL%1,   Shwu-Huey%Yang%NULL%1,   Jane C.-J.%Chao%NULL%2,   Jane C.-J.%Chao%NULL%0,   Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,   Francesco%Cinetto%NULL%1,   Cinzia%Milito%NULL%1,   Livia%Bonanni%NULL%1,   Anna Maria%Pesce%NULL%1,   Giorgia%Leodori%NULL%1,   Giulia%Garzi%NULL%1,   Marzia%Miglionico%NULL%1,   Stefano%Tabolli%NULL%1,   Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,   Bin%Shen%NULL%1,   Min%Zhao%NULL%1,   Zhen%Wang%NULL%2,   Zhen%Wang%NULL%0,   Bin%Xie%NULL%1,   Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,   Sarvodaya%Tripathy%NULL%1,   Sujita Kumar%Kar%NULL%1,   Nivedita%Sharma%NULL%1,   Sudhir Kumar%Verma%NULL%1,   Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,   Nicholas W.S.%Chew%NULL%1,   Grace K.H.%Lee%NULL%1,   Mingxue%Jing%NULL%1,   Yihui%Goh%NULL%1,   Leonard L.L.%Yeo%NULL%1,   Ka%Zhang%NULL%1,   Howe-Keat%Chin%NULL%1,   Aftab%Ahmad%NULL%1,   Faheem Ahmed%Khan%NULL%1,   Ganesh Napolean%Shanmugam%NULL%1,   Bernard P.L.%Chan%NULL%1,   Sibi%Sunny%NULL%1,   Bharatendu%Chandra%NULL%1,   Jonathan J.Y.%Ong%NULL%1,   Prakash R.%Paliwal%NULL%1,   Lily Y.H.%Wong%NULL%1,   Renarebecca%Sagayanathan%NULL%1,   Jin Tao%Chen%NULL%1,   Alison Ying%Ying Ng%NULL%1,   Hock Luen%Teoh%NULL%1,   Cyrus S.%Ho%NULL%2,   Roger C.%Ho%NULL%3,   Vijay K.%Sharma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,   Riyu%Pan%NULL%2,   Riyu%Pan%NULL%0,   Xiaoyang%Wan%NULL%1,   Yilin%Tan%NULL%1,   Linkang%Xu%NULL%1,   Cyrus S.%Ho%NULL%0,   Roger C.%Ho%NULL%0,   Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,   Marina%Serper%NULL%1,   Lauren%Opsasnick%NULL%1,   Rachel M.%O'Conor%NULL%1,   Laura M.%Curtis%NULL%1,   Julia Yoshino%Benavente%NULL%1,   Guisselle%Wismer%NULL%1,   Stephanie%Batio%NULL%1,   Morgan%Eifler%NULL%1,   Pauline%Zheng%NULL%1,   Andrea%Russell%NULL%1,   Marina%Arvanitis%NULL%1,   Daniela%Ladner%NULL%1,   Mary%Kwasny%NULL%1,   Stephen D.%Persell%NULL%1,   Theresa%Rowe%NULL%1,   Jeffrey A.%Linder%NULL%1,   Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,   Yan%Zhang%NULL%1,   Desheng%Kong%NULL%1,   Shiyue%Li%NULL%1,   Ningxi%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,   Zhenxin%Liao%NULL%1,   Haojie%Huang%NULL%1,   Boyue%Jiang%NULL%1,   Xueyan%Zhang%NULL%1,   Yingwen%Wang%NULL%1,   Mingyi%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,   Kun%Wang%NULL%0,   Lu%Yin%NULL%0,   Wen-feng%Zhao%NULL%1,   Qing%Xue%NULL%1,   Mao%Peng%NULL%1,   Bao-quan%Min%NULL%1,   Qing%Tian%NULL%1,   Hai-xia%Leng%NULL%1,   Jia-lin%Du%NULL%1,   Hong%Chang%NULL%1,   Yuan%Yang%NULL%0,   Wei%Li%NULL%1,   Fang-fang%Shangguan%NULL%1,   Tian-yi%Yan%NULL%1,   Hui-qing%Dong%NULL%1,   Ying%Han%NULL%1,   Yu-ping%Wang%NULL%1,   Fiammetta%Cosci%NULL%1,   Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,   Zheng Feei%Ma%NULL%2,   Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,   M.%Zhou%NULL%1,   F.%Tang%NULL%1,   Y.%Wang%NULL%1,   H.%Nie%NULL%1,   L.%Zhang%NULL%1,   G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,    Wen%Li%NULL%1,    Yuan%Yang%NULL%5,    Yuan%Yang%NULL%0,    Yu%Wang%NULL%0,    Qinge%Zhang%NULL%1,    Teris%Cheung%NULL%1,    Xinjuan%Wu%NULL%1,    Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,    Baoren%Tu%NULL%2,    Jing%Ma%NULL%2,    Limin%Chen%NULL%2,    Lei%Fu%NULL%2,    Yongfang%Jiang%NULL%2,    Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,    Jing%Wei%NULL%1,    Huadong%Zhu%NULL%1,    Yanping%Duan%NULL%1,    Wenqi%Geng%NULL%1,    Xia%Hong%NULL%1,    Jing%Jiang%NULL%1,    Xiaohui%Zhao%NULL%1,    Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,    Ziwei%Fang%NULL%2,    Guoqiang%Hou%NULL%2,    Mei%Han%NULL%2,    Xinrong%Xu%NULL%2,    Jiaxin%Dong%NULL%2,    Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,    Pinpin%Zheng%NULL%2,    Pinpin%Zheng%NULL%0,    Yingnan%Jia%NULL%1,    Hao%Chen%NULL%1,    Yimeng%Mao%NULL%1,    Suhong%Chen%NULL%1,    Yi%Wang%NULL%1,    Hua%Fu%NULL%1,    Junming%Dai%NULL%1,    Kenji%Hashimoto%NULL%10,    Kenji%Hashimoto%NULL%0,    Junling%Gao%NULL%3,    Junling%Gao%NULL%0,    Junling%Gao%NULL%0,    Kenji%Hashimoto%NULL%0,    Kenji%Hashimoto%NULL%0,    Kenji%Hashimoto%NULL%0,    Kenji%Hashimoto%NULL%0,    Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,     Yu%Wang%null%0,     Hong%Wang%null%1,     Zhaorui%Liu%null%1,     Xin%Yu%null%1,     Jie%Yan%null%6,     Yaqin%Yu%null%1,     Changgui%Kou%null%1,     Xiufeng%Xu%null%1,     Jin%Lu%null%1,     Zhizhong%Wang%null%1,     Shulan%He%null%1,     Yifeng%Xu%null%1,     Yanling%He%null%1,     Tao%Li%null%4,     Wanjun%Guo%null%1,     Hongjun%Tian%null%1,     Guangming%Xu%null%1,     Xiangdong%Xu%null%1,     Yanjuan%Ma%null%1,     Linhong%Wang%null%1,     Limin%Wang%null%1,     Yongping%Yan%null%1,     Bo%Wang%null%0,     Shuiyuan%Xiao%null%1,     Liang%Zhou%null%1,     Lingjiang%Li%null%2,     Liwen%Tan%null%1,     Tingting%Zhang%null%1,     Chao%Ma%null%1,     Qiang%Li%null%2,     Hua%Ding%null%1,     Hongchun%Geng%null%1,     Fujun%Jia%null%1,     Jianfei%Shi%null%1,     Shiliang%Wang%null%1,     Ning%Zhang%null%1,     Xinbai%Du%null%1,     Xiangdong%Du%null%1,     Yue%Wu%null%2,    Yueqin%Huang%null%1,    Yu%Wang%null%0,    Hong%Wang%null%1,    Zhaorui%Liu%null%1,    Xin%Yu%null%1,    Jie%Yan%null%1,    Yaqin%Yu%null%1,    Changgui%Kou%null%1,    Xiufeng%Xu%null%1,    Jin%Lu%null%1,    Zhizhong%Wang%null%1,    Shulan%He%null%1,    Yifeng%Xu%null%2,    Yanling%He%null%1,    Tao%Li%null%0,    Wanjun%Guo%null%1,    Hongjun%Tian%null%1,    Guangming%Xu%null%1,    Xiangdong%Xu%null%1,    Yanjuan%Ma%null%1,    Linhong%Wang%null%1,    Limin%Wang%null%1,    Yongping%Yan%null%1,    Bo%Wang%null%0,    Shuiyuan%Xiao%null%1,    Liang%Zhou%null%1,    Lingjiang%Li%null%1,    Liwen%Tan%null%1,    Tingting%Zhang%null%1,    Chao%Ma%null%1,    Qiang%Li%null%1,    Hua%Ding%null%1,    Hongchun%Geng%null%1,    Fujun%Jia%null%1,    Jianfei%Shi%null%1,    Shiliang%Wang%null%1,    Ning%Zhang%null%0,    Xinbai%Du%null%1,    Xiangdong%Du%null%1,    Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,    Simeng%Ma%NULL%6,    Min%Chen%NULL%2,    Jun%Yang%NULL%2,    Ying%Wang%NULL%6,    Ruiting%Li%NULL%7,    Lihua%Yao%NULL%5,    Hanping%Bai%NULL%2,    Zhongxiang%Cai%NULL%6,    Bing%Xiang Yang%NULL%2,    Shaohua%Hu%NULL%5,    Kerang%Zhang%NULL%2,    Gaohua%Wang%NULL%5,    Ci%Ma%NULL%2,    Zhongchun%Liu%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,    Kin Kit%Li%NULL%1,    Henry Ho Hin%Chan%NULL%1,    Yuan Yuan%Yi%NULL%1,    Arthur%Tang%NULL%1,    Wan In%Wei%NULL%1,    Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,    Simeng%Ma%NULL%0,    Ying%Wang%NULL%0,    Zhongxiang%Cai%NULL%0,    Jianbo%Hu%NULL%3,    Ning%Wei%NULL%3,    Jiang%Wu%NULL%3,    Hui%Du%NULL%4,    Tingting%Chen%NULL%3,    Ruiting%Li%NULL%0,    Huawei%Tan%NULL%3,    Lijun%Kang%NULL%4,    Lihua%Yao%NULL%0,    Manli%Huang%NULL%3,    Huafen%Wang%NULL%3,    Gaohua%Wang%NULL%0,    Zhongchun%Liu%NULL%0,    Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,    Fan%Zhang%NULL%1,    Cun%Wei%NULL%1,    Yanpu%Jia%NULL%1,    Zhilei%Shang%NULL%1,    Luna%Sun%NULL%1,    Lili%Wu%NULL%1,    Zhuoer%Sun%NULL%1,    Yaoguang%Zhou%NULL%1,    Yan%Wang%NULL%1,    Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,    Hang%Wang%NULL%2,    Yuxing%Lin%NULL%2,    Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,    Lan%Deng%NULL%4,    Lan%Deng%NULL%0,    Liyan%Zhang%NULL%2,    Qiuyan%Lang%NULL%2,    Chunyan%Liao%NULL%2,    Nannan%Wang%NULL%2,    Mingqin%Qin%2026142822@qq.com%2,    Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,    Minh H.%Nguyen%NULL%1,    Binh N.%Do%NULL%1,    Cuong Q.%Tran%NULL%2,    Cuong Q.%Tran%NULL%0,    Thao T. P.%Nguyen%NULL%1,    Khue M.%Pham%NULL%2,    Khue M.%Pham%NULL%0,    Linh V.%Pham%NULL%2,    Linh V.%Pham%NULL%0,    Khanh V.%Tran%NULL%1,    Trang T.%Duong%NULL%1,    Tien V.%Tran%NULL%1,    Thai H.%Duong%NULL%1,    Tham T.%Nguyen%NULL%1,    Quyen H.%Nguyen%NULL%1,    Thanh M.%Hoang%NULL%1,    Kien T.%Nguyen%NULL%1,    Thu T. M.%Pham%NULL%1,    Shwu-Huey%Yang%NULL%1,    Jane C.-J.%Chao%NULL%2,    Jane C.-J.%Chao%NULL%0,    Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,    Francesco%Cinetto%NULL%1,    Cinzia%Milito%NULL%1,    Livia%Bonanni%NULL%1,    Anna Maria%Pesce%NULL%1,    Giorgia%Leodori%NULL%1,    Giulia%Garzi%NULL%1,    Marzia%Miglionico%NULL%1,    Stefano%Tabolli%NULL%1,    Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,    Bin%Shen%NULL%1,    Min%Zhao%NULL%2,    Zhen%Wang%NULL%2,    Zhen%Wang%NULL%0,    Bin%Xie%NULL%1,    Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,    Sarvodaya%Tripathy%NULL%1,    Sujita Kumar%Kar%NULL%1,    Nivedita%Sharma%NULL%1,    Sudhir Kumar%Verma%NULL%1,    Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,    Nicholas W.S.%Chew%NULL%2,    Grace K.H.%Lee%NULL%3,    Mingxue%Jing%NULL%3,    Yihui%Goh%NULL%3,    Leonard L.L.%Yeo%NULL%3,    Ka%Zhang%NULL%2,    Howe-Keat%Chin%NULL%2,    Aftab%Ahmad%NULL%3,    Faheem Ahmed%Khan%NULL%2,    Ganesh Napolean%Shanmugam%NULL%2,    Bernard P.L.%Chan%NULL%3,    Sibi%Sunny%NULL%3,    Bharatendu%Chandra%NULL%3,    Jonathan J.Y.%Ong%NULL%3,    Prakash R.%Paliwal%NULL%3,    Lily Y.H.%Wong%NULL%3,    Renarebecca%Sagayanathan%NULL%3,    Jin Tao%Chen%NULL%3,    Alison Ying%Ying Ng%NULL%3,    Hock Luen%Teoh%NULL%3,    Cyrus S.%Ho%NULL%5,    Roger C.%Ho%NULL%7,    Vijay K.%Sharma%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,    Riyu%Pan%NULL%5,    Riyu%Pan%NULL%0,    Xiaoyang%Wan%NULL%3,    Yilin%Tan%NULL%3,    Linkang%Xu%NULL%3,    Cyrus S.%Ho%NULL%0,    Roger C.%Ho%NULL%0,    Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,    Marina%Serper%NULL%1,    Lauren%Opsasnick%NULL%1,    Rachel M.%O'Conor%NULL%1,    Laura M.%Curtis%NULL%1,    Julia Yoshino%Benavente%NULL%1,    Guisselle%Wismer%NULL%1,    Stephanie%Batio%NULL%1,    Morgan%Eifler%NULL%1,    Pauline%Zheng%NULL%1,    Andrea%Russell%NULL%1,    Marina%Arvanitis%NULL%1,    Daniela%Ladner%NULL%1,    Mary%Kwasny%NULL%1,    Stephen D.%Persell%NULL%1,    Theresa%Rowe%NULL%1,    Jeffrey A.%Linder%NULL%1,    Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,    Yan%Zhang%NULL%2,    Desheng%Kong%NULL%2,    Shiyue%Li%NULL%2,    Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,    Zhenxin%Liao%NULL%2,    Haojie%Huang%NULL%2,    Boyue%Jiang%NULL%2,    Xueyan%Zhang%NULL%2,    Yingwen%Wang%NULL%2,    Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,    Kun%Wang%NULL%0,    Lu%Yin%NULL%0,    Wen-feng%Zhao%NULL%2,    Qing%Xue%NULL%2,    Mao%Peng%NULL%2,    Bao-quan%Min%NULL%2,    Qing%Tian%NULL%2,    Hai-xia%Leng%NULL%2,    Jia-lin%Du%NULL%2,    Hong%Chang%NULL%2,    Yuan%Yang%NULL%0,    Wei%Li%NULL%4,    Fang-fang%Shangguan%NULL%2,    Tian-yi%Yan%NULL%2,    Hui-qing%Dong%NULL%2,    Ying%Han%NULL%2,    Yu-ping%Wang%NULL%2,    Fiammetta%Cosci%NULL%2,    Hong-xing%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,    Zheng Feei%Ma%NULL%4,    Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,    M.%Zhou%NULL%1,    F.%Tang%NULL%1,    Y.%Wang%NULL%1,    H.%Nie%NULL%1,    L.%Zhang%NULL%1,    G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,     Wen%Li%NULL%1,     Yuan%Yang%NULL%5,     Yuan%Yang%NULL%0,     Yu%Wang%NULL%0,     Qinge%Zhang%NULL%1,     Teris%Cheung%NULL%1,     Xinjuan%Wu%NULL%1,     Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,     Baoren%Tu%NULL%2,     Jing%Ma%NULL%3,     Limin%Chen%NULL%2,     Lei%Fu%NULL%2,     Yongfang%Jiang%NULL%2,     Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,     Jing%Wei%NULL%1,     Huadong%Zhu%NULL%1,     Yanping%Duan%NULL%1,     Wenqi%Geng%NULL%1,     Xia%Hong%NULL%1,     Jing%Jiang%NULL%1,     Xiaohui%Zhao%NULL%1,     Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,     Ziwei%Fang%NULL%2,     Guoqiang%Hou%NULL%2,     Mei%Han%NULL%2,     Xinrong%Xu%NULL%2,     Jiaxin%Dong%NULL%2,     Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,     Pinpin%Zheng%NULL%2,     Pinpin%Zheng%NULL%0,     Yingnan%Jia%NULL%1,     Hao%Chen%NULL%1,     Yimeng%Mao%NULL%1,     Suhong%Chen%NULL%1,     Yi%Wang%NULL%1,     Hua%Fu%NULL%1,     Junming%Dai%NULL%1,     Kenji%Hashimoto%NULL%10,     Kenji%Hashimoto%NULL%0,     Junling%Gao%NULL%3,     Junling%Gao%NULL%0,     Junling%Gao%NULL%0,     Kenji%Hashimoto%NULL%0,     Kenji%Hashimoto%NULL%0,     Kenji%Hashimoto%NULL%0,     Kenji%Hashimoto%NULL%0,     Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,      Yu%Wang%null%0,      Hong%Wang%null%1,      Zhaorui%Liu%null%1,      Xin%Yu%null%1,      Jie%Yan%null%6,      Yaqin%Yu%null%1,      Changgui%Kou%null%1,      Xiufeng%Xu%null%1,      Jin%Lu%null%1,      Zhizhong%Wang%null%1,      Shulan%He%null%1,      Yifeng%Xu%null%1,      Yanling%He%null%1,      Tao%Li%null%4,      Wanjun%Guo%null%1,      Hongjun%Tian%null%1,      Guangming%Xu%null%1,      Xiangdong%Xu%null%1,      Yanjuan%Ma%null%1,      Linhong%Wang%null%1,      Limin%Wang%null%1,      Yongping%Yan%null%1,      Bo%Wang%null%0,      Shuiyuan%Xiao%null%1,      Liang%Zhou%null%1,      Lingjiang%Li%null%2,      Liwen%Tan%null%1,      Tingting%Zhang%null%1,      Chao%Ma%null%1,      Qiang%Li%null%1,      Hua%Ding%null%1,      Hongchun%Geng%null%1,      Fujun%Jia%null%1,      Jianfei%Shi%null%1,      Shiliang%Wang%null%1,      Ning%Zhang%null%1,      Xinbai%Du%null%1,      Xiangdong%Du%null%1,      Yue%Wu%null%2,     Yueqin%Huang%null%1,     Yu%Wang%null%0,     Hong%Wang%null%1,     Zhaorui%Liu%null%1,     Xin%Yu%null%1,     Jie%Yan%null%1,     Yaqin%Yu%null%1,     Changgui%Kou%null%1,     Xiufeng%Xu%null%1,     Jin%Lu%null%1,     Zhizhong%Wang%null%1,     Shulan%He%null%1,     Yifeng%Xu%null%2,     Yanling%He%null%1,     Tao%Li%null%0,     Wanjun%Guo%null%1,     Hongjun%Tian%null%1,     Guangming%Xu%null%1,     Xiangdong%Xu%null%1,     Yanjuan%Ma%null%1,     Linhong%Wang%null%1,     Limin%Wang%null%1,     Yongping%Yan%null%1,     Bo%Wang%null%0,     Shuiyuan%Xiao%null%1,     Liang%Zhou%null%1,     Lingjiang%Li%null%1,     Liwen%Tan%null%1,     Tingting%Zhang%null%1,     Chao%Ma%null%1,     Qiang%Li%null%2,     Hua%Ding%null%1,     Hongchun%Geng%null%1,     Fujun%Jia%null%1,     Jianfei%Shi%null%1,     Shiliang%Wang%null%1,     Ning%Zhang%null%0,     Xinbai%Du%null%1,     Xiangdong%Du%null%1,     Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,     Simeng%Ma%NULL%6,     Min%Chen%NULL%2,     Jun%Yang%NULL%2,     Ying%Wang%NULL%6,     Ruiting%Li%NULL%7,     Lihua%Yao%NULL%5,     Hanping%Bai%NULL%2,     Zhongxiang%Cai%NULL%6,     Bing%Xiang Yang%NULL%2,     Shaohua%Hu%NULL%5,     Kerang%Zhang%NULL%2,     Gaohua%Wang%NULL%5,     Ci%Ma%NULL%2,     Zhongchun%Liu%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,     Kin Kit%Li%NULL%1,     Henry Ho Hin%Chan%NULL%1,     Yuan Yuan%Yi%NULL%1,     Arthur%Tang%NULL%1,     Wan In%Wei%NULL%1,     Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,     Simeng%Ma%NULL%0,     Ying%Wang%NULL%0,     Zhongxiang%Cai%NULL%0,     Jianbo%Hu%NULL%3,     Ning%Wei%NULL%3,     Jiang%Wu%NULL%3,     Hui%Du%NULL%4,     Tingting%Chen%NULL%3,     Ruiting%Li%NULL%0,     Huawei%Tan%NULL%3,     Lijun%Kang%NULL%4,     Lihua%Yao%NULL%0,     Manli%Huang%NULL%3,     Huafen%Wang%NULL%3,     Gaohua%Wang%NULL%0,     Zhongchun%Liu%NULL%0,     Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,     Fan%Zhang%NULL%1,     Cun%Wei%NULL%1,     Yanpu%Jia%NULL%1,     Zhilei%Shang%NULL%1,     Luna%Sun%NULL%1,     Lili%Wu%NULL%1,     Zhuoer%Sun%NULL%1,     Yaoguang%Zhou%NULL%1,     Yan%Wang%NULL%1,     Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,     Hang%Wang%NULL%2,     Yuxing%Lin%NULL%2,     Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,     Lan%Deng%NULL%4,     Lan%Deng%NULL%0,     Liyan%Zhang%NULL%2,     Qiuyan%Lang%NULL%2,     Chunyan%Liao%NULL%2,     Nannan%Wang%NULL%2,     Mingqin%Qin%2026142822@qq.com%2,     Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,     Minh H.%Nguyen%NULL%1,     Binh N.%Do%NULL%1,     Cuong Q.%Tran%NULL%2,     Cuong Q.%Tran%NULL%0,     Thao T. P.%Nguyen%NULL%1,     Khue M.%Pham%NULL%2,     Khue M.%Pham%NULL%0,     Linh V.%Pham%NULL%2,     Linh V.%Pham%NULL%0,     Khanh V.%Tran%NULL%1,     Trang T.%Duong%NULL%1,     Tien V.%Tran%NULL%1,     Thai H.%Duong%NULL%1,     Tham T.%Nguyen%NULL%1,     Quyen H.%Nguyen%NULL%1,     Thanh M.%Hoang%NULL%1,     Kien T.%Nguyen%NULL%1,     Thu T. M.%Pham%NULL%1,     Shwu-Huey%Yang%NULL%1,     Jane C.-J.%Chao%NULL%2,     Jane C.-J.%Chao%NULL%0,     Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,     Francesco%Cinetto%NULL%1,     Cinzia%Milito%NULL%1,     Livia%Bonanni%NULL%1,     Anna Maria%Pesce%NULL%1,     Giorgia%Leodori%NULL%1,     Giulia%Garzi%NULL%1,     Marzia%Miglionico%NULL%1,     Stefano%Tabolli%NULL%1,     Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,     Bin%Shen%NULL%1,     Min%Zhao%NULL%2,     Zhen%Wang%NULL%2,     Zhen%Wang%NULL%0,     Bin%Xie%NULL%1,     Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,     Sarvodaya%Tripathy%NULL%1,     Sujita Kumar%Kar%NULL%1,     Nivedita%Sharma%NULL%1,     Sudhir Kumar%Verma%NULL%1,     Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,     Nicholas W.S.%Chew%NULL%2,     Grace K.H.%Lee%NULL%3,     Mingxue%Jing%NULL%3,     Yihui%Goh%NULL%3,     Leonard L.L.%Yeo%NULL%3,     Ka%Zhang%NULL%2,     Howe-Keat%Chin%NULL%2,     Aftab%Ahmad%NULL%3,     Faheem Ahmed%Khan%NULL%2,     Ganesh Napolean%Shanmugam%NULL%2,     Bernard P.L.%Chan%NULL%3,     Sibi%Sunny%NULL%3,     Bharatendu%Chandra%NULL%3,     Jonathan J.Y.%Ong%NULL%3,     Prakash R.%Paliwal%NULL%3,     Lily Y.H.%Wong%NULL%3,     Renarebecca%Sagayanathan%NULL%3,     Jin Tao%Chen%NULL%3,     Alison Ying%Ying Ng%NULL%3,     Hock Luen%Teoh%NULL%3,     Cyrus S.%Ho%NULL%5,     Roger C.%Ho%NULL%7,     Vijay K.%Sharma%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,     Riyu%Pan%NULL%5,     Riyu%Pan%NULL%0,     Xiaoyang%Wan%NULL%3,     Yilin%Tan%NULL%3,     Linkang%Xu%NULL%3,     Cyrus S.%Ho%NULL%0,     Roger C.%Ho%NULL%0,     Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,     Marina%Serper%NULL%1,     Lauren%Opsasnick%NULL%1,     Rachel M.%O'Conor%NULL%1,     Laura M.%Curtis%NULL%1,     Julia Yoshino%Benavente%NULL%1,     Guisselle%Wismer%NULL%1,     Stephanie%Batio%NULL%1,     Morgan%Eifler%NULL%1,     Pauline%Zheng%NULL%1,     Andrea%Russell%NULL%1,     Marina%Arvanitis%NULL%1,     Daniela%Ladner%NULL%1,     Mary%Kwasny%NULL%1,     Stephen D.%Persell%NULL%1,     Theresa%Rowe%NULL%1,     Jeffrey A.%Linder%NULL%1,     Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,     Yan%Zhang%NULL%2,     Desheng%Kong%NULL%2,     Shiyue%Li%NULL%3,     Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,     Zhenxin%Liao%NULL%2,     Haojie%Huang%NULL%2,     Boyue%Jiang%NULL%2,     Xueyan%Zhang%NULL%2,     Yingwen%Wang%NULL%2,     Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,     Kun%Wang%NULL%0,     Lu%Yin%NULL%0,     Wen-feng%Zhao%NULL%2,     Qing%Xue%NULL%2,     Mao%Peng%NULL%2,     Bao-quan%Min%NULL%2,     Qing%Tian%NULL%2,     Hai-xia%Leng%NULL%2,     Jia-lin%Du%NULL%2,     Hong%Chang%NULL%2,     Yuan%Yang%NULL%0,     Wei%Li%NULL%4,     Fang-fang%Shangguan%NULL%2,     Tian-yi%Yan%NULL%2,     Hui-qing%Dong%NULL%2,     Ying%Han%NULL%2,     Yu-ping%Wang%NULL%2,     Fiammetta%Cosci%NULL%2,     Hong-xing%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,     Zheng Feei%Ma%NULL%4,     Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,     M.%Zhou%NULL%1,     F.%Tang%NULL%1,     Y.%Wang%NULL%1,     H.%Nie%NULL%1,     L.%Zhang%NULL%1,     G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,      Wen%Li%NULL%1,      Yuan%Yang%NULL%5,      Yuan%Yang%NULL%0,      Yu%Wang%NULL%0,      Qinge%Zhang%NULL%1,      Teris%Cheung%NULL%1,      Xinjuan%Wu%NULL%1,      Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,      Baoren%Tu%NULL%2,      Jing%Ma%NULL%3,      Limin%Chen%NULL%2,      Lei%Fu%NULL%2,      Yongfang%Jiang%NULL%2,      Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,      Jing%Wei%NULL%1,      Huadong%Zhu%NULL%1,      Yanping%Duan%NULL%1,      Wenqi%Geng%NULL%1,      Xia%Hong%NULL%1,      Jing%Jiang%NULL%1,      Xiaohui%Zhao%NULL%1,      Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,      Ziwei%Fang%NULL%2,      Guoqiang%Hou%NULL%2,      Mei%Han%NULL%2,      Xinrong%Xu%NULL%2,      Jiaxin%Dong%NULL%2,      Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,      Pinpin%Zheng%NULL%2,      Pinpin%Zheng%NULL%0,      Yingnan%Jia%NULL%1,      Hao%Chen%NULL%1,      Yimeng%Mao%NULL%1,      Suhong%Chen%NULL%1,      Yi%Wang%NULL%1,      Hua%Fu%NULL%1,      Junming%Dai%NULL%1,      Kenji%Hashimoto%NULL%10,      Kenji%Hashimoto%NULL%0,      Junling%Gao%NULL%3,      Junling%Gao%NULL%0,      Junling%Gao%NULL%0,      Kenji%Hashimoto%NULL%0,      Kenji%Hashimoto%NULL%0,      Kenji%Hashimoto%NULL%0,      Kenji%Hashimoto%NULL%0,      Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,       Yu%Wang%null%0,       Hong%Wang%null%1,       Zhaorui%Liu%null%1,       Xin%Yu%null%1,       Jie%Yan%null%6,       Yaqin%Yu%null%1,       Changgui%Kou%null%1,       Xiufeng%Xu%null%1,       Jin%Lu%null%1,       Zhizhong%Wang%null%1,       Shulan%He%null%1,       Yifeng%Xu%null%1,       Yanling%He%null%1,       Tao%Li%null%4,       Wanjun%Guo%null%1,       Hongjun%Tian%null%1,       Guangming%Xu%null%1,       Xiangdong%Xu%null%1,       Yanjuan%Ma%null%1,       Linhong%Wang%null%1,       Limin%Wang%null%1,       Yongping%Yan%null%1,       Bo%Wang%null%0,       Shuiyuan%Xiao%null%1,       Liang%Zhou%null%1,       Lingjiang%Li%null%2,       Liwen%Tan%null%1,       Tingting%Zhang%null%1,       Chao%Ma%null%1,       Qiang%Li%null%1,       Hua%Ding%null%1,       Hongchun%Geng%null%1,       Fujun%Jia%null%1,       Jianfei%Shi%null%1,       Shiliang%Wang%null%1,       Ning%Zhang%null%1,       Xinbai%Du%null%1,       Xiangdong%Du%null%1,       Yue%Wu%null%2,      Yueqin%Huang%null%1,      Yu%Wang%null%0,      Hong%Wang%null%1,      Zhaorui%Liu%null%1,      Xin%Yu%null%1,      Jie%Yan%null%1,      Yaqin%Yu%null%1,      Changgui%Kou%null%1,      Xiufeng%Xu%null%1,      Jin%Lu%null%1,      Zhizhong%Wang%null%1,      Shulan%He%null%1,      Yifeng%Xu%null%2,      Yanling%He%null%1,      Tao%Li%null%0,      Wanjun%Guo%null%1,      Hongjun%Tian%null%1,      Guangming%Xu%null%1,      Xiangdong%Xu%null%1,      Yanjuan%Ma%null%1,      Linhong%Wang%null%1,      Limin%Wang%null%1,      Yongping%Yan%null%1,      Bo%Wang%null%0,      Shuiyuan%Xiao%null%1,      Liang%Zhou%null%1,      Lingjiang%Li%null%1,      Liwen%Tan%null%1,      Tingting%Zhang%null%1,      Chao%Ma%null%1,      Qiang%Li%null%2,      Hua%Ding%null%1,      Hongchun%Geng%null%1,      Fujun%Jia%null%1,      Jianfei%Shi%null%1,      Shiliang%Wang%null%1,      Ning%Zhang%null%0,      Xinbai%Du%null%1,      Xiangdong%Du%null%1,      Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,      Simeng%Ma%NULL%6,      Min%Chen%NULL%2,      Jun%Yang%NULL%2,      Ying%Wang%NULL%6,      Ruiting%Li%NULL%7,      Lihua%Yao%NULL%5,      Hanping%Bai%NULL%2,      Zhongxiang%Cai%NULL%6,      Bing%Xiang Yang%NULL%2,      Shaohua%Hu%NULL%5,      Kerang%Zhang%NULL%2,      Gaohua%Wang%NULL%5,      Ci%Ma%NULL%2,      Zhongchun%Liu%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,      Kin Kit%Li%NULL%1,      Henry Ho Hin%Chan%NULL%1,      Yuan Yuan%Yi%NULL%1,      Arthur%Tang%NULL%1,      Wan In%Wei%NULL%1,      Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,      Simeng%Ma%NULL%0,      Ying%Wang%NULL%0,      Zhongxiang%Cai%NULL%0,      Jianbo%Hu%NULL%3,      Ning%Wei%NULL%3,      Jiang%Wu%NULL%3,      Hui%Du%NULL%4,      Tingting%Chen%NULL%3,      Ruiting%Li%NULL%0,      Huawei%Tan%NULL%3,      Lijun%Kang%NULL%4,      Lihua%Yao%NULL%0,      Manli%Huang%NULL%3,      Huafen%Wang%NULL%3,      Gaohua%Wang%NULL%0,      Zhongchun%Liu%NULL%0,      Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,      Fan%Zhang%NULL%1,      Cun%Wei%NULL%1,      Yanpu%Jia%NULL%1,      Zhilei%Shang%NULL%1,      Luna%Sun%NULL%1,      Lili%Wu%NULL%1,      Zhuoer%Sun%NULL%1,      Yaoguang%Zhou%NULL%1,      Yan%Wang%NULL%1,      Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,      Hang%Wang%NULL%2,      Yuxing%Lin%NULL%2,      Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,      Lan%Deng%NULL%4,      Lan%Deng%NULL%0,      Liyan%Zhang%NULL%2,      Qiuyan%Lang%NULL%2,      Chunyan%Liao%NULL%2,      Nannan%Wang%NULL%2,      Mingqin%Qin%2026142822@qq.com%2,      Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,      Minh H.%Nguyen%NULL%1,      Binh N.%Do%NULL%1,      Cuong Q.%Tran%NULL%2,      Cuong Q.%Tran%NULL%0,      Thao T. P.%Nguyen%NULL%1,      Khue M.%Pham%NULL%2,      Khue M.%Pham%NULL%0,      Linh V.%Pham%NULL%2,      Linh V.%Pham%NULL%0,      Khanh V.%Tran%NULL%1,      Trang T.%Duong%NULL%1,      Tien V.%Tran%NULL%1,      Thai H.%Duong%NULL%1,      Tham T.%Nguyen%NULL%1,      Quyen H.%Nguyen%NULL%1,      Thanh M.%Hoang%NULL%1,      Kien T.%Nguyen%NULL%1,      Thu T. M.%Pham%NULL%1,      Shwu-Huey%Yang%NULL%1,      Jane C.-J.%Chao%NULL%2,      Jane C.-J.%Chao%NULL%0,      Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,      Francesco%Cinetto%NULL%1,      Cinzia%Milito%NULL%1,      Livia%Bonanni%NULL%1,      Anna Maria%Pesce%NULL%1,      Giorgia%Leodori%NULL%1,      Giulia%Garzi%NULL%1,      Marzia%Miglionico%NULL%1,      Stefano%Tabolli%NULL%1,      Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,      Bin%Shen%NULL%1,      Min%Zhao%NULL%2,      Zhen%Wang%NULL%2,      Zhen%Wang%NULL%0,      Bin%Xie%NULL%1,      Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,      Sarvodaya%Tripathy%NULL%1,      Sujita Kumar%Kar%NULL%1,      Nivedita%Sharma%NULL%1,      Sudhir Kumar%Verma%NULL%1,      Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,      Nicholas W.S.%Chew%NULL%2,      Grace K.H.%Lee%NULL%3,      Mingxue%Jing%NULL%3,      Yihui%Goh%NULL%3,      Leonard L.L.%Yeo%NULL%3,      Ka%Zhang%NULL%2,      Howe-Keat%Chin%NULL%2,      Aftab%Ahmad%NULL%3,      Faheem Ahmed%Khan%NULL%2,      Ganesh Napolean%Shanmugam%NULL%2,      Bernard P.L.%Chan%NULL%3,      Sibi%Sunny%NULL%3,      Bharatendu%Chandra%NULL%3,      Jonathan J.Y.%Ong%NULL%3,      Prakash R.%Paliwal%NULL%3,      Lily Y.H.%Wong%NULL%3,      Renarebecca%Sagayanathan%NULL%3,      Jin Tao%Chen%NULL%3,      Alison Ying%Ying Ng%NULL%3,      Hock Luen%Teoh%NULL%3,      Cyrus S.%Ho%NULL%5,      Roger C.%Ho%NULL%7,      Vijay K.%Sharma%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,      Riyu%Pan%NULL%5,      Riyu%Pan%NULL%0,      Xiaoyang%Wan%NULL%3,      Yilin%Tan%NULL%3,      Linkang%Xu%NULL%3,      Cyrus S.%Ho%NULL%0,      Roger C.%Ho%NULL%0,      Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,      Marina%Serper%NULL%1,      Lauren%Opsasnick%NULL%1,      Rachel M.%O'Conor%NULL%1,      Laura M.%Curtis%NULL%1,      Julia Yoshino%Benavente%NULL%1,      Guisselle%Wismer%NULL%1,      Stephanie%Batio%NULL%1,      Morgan%Eifler%NULL%1,      Pauline%Zheng%NULL%1,      Andrea%Russell%NULL%1,      Marina%Arvanitis%NULL%1,      Daniela%Ladner%NULL%1,      Mary%Kwasny%NULL%1,      Stephen D.%Persell%NULL%1,      Theresa%Rowe%NULL%1,      Jeffrey A.%Linder%NULL%1,      Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,      Yan%Zhang%NULL%2,      Desheng%Kong%NULL%2,      Shiyue%Li%NULL%3,      Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,      Zhenxin%Liao%NULL%2,      Haojie%Huang%NULL%2,      Boyue%Jiang%NULL%2,      Xueyan%Zhang%NULL%2,      Yingwen%Wang%NULL%2,      Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,      Kun%Wang%NULL%0,      Lu%Yin%NULL%0,      Wen-feng%Zhao%NULL%2,      Qing%Xue%NULL%2,      Mao%Peng%NULL%2,      Bao-quan%Min%NULL%2,      Qing%Tian%NULL%2,      Hai-xia%Leng%NULL%2,      Jia-lin%Du%NULL%2,      Hong%Chang%NULL%2,      Yuan%Yang%NULL%0,      Wei%Li%NULL%4,      Fang-fang%Shangguan%NULL%2,      Tian-yi%Yan%NULL%2,      Hui-qing%Dong%NULL%2,      Ying%Han%NULL%2,      Yu-ping%Wang%NULL%2,      Fiammetta%Cosci%NULL%2,      Hong-xing%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,      Zheng Feei%Ma%NULL%4,      Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,      M.%Zhou%NULL%1,      F.%Tang%NULL%1,      Y.%Wang%NULL%1,      H.%Nie%NULL%1,      L.%Zhang%NULL%1,      G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1459,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1200,7 +1488,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1229,7 +1517,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -1258,7 +1546,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1345,7 +1633,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -1403,7 +1691,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1432,7 +1720,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1461,7 +1749,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1490,7 +1778,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1519,7 +1807,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1548,7 +1836,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1577,7 +1865,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -1635,7 +1923,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -1664,7 +1952,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>269</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -1693,7 +1981,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -1722,7 +2010,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>271</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -1751,7 +2039,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -1780,7 +2068,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -1838,7 +2126,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -1867,7 +2155,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -1896,7 +2184,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -1925,7 +2213,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -1954,7 +2242,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -1983,7 +2271,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="343">
   <si>
     <t>Doi</t>
   </si>
@@ -1079,6 +1079,195 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,      M.%Zhou%NULL%1,      F.%Tang%NULL%1,      Y.%Wang%NULL%1,      H.%Nie%NULL%1,      L.%Zhang%NULL%1,      G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,       Wen%Li%NULL%1,       Yuan%Yang%NULL%3,       Yuan%Yang%NULL%0,       Yu%Wang%NULL%0,       Qinge%Zhang%NULL%1,       Teris%Cheung%NULL%1,       Xinjuan%Wu%NULL%1,       Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,       Baoren%Tu%NULL%2,       Jing%Ma%NULL%2,       Limin%Chen%NULL%2,       Lei%Fu%NULL%2,       Yongfang%Jiang%NULL%2,       Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,       Jing%Wei%NULL%1,       Huadong%Zhu%NULL%1,       Yanping%Duan%NULL%1,       Wenqi%Geng%NULL%1,       Xia%Hong%NULL%1,       Jing%Jiang%NULL%1,       Xiaohui%Zhao%NULL%1,       Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,       Ziwei%Fang%NULL%2,       Guoqiang%Hou%NULL%2,       Mei%Han%NULL%2,       Xinrong%Xu%NULL%2,       Jiaxin%Dong%NULL%2,       Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>"Staff Mental Health Self-Assessment During the COVID-19 Outbreak"</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2, Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0, Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,       Pinpin%Zheng%NULL%2,       Pinpin%Zheng%NULL%0,       Yingnan%Jia%NULL%1,       Hao%Chen%NULL%1,       Yimeng%Mao%NULL%1,       Suhong%Chen%NULL%1,       Yi%Wang%NULL%1,       Hua%Fu%NULL%1,       Junming%Dai%NULL%1,       Kenji%Hashimoto%NULL%10,       Kenji%Hashimoto%NULL%0,       Junling%Gao%NULL%3,       Junling%Gao%NULL%0,       Junling%Gao%NULL%0,       Kenji%Hashimoto%NULL%0,       Kenji%Hashimoto%NULL%0,       Kenji%Hashimoto%NULL%0,       Kenji%Hashimoto%NULL%0,       Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,        Yu%Wang%null%0,        Hong%Wang%null%1,        Zhaorui%Liu%null%1,        Xin%Yu%null%1,        Jie%Yan%null%2,        Yaqin%Yu%null%1,        Changgui%Kou%null%1,        Xiufeng%Xu%null%1,        Jin%Lu%null%1,        Zhizhong%Wang%null%1,        Shulan%He%null%1,        Yifeng%Xu%null%1,        Yanling%He%null%1,        Tao%Li%null%3,        Wanjun%Guo%null%1,        Hongjun%Tian%null%1,        Guangming%Xu%null%1,        Xiangdong%Xu%null%1,        Yanjuan%Ma%null%1,        Linhong%Wang%null%1,        Limin%Wang%null%1,        Yongping%Yan%null%1,        Bo%Wang%null%0,        Shuiyuan%Xiao%null%1,        Liang%Zhou%null%1,        Lingjiang%Li%null%1,        Liwen%Tan%null%1,        Tingting%Zhang%null%1,        Chao%Ma%null%1,        Qiang%Li%null%2,        Hua%Ding%null%1,        Hongchun%Geng%null%1,        Fujun%Jia%null%1,        Jianfei%Shi%null%1,        Shiliang%Wang%null%1,        Ning%Zhang%null%1,        Xinbai%Du%null%1,        Xiangdong%Du%null%1,        Yue%Wu%null%2,       Yueqin%Huang%null%1,       Yu%Wang%null%0,       Hong%Wang%null%1,       Zhaorui%Liu%null%1,       Xin%Yu%null%1,       Jie%Yan%null%1,       Yaqin%Yu%null%1,       Changgui%Kou%null%1,       Xiufeng%Xu%null%1,       Jin%Lu%null%1,       Zhizhong%Wang%null%1,       Shulan%He%null%1,       Yifeng%Xu%null%2,       Yanling%He%null%1,       Tao%Li%null%0,       Wanjun%Guo%null%1,       Hongjun%Tian%null%1,       Guangming%Xu%null%1,       Xiangdong%Xu%null%1,       Yanjuan%Ma%null%1,       Linhong%Wang%null%1,       Limin%Wang%null%1,       Yongping%Yan%null%1,       Bo%Wang%null%0,       Shuiyuan%Xiao%null%1,       Liang%Zhou%null%1,       Lingjiang%Li%null%1,       Liwen%Tan%null%1,       Tingting%Zhang%null%1,       Chao%Ma%null%1,       Qiang%Li%null%1,       Hua%Ding%null%1,       Hongchun%Geng%null%1,       Fujun%Jia%null%1,       Jianfei%Shi%null%1,       Shiliang%Wang%null%1,       Ning%Zhang%null%0,       Xinbai%Du%null%1,       Xiangdong%Du%null%1,       Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,       Simeng%Ma%NULL%4,       Min%Chen%NULL%2,       Jun%Yang%NULL%2,       Ying%Wang%NULL%4,       Ruiting%Li%NULL%5,       Lihua%Yao%NULL%4,       Hanping%Bai%NULL%2,       Zhongxiang%Cai%NULL%4,       Bing%Xiang Yang%NULL%2,       Shaohua%Hu%NULL%4,       Kerang%Zhang%NULL%2,       Gaohua%Wang%NULL%4,       Ci%Ma%NULL%2,       Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,       Kin Kit%Li%NULL%1,       Henry Ho Hin%Chan%NULL%1,       Yuan Yuan%Yi%NULL%1,       Arthur%Tang%NULL%1,       Wan In%Wei%NULL%1,       Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,       Simeng%Ma%NULL%0,       Ying%Wang%NULL%0,       Zhongxiang%Cai%NULL%0,       Jianbo%Hu%NULL%2,       Ning%Wei%NULL%2,       Jiang%Wu%NULL%2,       Hui%Du%NULL%2,       Tingting%Chen%NULL%2,       Ruiting%Li%NULL%0,       Huawei%Tan%NULL%2,       Lijun%Kang%NULL%2,       Lihua%Yao%NULL%0,       Manli%Huang%NULL%2,       Huafen%Wang%NULL%2,       Gaohua%Wang%NULL%0,       Zhongchun%Liu%NULL%0,       Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,       Fan%Zhang%NULL%1,       Cun%Wei%NULL%1,       Yanpu%Jia%NULL%1,       Zhilei%Shang%NULL%1,       Luna%Sun%NULL%1,       Lili%Wu%NULL%1,       Zhuoer%Sun%NULL%1,       Yaoguang%Zhou%NULL%1,       Yan%Wang%NULL%1,       Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,       Hang%Wang%NULL%1,       Yuxing%Lin%NULL%1,       Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,       Lan%Deng%NULL%4,       Lan%Deng%NULL%0,       Liyan%Zhang%NULL%2,       Qiuyan%Lang%NULL%2,       Chunyan%Liao%NULL%2,       Nannan%Wang%NULL%2,       Mingqin%Qin%2026142822@qq.com%2,       Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>"Evaluation of the Level of Anxiety among Iranian Multiple Sclerosis Fellowships During the Outbreak of COVID-19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n          </t>
+  </si>
+  <si>
+    <t>[Abdorreza%Naser Moghadasi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-03-23</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,       Minh H.%Nguyen%NULL%1,       Binh N.%Do%NULL%1,       Cuong Q.%Tran%NULL%2,       Cuong Q.%Tran%NULL%0,       Thao T. P.%Nguyen%NULL%1,       Khue M.%Pham%NULL%2,       Khue M.%Pham%NULL%0,       Linh V.%Pham%NULL%2,       Linh V.%Pham%NULL%0,       Khanh V.%Tran%NULL%1,       Trang T.%Duong%NULL%1,       Tien V.%Tran%NULL%1,       Thai H.%Duong%NULL%1,       Tham T.%Nguyen%NULL%1,       Quyen H.%Nguyen%NULL%1,       Thanh M.%Hoang%NULL%1,       Kien T.%Nguyen%NULL%1,       Thu T. M.%Pham%NULL%1,       Shwu-Huey%Yang%NULL%1,       Jane C.-J.%Chao%NULL%2,       Jane C.-J.%Chao%NULL%0,       Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,       Francesco%Cinetto%NULL%1,       Cinzia%Milito%NULL%1,       Livia%Bonanni%NULL%1,       Anna Maria%Pesce%NULL%1,       Giorgia%Leodori%NULL%1,       Giulia%Garzi%NULL%1,       Marzia%Miglionico%NULL%1,       Stefano%Tabolli%NULL%1,       Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,       Bin%Shen%NULL%1,       Min%Zhao%NULL%1,       Zhen%Wang%NULL%2,       Zhen%Wang%NULL%0,       Bin%Xie%NULL%1,       Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,       Sarvodaya%Tripathy%NULL%1,       Sujita Kumar%Kar%NULL%1,       Nivedita%Sharma%NULL%1,       Sudhir Kumar%Verma%NULL%1,       Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,       Nicholas W.S.%Chew%NULL%1,       Grace K.H.%Lee%NULL%1,       Mingxue%Jing%NULL%1,       Yihui%Goh%NULL%1,       Leonard L.L.%Yeo%NULL%1,       Ka%Zhang%NULL%1,       Howe-Keat%Chin%NULL%1,       Aftab%Ahmad%NULL%1,       Faheem Ahmed%Khan%NULL%1,       Ganesh Napolean%Shanmugam%NULL%1,       Bernard P.L.%Chan%NULL%1,       Sibi%Sunny%NULL%1,       Bharatendu%Chandra%NULL%1,       Jonathan J.Y.%Ong%NULL%1,       Prakash R.%Paliwal%NULL%1,       Lily Y.H.%Wong%NULL%1,       Renarebecca%Sagayanathan%NULL%1,       Jin Tao%Chen%NULL%1,       Alison Ying%Ying Ng%NULL%1,       Hock Luen%Teoh%NULL%1,       Cyrus S.%Ho%NULL%3,       Roger C.%Ho%NULL%5,       Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,       Riyu%Pan%NULL%5,       Riyu%Pan%NULL%0,       Xiaoyang%Wan%NULL%3,       Yilin%Tan%NULL%3,       Linkang%Xu%NULL%3,       Cyrus S.%Ho%NULL%0,       Roger C.%Ho%NULL%0,       Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Study on the public psychological states and its related factors during the outbreak of coronavirus disease 2019 (COVID-19) in some regions of China"</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2, Yu%Di%xref no email%2, Junjie%Ye%xref no email%2, Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,       Marina%Serper%NULL%1,       Lauren%Opsasnick%NULL%1,       Rachel M.%O'Conor%NULL%1,       Laura M.%Curtis%NULL%1,       Julia Yoshino%Benavente%NULL%1,       Guisselle%Wismer%NULL%1,       Stephanie%Batio%NULL%1,       Morgan%Eifler%NULL%1,       Pauline%Zheng%NULL%1,       Andrea%Russell%NULL%1,       Marina%Arvanitis%NULL%1,       Daniela%Ladner%NULL%1,       Mary%Kwasny%NULL%1,       Stephen D.%Persell%NULL%1,       Theresa%Rowe%NULL%1,       Jeffrey A.%Linder%NULL%1,       Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,       Yan%Zhang%NULL%2,       Desheng%Kong%NULL%2,       Shiyue%Li%NULL%2,       Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,       Zhenxin%Liao%NULL%2,       Haojie%Huang%NULL%2,       Boyue%Jiang%NULL%2,       Xueyan%Zhang%NULL%2,       Yingwen%Wang%NULL%2,       Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,       Kun%Wang%NULL%0,       Lu%Yin%NULL%0,       Wen-feng%Zhao%NULL%1,       Qing%Xue%NULL%1,       Mao%Peng%NULL%1,       Bao-quan%Min%NULL%1,       Qing%Tian%NULL%1,       Hai-xia%Leng%NULL%1,       Jia-lin%Du%NULL%1,       Hong%Chang%NULL%1,       Yuan%Yang%NULL%0,       Wei%Li%NULL%1,       Fang-fang%Shangguan%NULL%1,       Tian-yi%Yan%NULL%1,       Hui-qing%Dong%NULL%1,       Ying%Han%NULL%1,       Yu-ping%Wang%NULL%1,       Fiammetta%Cosci%NULL%1,       Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,       Zheng Feei%Ma%NULL%4,       Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,       M.%Zhou%NULL%1,       F.%Tang%NULL%1,       Y.%Wang%NULL%1,       H.%Nie%NULL%1,       L.%Zhang%NULL%1,       G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,        Wen%Li%NULL%1,        Yuan%Yang%NULL%3,        Yuan%Yang%NULL%0,        Yu%Wang%NULL%0,        Qinge%Zhang%NULL%1,        Teris%Cheung%NULL%1,        Xinjuan%Wu%NULL%1,        Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,        Baoren%Tu%NULL%2,        Jing%Ma%NULL%2,        Limin%Chen%NULL%2,        Lei%Fu%NULL%2,        Yongfang%Jiang%NULL%2,        Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,        Jing%Wei%NULL%1,        Huadong%Zhu%NULL%1,        Yanping%Duan%NULL%1,        Wenqi%Geng%NULL%1,        Xia%Hong%NULL%1,        Jing%Jiang%NULL%1,        Xiaohui%Zhao%NULL%1,        Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,        Ziwei%Fang%NULL%2,        Guoqiang%Hou%NULL%2,        Mei%Han%NULL%2,        Xinrong%Xu%NULL%2,        Jiaxin%Dong%NULL%2,        Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2,  Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0,  Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,        Pinpin%Zheng%NULL%2,        Pinpin%Zheng%NULL%0,        Yingnan%Jia%NULL%1,        Hao%Chen%NULL%1,        Yimeng%Mao%NULL%1,        Suhong%Chen%NULL%1,        Yi%Wang%NULL%1,        Hua%Fu%NULL%1,        Junming%Dai%NULL%1,        Kenji%Hashimoto%NULL%10,        Kenji%Hashimoto%NULL%0,        Junling%Gao%NULL%3,        Junling%Gao%NULL%0,        Junling%Gao%NULL%0,        Kenji%Hashimoto%NULL%0,        Kenji%Hashimoto%NULL%0,        Kenji%Hashimoto%NULL%0,        Kenji%Hashimoto%NULL%0,        Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,         Yu%Wang%null%0,         Hong%Wang%null%1,         Zhaorui%Liu%null%1,         Xin%Yu%null%1,         Jie%Yan%null%2,         Yaqin%Yu%null%1,         Changgui%Kou%null%1,         Xiufeng%Xu%null%1,         Jin%Lu%null%1,         Zhizhong%Wang%null%1,         Shulan%He%null%1,         Yifeng%Xu%null%1,         Yanling%He%null%1,         Tao%Li%null%3,         Wanjun%Guo%null%1,         Hongjun%Tian%null%1,         Guangming%Xu%null%1,         Xiangdong%Xu%null%1,         Yanjuan%Ma%null%1,         Linhong%Wang%null%1,         Limin%Wang%null%1,         Yongping%Yan%null%1,         Bo%Wang%null%0,         Shuiyuan%Xiao%null%1,         Liang%Zhou%null%1,         Lingjiang%Li%null%1,         Liwen%Tan%null%1,         Tingting%Zhang%null%1,         Chao%Ma%null%1,         Qiang%Li%null%2,         Hua%Ding%null%1,         Hongchun%Geng%null%1,         Fujun%Jia%null%1,         Jianfei%Shi%null%1,         Shiliang%Wang%null%1,         Ning%Zhang%null%1,         Xinbai%Du%null%1,         Xiangdong%Du%null%1,         Yue%Wu%null%2,        Yueqin%Huang%null%1,        Yu%Wang%null%0,        Hong%Wang%null%1,        Zhaorui%Liu%null%1,        Xin%Yu%null%1,        Jie%Yan%null%1,        Yaqin%Yu%null%1,        Changgui%Kou%null%1,        Xiufeng%Xu%null%1,        Jin%Lu%null%1,        Zhizhong%Wang%null%1,        Shulan%He%null%1,        Yifeng%Xu%null%2,        Yanling%He%null%1,        Tao%Li%null%0,        Wanjun%Guo%null%1,        Hongjun%Tian%null%1,        Guangming%Xu%null%1,        Xiangdong%Xu%null%1,        Yanjuan%Ma%null%1,        Linhong%Wang%null%1,        Limin%Wang%null%1,        Yongping%Yan%null%1,        Bo%Wang%null%0,        Shuiyuan%Xiao%null%1,        Liang%Zhou%null%1,        Lingjiang%Li%null%1,        Liwen%Tan%null%1,        Tingting%Zhang%null%1,        Chao%Ma%null%1,        Qiang%Li%null%1,        Hua%Ding%null%1,        Hongchun%Geng%null%1,        Fujun%Jia%null%1,        Jianfei%Shi%null%1,        Shiliang%Wang%null%1,        Ning%Zhang%null%0,        Xinbai%Du%null%1,        Xiangdong%Du%null%1,        Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,        Simeng%Ma%NULL%4,        Min%Chen%NULL%2,        Jun%Yang%NULL%2,        Ying%Wang%NULL%4,        Ruiting%Li%NULL%5,        Lihua%Yao%NULL%4,        Hanping%Bai%NULL%2,        Zhongxiang%Cai%NULL%4,        Bing%Xiang Yang%NULL%2,        Shaohua%Hu%NULL%4,        Kerang%Zhang%NULL%2,        Gaohua%Wang%NULL%4,        Ci%Ma%NULL%2,        Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,        Kin Kit%Li%NULL%1,        Henry Ho Hin%Chan%NULL%1,        Yuan Yuan%Yi%NULL%1,        Arthur%Tang%NULL%1,        Wan In%Wei%NULL%1,        Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,        Simeng%Ma%NULL%0,        Ying%Wang%NULL%0,        Zhongxiang%Cai%NULL%0,        Jianbo%Hu%NULL%2,        Ning%Wei%NULL%2,        Jiang%Wu%NULL%2,        Hui%Du%NULL%2,        Tingting%Chen%NULL%2,        Ruiting%Li%NULL%0,        Huawei%Tan%NULL%2,        Lijun%Kang%NULL%2,        Lihua%Yao%NULL%0,        Manli%Huang%NULL%2,        Huafen%Wang%NULL%2,        Gaohua%Wang%NULL%0,        Zhongchun%Liu%NULL%0,        Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,        Fan%Zhang%NULL%1,        Cun%Wei%NULL%1,        Yanpu%Jia%NULL%1,        Zhilei%Shang%NULL%1,        Luna%Sun%NULL%1,        Lili%Wu%NULL%1,        Zhuoer%Sun%NULL%1,        Yaoguang%Zhou%NULL%1,        Yan%Wang%NULL%1,        Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,        Hang%Wang%NULL%1,        Yuxing%Lin%NULL%1,        Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,        Lan%Deng%NULL%4,        Lan%Deng%NULL%0,        Liyan%Zhang%NULL%2,        Qiuyan%Lang%NULL%2,        Chunyan%Liao%NULL%2,        Nannan%Wang%NULL%2,        Mingqin%Qin%2026142822@qq.com%2,        Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,        Minh H.%Nguyen%NULL%1,        Binh N.%Do%NULL%1,        Cuong Q.%Tran%NULL%2,        Cuong Q.%Tran%NULL%0,        Thao T. P.%Nguyen%NULL%1,        Khue M.%Pham%NULL%2,        Khue M.%Pham%NULL%0,        Linh V.%Pham%NULL%2,        Linh V.%Pham%NULL%0,        Khanh V.%Tran%NULL%1,        Trang T.%Duong%NULL%1,        Tien V.%Tran%NULL%1,        Thai H.%Duong%NULL%1,        Tham T.%Nguyen%NULL%1,        Quyen H.%Nguyen%NULL%1,        Thanh M.%Hoang%NULL%1,        Kien T.%Nguyen%NULL%1,        Thu T. M.%Pham%NULL%1,        Shwu-Huey%Yang%NULL%1,        Jane C.-J.%Chao%NULL%2,        Jane C.-J.%Chao%NULL%0,        Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,        Francesco%Cinetto%NULL%1,        Cinzia%Milito%NULL%1,        Livia%Bonanni%NULL%1,        Anna Maria%Pesce%NULL%1,        Giorgia%Leodori%NULL%1,        Giulia%Garzi%NULL%1,        Marzia%Miglionico%NULL%1,        Stefano%Tabolli%NULL%1,        Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,        Bin%Shen%NULL%1,        Min%Zhao%NULL%1,        Zhen%Wang%NULL%2,        Zhen%Wang%NULL%0,        Bin%Xie%NULL%1,        Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,        Sarvodaya%Tripathy%NULL%1,        Sujita Kumar%Kar%NULL%1,        Nivedita%Sharma%NULL%1,        Sudhir Kumar%Verma%NULL%1,        Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,        Nicholas W.S.%Chew%NULL%1,        Grace K.H.%Lee%NULL%1,        Mingxue%Jing%NULL%1,        Yihui%Goh%NULL%1,        Leonard L.L.%Yeo%NULL%1,        Ka%Zhang%NULL%1,        Howe-Keat%Chin%NULL%1,        Aftab%Ahmad%NULL%1,        Faheem Ahmed%Khan%NULL%1,        Ganesh Napolean%Shanmugam%NULL%1,        Bernard P.L.%Chan%NULL%1,        Sibi%Sunny%NULL%1,        Bharatendu%Chandra%NULL%1,        Jonathan J.Y.%Ong%NULL%1,        Prakash R.%Paliwal%NULL%1,        Lily Y.H.%Wong%NULL%1,        Renarebecca%Sagayanathan%NULL%1,        Jin Tao%Chen%NULL%1,        Alison Ying%Ying Ng%NULL%1,        Hock Luen%Teoh%NULL%1,        Cyrus S.%Ho%NULL%3,        Roger C.%Ho%NULL%5,        Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,        Riyu%Pan%NULL%5,        Riyu%Pan%NULL%0,        Xiaoyang%Wan%NULL%3,        Yilin%Tan%NULL%3,        Linkang%Xu%NULL%3,        Cyrus S.%Ho%NULL%0,        Roger C.%Ho%NULL%0,        Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2,  Yu%Di%xref no email%2,  Junjie%Ye%xref no email%2,  Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,        Marina%Serper%NULL%1,        Lauren%Opsasnick%NULL%1,        Rachel M.%O'Conor%NULL%1,        Laura M.%Curtis%NULL%1,        Julia Yoshino%Benavente%NULL%1,        Guisselle%Wismer%NULL%1,        Stephanie%Batio%NULL%1,        Morgan%Eifler%NULL%1,        Pauline%Zheng%NULL%1,        Andrea%Russell%NULL%1,        Marina%Arvanitis%NULL%1,        Daniela%Ladner%NULL%1,        Mary%Kwasny%NULL%1,        Stephen D.%Persell%NULL%1,        Theresa%Rowe%NULL%1,        Jeffrey A.%Linder%NULL%1,        Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,        Yan%Zhang%NULL%2,        Desheng%Kong%NULL%2,        Shiyue%Li%NULL%2,        Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,        Zhenxin%Liao%NULL%2,        Haojie%Huang%NULL%2,        Boyue%Jiang%NULL%2,        Xueyan%Zhang%NULL%2,        Yingwen%Wang%NULL%2,        Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,        Kun%Wang%NULL%0,        Lu%Yin%NULL%0,        Wen-feng%Zhao%NULL%1,        Qing%Xue%NULL%1,        Mao%Peng%NULL%1,        Bao-quan%Min%NULL%1,        Qing%Tian%NULL%1,        Hai-xia%Leng%NULL%1,        Jia-lin%Du%NULL%1,        Hong%Chang%NULL%1,        Yuan%Yang%NULL%0,        Wei%Li%NULL%1,        Fang-fang%Shangguan%NULL%1,        Tian-yi%Yan%NULL%1,        Hui-qing%Dong%NULL%1,        Ying%Han%NULL%1,        Yu-ping%Wang%NULL%1,        Fiammetta%Cosci%NULL%1,        Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,        Zheng Feei%Ma%NULL%4,        Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,        M.%Zhou%NULL%1,        F.%Tang%NULL%1,        Y.%Wang%NULL%1,        H.%Nie%NULL%1,        L.%Zhang%NULL%1,        G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1648,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1488,7 +1677,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1517,7 +1706,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -1546,7 +1735,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1569,22 +1758,22 @@
         <v>43891.0</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="I6" t="s">
         <v>42</v>
@@ -1598,22 +1787,22 @@
         <v>43891.0</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="I7" t="s">
         <v>42</v>
@@ -1633,7 +1822,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -1691,7 +1880,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1720,7 +1909,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>324</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1749,7 +1938,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1778,7 +1967,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>326</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1807,7 +1996,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -1836,7 +2025,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1865,7 +2054,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -1888,22 +2077,22 @@
         <v>43922.0</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="I17" t="s">
         <v>42</v>
@@ -1923,7 +2112,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -1952,7 +2141,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -1981,7 +2170,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2010,7 +2199,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -2039,7 +2228,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2068,7 +2257,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2091,22 +2280,22 @@
         <v>43908.0</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>336</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="I24" t="s">
         <v>42</v>
@@ -2126,7 +2315,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -2155,7 +2344,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -2184,7 +2373,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -2213,7 +2402,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -2242,7 +2431,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -2271,7 +2460,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="397">
   <si>
     <t>Doi</t>
   </si>
@@ -1268,6 +1268,168 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,        M.%Zhou%NULL%1,        F.%Tang%NULL%1,        Y.%Wang%NULL%1,        H.%Nie%NULL%1,        L.%Zhang%NULL%1,        G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,         Wen%Li%NULL%1,         Yuan%Yang%NULL%3,         Yuan%Yang%NULL%0,         Yu%Wang%NULL%0,         Qinge%Zhang%NULL%1,         Teris%Cheung%NULL%1,         Xinjuan%Wu%NULL%1,         Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,         Baoren%Tu%NULL%2,         Jing%Ma%NULL%2,         Limin%Chen%NULL%2,         Lei%Fu%NULL%2,         Yongfang%Jiang%NULL%2,         Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,         Jing%Wei%NULL%1,         Huadong%Zhu%NULL%1,         Yanping%Duan%NULL%1,         Wenqi%Geng%NULL%1,         Xia%Hong%NULL%1,         Jing%Jiang%NULL%1,         Xiaohui%Zhao%NULL%1,         Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,         Ziwei%Fang%NULL%2,         Guoqiang%Hou%NULL%2,         Mei%Han%NULL%2,         Xinrong%Xu%NULL%2,         Jiaxin%Dong%NULL%2,         Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2,   Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0,   Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,         Pinpin%Zheng%NULL%2,         Pinpin%Zheng%NULL%0,         Yingnan%Jia%NULL%1,         Hao%Chen%NULL%1,         Yimeng%Mao%NULL%1,         Suhong%Chen%NULL%1,         Yi%Wang%NULL%1,         Hua%Fu%NULL%1,         Junming%Dai%NULL%1,         Kenji%Hashimoto%NULL%10,         Kenji%Hashimoto%NULL%0,         Junling%Gao%NULL%3,         Junling%Gao%NULL%0,         Junling%Gao%NULL%0,         Kenji%Hashimoto%NULL%0,         Kenji%Hashimoto%NULL%0,         Kenji%Hashimoto%NULL%0,         Kenji%Hashimoto%NULL%0,         Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,          Yu%Wang%null%0,          Hong%Wang%null%1,          Zhaorui%Liu%null%1,          Xin%Yu%null%1,          Jie%Yan%null%2,          Yaqin%Yu%null%1,          Changgui%Kou%null%1,          Xiufeng%Xu%null%1,          Jin%Lu%null%1,          Zhizhong%Wang%null%1,          Shulan%He%null%1,          Yifeng%Xu%null%1,          Yanling%He%null%1,          Tao%Li%null%3,          Wanjun%Guo%null%1,          Hongjun%Tian%null%1,          Guangming%Xu%null%1,          Xiangdong%Xu%null%1,          Yanjuan%Ma%null%1,          Linhong%Wang%null%1,          Limin%Wang%null%1,          Yongping%Yan%null%1,          Bo%Wang%null%0,          Shuiyuan%Xiao%null%1,          Liang%Zhou%null%1,          Lingjiang%Li%null%1,          Liwen%Tan%null%1,          Tingting%Zhang%null%1,          Chao%Ma%null%1,          Qiang%Li%null%2,          Hua%Ding%null%1,          Hongchun%Geng%null%1,          Fujun%Jia%null%1,          Jianfei%Shi%null%1,          Shiliang%Wang%null%1,          Ning%Zhang%null%1,          Xinbai%Du%null%1,          Xiangdong%Du%null%1,          Yue%Wu%null%2,         Yueqin%Huang%null%1,         Yu%Wang%null%0,         Hong%Wang%null%1,         Zhaorui%Liu%null%1,         Xin%Yu%null%1,         Jie%Yan%null%1,         Yaqin%Yu%null%1,         Changgui%Kou%null%1,         Xiufeng%Xu%null%1,         Jin%Lu%null%1,         Zhizhong%Wang%null%1,         Shulan%He%null%1,         Yifeng%Xu%null%2,         Yanling%He%null%1,         Tao%Li%null%0,         Wanjun%Guo%null%1,         Hongjun%Tian%null%1,         Guangming%Xu%null%1,         Xiangdong%Xu%null%1,         Yanjuan%Ma%null%1,         Linhong%Wang%null%1,         Limin%Wang%null%1,         Yongping%Yan%null%1,         Bo%Wang%null%0,         Shuiyuan%Xiao%null%1,         Liang%Zhou%null%1,         Lingjiang%Li%null%1,         Liwen%Tan%null%1,         Tingting%Zhang%null%1,         Chao%Ma%null%1,         Qiang%Li%null%1,         Hua%Ding%null%1,         Hongchun%Geng%null%1,         Fujun%Jia%null%1,         Jianfei%Shi%null%1,         Shiliang%Wang%null%1,         Ning%Zhang%null%0,         Xinbai%Du%null%1,         Xiangdong%Du%null%1,         Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,         Simeng%Ma%NULL%4,         Min%Chen%NULL%2,         Jun%Yang%NULL%2,         Ying%Wang%NULL%4,         Ruiting%Li%NULL%5,         Lihua%Yao%NULL%4,         Hanping%Bai%NULL%2,         Zhongxiang%Cai%NULL%4,         Bing%Xiang Yang%NULL%2,         Shaohua%Hu%NULL%4,         Kerang%Zhang%NULL%2,         Gaohua%Wang%NULL%4,         Ci%Ma%NULL%2,         Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,         Kin Kit%Li%NULL%1,         Henry Ho Hin%Chan%NULL%1,         Yuan Yuan%Yi%NULL%1,         Arthur%Tang%NULL%1,         Wan In%Wei%NULL%1,         Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,         Simeng%Ma%NULL%0,         Ying%Wang%NULL%0,         Zhongxiang%Cai%NULL%0,         Jianbo%Hu%NULL%2,         Ning%Wei%NULL%2,         Jiang%Wu%NULL%2,         Hui%Du%NULL%2,         Tingting%Chen%NULL%2,         Ruiting%Li%NULL%0,         Huawei%Tan%NULL%2,         Lijun%Kang%NULL%2,         Lihua%Yao%NULL%0,         Manli%Huang%NULL%2,         Huafen%Wang%NULL%2,         Gaohua%Wang%NULL%0,         Zhongchun%Liu%NULL%0,         Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,         Fan%Zhang%NULL%1,         Cun%Wei%NULL%1,         Yanpu%Jia%NULL%1,         Zhilei%Shang%NULL%1,         Luna%Sun%NULL%1,         Lili%Wu%NULL%1,         Zhuoer%Sun%NULL%1,         Yaoguang%Zhou%NULL%1,         Yan%Wang%NULL%1,         Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,         Hang%Wang%NULL%1,         Yuxing%Lin%NULL%1,         Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,         Lan%Deng%NULL%4,         Lan%Deng%NULL%0,         Liyan%Zhang%NULL%2,         Qiuyan%Lang%NULL%2,         Chunyan%Liao%NULL%2,         Nannan%Wang%NULL%2,         Mingqin%Qin%2026142822@qq.com%2,         Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,         Minh H.%Nguyen%NULL%1,         Binh N.%Do%NULL%1,         Cuong Q.%Tran%NULL%2,         Cuong Q.%Tran%NULL%0,         Thao T. P.%Nguyen%NULL%1,         Khue M.%Pham%NULL%2,         Khue M.%Pham%NULL%0,         Linh V.%Pham%NULL%2,         Linh V.%Pham%NULL%0,         Khanh V.%Tran%NULL%1,         Trang T.%Duong%NULL%1,         Tien V.%Tran%NULL%1,         Thai H.%Duong%NULL%1,         Tham T.%Nguyen%NULL%1,         Quyen H.%Nguyen%NULL%1,         Thanh M.%Hoang%NULL%1,         Kien T.%Nguyen%NULL%1,         Thu T. M.%Pham%NULL%1,         Shwu-Huey%Yang%NULL%1,         Jane C.-J.%Chao%NULL%2,         Jane C.-J.%Chao%NULL%0,         Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,         Francesco%Cinetto%NULL%1,         Cinzia%Milito%NULL%1,         Livia%Bonanni%NULL%1,         Anna Maria%Pesce%NULL%1,         Giorgia%Leodori%NULL%1,         Giulia%Garzi%NULL%1,         Marzia%Miglionico%NULL%1,         Stefano%Tabolli%NULL%1,         Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,         Bin%Shen%NULL%1,         Min%Zhao%NULL%1,         Zhen%Wang%NULL%2,         Zhen%Wang%NULL%0,         Bin%Xie%NULL%1,         Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,         Sarvodaya%Tripathy%NULL%1,         Sujita Kumar%Kar%NULL%1,         Nivedita%Sharma%NULL%1,         Sudhir Kumar%Verma%NULL%1,         Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,         Nicholas W.S.%Chew%NULL%1,         Grace K.H.%Lee%NULL%1,         Mingxue%Jing%NULL%1,         Yihui%Goh%NULL%1,         Leonard L.L.%Yeo%NULL%1,         Ka%Zhang%NULL%1,         Howe-Keat%Chin%NULL%1,         Aftab%Ahmad%NULL%1,         Faheem Ahmed%Khan%NULL%1,         Ganesh Napolean%Shanmugam%NULL%1,         Bernard P.L.%Chan%NULL%1,         Sibi%Sunny%NULL%1,         Bharatendu%Chandra%NULL%1,         Jonathan J.Y.%Ong%NULL%1,         Prakash R.%Paliwal%NULL%1,         Lily Y.H.%Wong%NULL%1,         Renarebecca%Sagayanathan%NULL%1,         Jin Tao%Chen%NULL%1,         Alison Ying%Ying Ng%NULL%1,         Hock Luen%Teoh%NULL%1,         Cyrus S.%Ho%NULL%3,         Roger C.%Ho%NULL%5,         Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,         Riyu%Pan%NULL%5,         Riyu%Pan%NULL%0,         Xiaoyang%Wan%NULL%3,         Yilin%Tan%NULL%3,         Linkang%Xu%NULL%3,         Cyrus S.%Ho%NULL%0,         Roger C.%Ho%NULL%0,         Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2,   Yu%Di%xref no email%2,   Junjie%Ye%xref no email%2,   Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,         Marina%Serper%NULL%1,         Lauren%Opsasnick%NULL%1,         Rachel M.%O'Conor%NULL%1,         Laura M.%Curtis%NULL%1,         Julia Yoshino%Benavente%NULL%1,         Guisselle%Wismer%NULL%1,         Stephanie%Batio%NULL%1,         Morgan%Eifler%NULL%1,         Pauline%Zheng%NULL%1,         Andrea%Russell%NULL%1,         Marina%Arvanitis%NULL%1,         Daniela%Ladner%NULL%1,         Mary%Kwasny%NULL%1,         Stephen D.%Persell%NULL%1,         Theresa%Rowe%NULL%1,         Jeffrey A.%Linder%NULL%1,         Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,         Yan%Zhang%NULL%2,         Desheng%Kong%NULL%2,         Shiyue%Li%NULL%2,         Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,         Zhenxin%Liao%NULL%2,         Haojie%Huang%NULL%2,         Boyue%Jiang%NULL%2,         Xueyan%Zhang%NULL%2,         Yingwen%Wang%NULL%2,         Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,         Kun%Wang%NULL%0,         Lu%Yin%NULL%0,         Wen-feng%Zhao%NULL%1,         Qing%Xue%NULL%1,         Mao%Peng%NULL%1,         Bao-quan%Min%NULL%1,         Qing%Tian%NULL%1,         Hai-xia%Leng%NULL%1,         Jia-lin%Du%NULL%1,         Hong%Chang%NULL%1,         Yuan%Yang%NULL%0,         Wei%Li%NULL%1,         Fang-fang%Shangguan%NULL%1,         Tian-yi%Yan%NULL%1,         Hui-qing%Dong%NULL%1,         Ying%Han%NULL%1,         Yu-ping%Wang%NULL%1,         Fiammetta%Cosci%NULL%1,         Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,         Zheng Feei%Ma%NULL%4,         Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,         M.%Zhou%NULL%1,         F.%Tang%NULL%1,         Y.%Wang%NULL%1,         H.%Nie%NULL%1,         L.%Zhang%NULL%1,         G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,          Wen%Li%NULL%1,          Yuan%Yang%NULL%3,          Yuan%Yang%NULL%0,          Yu%Wang%NULL%0,          Qinge%Zhang%NULL%1,          Teris%Cheung%NULL%1,          Xinjuan%Wu%NULL%1,          Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,          Baoren%Tu%NULL%2,          Jing%Ma%NULL%2,          Limin%Chen%NULL%2,          Lei%Fu%NULL%2,          Yongfang%Jiang%NULL%2,          Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,          Jing%Wei%NULL%1,          Huadong%Zhu%NULL%1,          Yanping%Duan%NULL%1,          Wenqi%Geng%NULL%1,          Xia%Hong%NULL%1,          Jing%Jiang%NULL%1,          Xiaohui%Zhao%NULL%1,          Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,          Ziwei%Fang%NULL%2,          Guoqiang%Hou%NULL%2,          Mei%Han%NULL%2,          Xinrong%Xu%NULL%2,          Jiaxin%Dong%NULL%2,          Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2,    Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0,    Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,          Pinpin%Zheng%NULL%2,          Pinpin%Zheng%NULL%0,          Yingnan%Jia%NULL%1,          Hao%Chen%NULL%1,          Yimeng%Mao%NULL%1,          Suhong%Chen%NULL%1,          Yi%Wang%NULL%1,          Hua%Fu%NULL%1,          Junming%Dai%NULL%1,          Kenji%Hashimoto%NULL%10,          Kenji%Hashimoto%NULL%0,          Junling%Gao%NULL%3,          Junling%Gao%NULL%0,          Junling%Gao%NULL%0,          Kenji%Hashimoto%NULL%0,          Kenji%Hashimoto%NULL%0,          Kenji%Hashimoto%NULL%0,          Kenji%Hashimoto%NULL%0,          Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,           Yu%Wang%null%0,           Hong%Wang%null%1,           Zhaorui%Liu%null%1,           Xin%Yu%null%1,           Jie%Yan%null%3,           Yaqin%Yu%null%1,           Changgui%Kou%null%1,           Xiufeng%Xu%null%1,           Jin%Lu%null%1,           Zhizhong%Wang%null%1,           Shulan%He%null%1,           Yifeng%Xu%null%1,           Yanling%He%null%1,           Tao%Li%null%3,           Wanjun%Guo%null%1,           Hongjun%Tian%null%1,           Guangming%Xu%null%1,           Xiangdong%Xu%null%1,           Yanjuan%Ma%null%1,           Linhong%Wang%null%1,           Limin%Wang%null%1,           Yongping%Yan%null%1,           Bo%Wang%null%0,           Shuiyuan%Xiao%null%1,           Liang%Zhou%null%1,           Lingjiang%Li%null%1,           Liwen%Tan%null%1,           Tingting%Zhang%null%1,           Chao%Ma%null%1,           Qiang%Li%null%2,           Hua%Ding%null%1,           Hongchun%Geng%null%1,           Fujun%Jia%null%1,           Jianfei%Shi%null%1,           Shiliang%Wang%null%1,           Ning%Zhang%null%1,           Xinbai%Du%null%1,           Xiangdong%Du%null%1,           Yue%Wu%null%2,          Yueqin%Huang%null%1,          Yu%Wang%null%0,          Hong%Wang%null%1,          Zhaorui%Liu%null%1,          Xin%Yu%null%1,          Jie%Yan%null%1,          Yaqin%Yu%null%1,          Changgui%Kou%null%1,          Xiufeng%Xu%null%1,          Jin%Lu%null%1,          Zhizhong%Wang%null%1,          Shulan%He%null%1,          Yifeng%Xu%null%2,          Yanling%He%null%1,          Tao%Li%null%0,          Wanjun%Guo%null%1,          Hongjun%Tian%null%1,          Guangming%Xu%null%1,          Xiangdong%Xu%null%1,          Yanjuan%Ma%null%1,          Linhong%Wang%null%1,          Limin%Wang%null%1,          Yongping%Yan%null%1,          Bo%Wang%null%0,          Shuiyuan%Xiao%null%1,          Liang%Zhou%null%1,          Lingjiang%Li%null%1,          Liwen%Tan%null%1,          Tingting%Zhang%null%1,          Chao%Ma%null%1,          Qiang%Li%null%1,          Hua%Ding%null%1,          Hongchun%Geng%null%1,          Fujun%Jia%null%1,          Jianfei%Shi%null%1,          Shiliang%Wang%null%1,          Ning%Zhang%null%0,          Xinbai%Du%null%1,          Xiangdong%Du%null%1,          Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,          Simeng%Ma%NULL%4,          Min%Chen%NULL%2,          Jun%Yang%NULL%2,          Ying%Wang%NULL%4,          Ruiting%Li%NULL%5,          Lihua%Yao%NULL%4,          Hanping%Bai%NULL%2,          Zhongxiang%Cai%NULL%4,          Bing%Xiang Yang%NULL%2,          Shaohua%Hu%NULL%4,          Kerang%Zhang%NULL%2,          Gaohua%Wang%NULL%4,          Ci%Ma%NULL%2,          Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,          Kin Kit%Li%NULL%1,          Henry Ho Hin%Chan%NULL%1,          Yuan Yuan%Yi%NULL%1,          Arthur%Tang%NULL%1,          Wan In%Wei%NULL%1,          Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,          Simeng%Ma%NULL%0,          Ying%Wang%NULL%0,          Zhongxiang%Cai%NULL%0,          Jianbo%Hu%NULL%2,          Ning%Wei%NULL%2,          Jiang%Wu%NULL%2,          Hui%Du%NULL%2,          Tingting%Chen%NULL%2,          Ruiting%Li%NULL%0,          Huawei%Tan%NULL%2,          Lijun%Kang%NULL%2,          Lihua%Yao%NULL%0,          Manli%Huang%NULL%2,          Huafen%Wang%NULL%2,          Gaohua%Wang%NULL%0,          Zhongchun%Liu%NULL%0,          Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,          Fan%Zhang%NULL%1,          Cun%Wei%NULL%1,          Yanpu%Jia%NULL%1,          Zhilei%Shang%NULL%1,          Luna%Sun%NULL%1,          Lili%Wu%NULL%1,          Zhuoer%Sun%NULL%1,          Yaoguang%Zhou%NULL%1,          Yan%Wang%NULL%1,          Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,          Hang%Wang%NULL%1,          Yuxing%Lin%NULL%1,          Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,          Lan%Deng%NULL%4,          Lan%Deng%NULL%0,          Liyan%Zhang%NULL%2,          Qiuyan%Lang%NULL%2,          Chunyan%Liao%NULL%2,          Nannan%Wang%NULL%2,          Mingqin%Qin%2026142822@qq.com%2,          Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,          Minh H.%Nguyen%NULL%1,          Binh N.%Do%NULL%1,          Cuong Q.%Tran%NULL%2,          Cuong Q.%Tran%NULL%0,          Thao T. P.%Nguyen%NULL%1,          Khue M.%Pham%NULL%2,          Khue M.%Pham%NULL%0,          Linh V.%Pham%NULL%2,          Linh V.%Pham%NULL%0,          Khanh V.%Tran%NULL%1,          Trang T.%Duong%NULL%1,          Tien V.%Tran%NULL%1,          Thai H.%Duong%NULL%1,          Tham T.%Nguyen%NULL%1,          Quyen H.%Nguyen%NULL%1,          Thanh M.%Hoang%NULL%1,          Kien T.%Nguyen%NULL%1,          Thu T. M.%Pham%NULL%1,          Shwu-Huey%Yang%NULL%1,          Jane C.-J.%Chao%NULL%2,          Jane C.-J.%Chao%NULL%0,          Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,          Francesco%Cinetto%NULL%1,          Cinzia%Milito%NULL%1,          Livia%Bonanni%NULL%1,          Anna Maria%Pesce%NULL%1,          Giorgia%Leodori%NULL%1,          Giulia%Garzi%NULL%1,          Marzia%Miglionico%NULL%1,          Stefano%Tabolli%NULL%1,          Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,          Bin%Shen%NULL%1,          Min%Zhao%NULL%1,          Zhen%Wang%NULL%2,          Zhen%Wang%NULL%0,          Bin%Xie%NULL%1,          Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,          Sarvodaya%Tripathy%NULL%1,          Sujita Kumar%Kar%NULL%1,          Nivedita%Sharma%NULL%1,          Sudhir Kumar%Verma%NULL%1,          Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,          Nicholas W.S.%Chew%NULL%1,          Grace K.H.%Lee%NULL%1,          Mingxue%Jing%NULL%1,          Yihui%Goh%NULL%1,          Leonard L.L.%Yeo%NULL%1,          Ka%Zhang%NULL%1,          Howe-Keat%Chin%NULL%1,          Aftab%Ahmad%NULL%1,          Faheem Ahmed%Khan%NULL%1,          Ganesh Napolean%Shanmugam%NULL%1,          Bernard P.L.%Chan%NULL%1,          Sibi%Sunny%NULL%1,          Bharatendu%Chandra%NULL%1,          Jonathan J.Y.%Ong%NULL%1,          Prakash R.%Paliwal%NULL%1,          Lily Y.H.%Wong%NULL%1,          Renarebecca%Sagayanathan%NULL%1,          Jin Tao%Chen%NULL%1,          Alison Ying%Ying Ng%NULL%1,          Hock Luen%Teoh%NULL%1,          Cyrus S.%Ho%NULL%3,          Roger C.%Ho%NULL%5,          Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,          Riyu%Pan%NULL%5,          Riyu%Pan%NULL%0,          Xiaoyang%Wan%NULL%3,          Yilin%Tan%NULL%3,          Linkang%Xu%NULL%3,          Cyrus S.%Ho%NULL%0,          Roger C.%Ho%NULL%0,          Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2,    Yu%Di%xref no email%2,    Junjie%Ye%xref no email%2,    Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,          Marina%Serper%NULL%1,          Lauren%Opsasnick%NULL%1,          Rachel M.%O'Conor%NULL%1,          Laura M.%Curtis%NULL%1,          Julia Yoshino%Benavente%NULL%1,          Guisselle%Wismer%NULL%1,          Stephanie%Batio%NULL%1,          Morgan%Eifler%NULL%1,          Pauline%Zheng%NULL%1,          Andrea%Russell%NULL%1,          Marina%Arvanitis%NULL%1,          Daniela%Ladner%NULL%1,          Mary%Kwasny%NULL%1,          Stephen D.%Persell%NULL%1,          Theresa%Rowe%NULL%1,          Jeffrey A.%Linder%NULL%1,          Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,          Yan%Zhang%NULL%2,          Desheng%Kong%NULL%2,          Shiyue%Li%NULL%2,          Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,          Zhenxin%Liao%NULL%2,          Haojie%Huang%NULL%2,          Boyue%Jiang%NULL%2,          Xueyan%Zhang%NULL%2,          Yingwen%Wang%NULL%2,          Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,          Kun%Wang%NULL%0,          Lu%Yin%NULL%0,          Wen-feng%Zhao%NULL%1,          Qing%Xue%NULL%1,          Mao%Peng%NULL%1,          Bao-quan%Min%NULL%1,          Qing%Tian%NULL%1,          Hai-xia%Leng%NULL%1,          Jia-lin%Du%NULL%1,          Hong%Chang%NULL%1,          Yuan%Yang%NULL%0,          Wei%Li%NULL%1,          Fang-fang%Shangguan%NULL%1,          Tian-yi%Yan%NULL%1,          Hui-qing%Dong%NULL%1,          Ying%Han%NULL%1,          Yu-ping%Wang%NULL%1,          Fiammetta%Cosci%NULL%1,          Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,          Zheng Feei%Ma%NULL%4,          Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,          M.%Zhou%NULL%1,          F.%Tang%NULL%1,          Y.%Wang%NULL%1,          H.%Nie%NULL%1,          L.%Zhang%NULL%1,          G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1810,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1677,7 +1839,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1706,7 +1868,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -1735,7 +1897,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1764,7 +1926,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1793,7 +1955,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1822,7 +1984,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -1880,7 +2042,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1909,7 +2071,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -1938,7 +2100,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -1967,7 +2129,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -1996,7 +2158,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2025,7 +2187,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2054,7 +2216,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2112,7 +2274,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2141,7 +2303,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2170,7 +2332,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2199,7 +2361,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -2228,7 +2390,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2257,7 +2419,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2286,7 +2448,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -2315,7 +2477,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -2344,7 +2506,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -2373,7 +2535,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -2402,7 +2564,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -2431,7 +2593,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -2460,7 +2622,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="451">
   <si>
     <t>Doi</t>
   </si>
@@ -1430,6 +1430,168 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,          M.%Zhou%NULL%1,          F.%Tang%NULL%1,          Y.%Wang%NULL%1,          H.%Nie%NULL%1,          L.%Zhang%NULL%1,          G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,           Wen%Li%NULL%1,           Yuan%Yang%NULL%3,           Yuan%Yang%NULL%0,           Yu%Wang%NULL%0,           Qinge%Zhang%NULL%1,           Teris%Cheung%NULL%1,           Xinjuan%Wu%NULL%1,           Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,           Baoren%Tu%NULL%2,           Jing%Ma%NULL%2,           Limin%Chen%NULL%2,           Lei%Fu%NULL%2,           Yongfang%Jiang%NULL%2,           Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,           Jing%Wei%NULL%1,           Huadong%Zhu%NULL%1,           Yanping%Duan%NULL%1,           Wenqi%Geng%NULL%1,           Xia%Hong%NULL%1,           Jing%Jiang%NULL%1,           Xiaohui%Zhao%NULL%1,           Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,           Ziwei%Fang%NULL%2,           Guoqiang%Hou%NULL%2,           Mei%Han%NULL%2,           Xinrong%Xu%NULL%2,           Jiaxin%Dong%NULL%2,           Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2,     Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0,     Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,           Pinpin%Zheng%NULL%2,           Pinpin%Zheng%NULL%0,           Yingnan%Jia%NULL%1,           Hao%Chen%NULL%1,           Yimeng%Mao%NULL%1,           Suhong%Chen%NULL%1,           Yi%Wang%NULL%1,           Hua%Fu%NULL%1,           Junming%Dai%NULL%1,           Kenji%Hashimoto%NULL%10,           Kenji%Hashimoto%NULL%0,           Junling%Gao%NULL%3,           Junling%Gao%NULL%0,           Junling%Gao%NULL%0,           Kenji%Hashimoto%NULL%0,           Kenji%Hashimoto%NULL%0,           Kenji%Hashimoto%NULL%0,           Kenji%Hashimoto%NULL%0,           Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,            Yu%Wang%null%0,            Hong%Wang%null%1,            Zhaorui%Liu%null%1,            Xin%Yu%null%1,            Jie%Yan%null%2,            Yaqin%Yu%null%1,            Changgui%Kou%null%1,            Xiufeng%Xu%null%1,            Jin%Lu%null%1,            Zhizhong%Wang%null%1,            Shulan%He%null%1,            Yifeng%Xu%null%1,            Yanling%He%null%1,            Tao%Li%null%3,            Wanjun%Guo%null%1,            Hongjun%Tian%null%1,            Guangming%Xu%null%1,            Xiangdong%Xu%null%1,            Yanjuan%Ma%null%1,            Linhong%Wang%null%1,            Limin%Wang%null%1,            Yongping%Yan%null%1,            Bo%Wang%null%0,            Shuiyuan%Xiao%null%1,            Liang%Zhou%null%1,            Lingjiang%Li%null%1,            Liwen%Tan%null%1,            Tingting%Zhang%null%1,            Chao%Ma%null%1,            Qiang%Li%null%2,            Hua%Ding%null%1,            Hongchun%Geng%null%1,            Fujun%Jia%null%1,            Jianfei%Shi%null%1,            Shiliang%Wang%null%1,            Ning%Zhang%null%1,            Xinbai%Du%null%1,            Xiangdong%Du%null%1,            Yue%Wu%null%2,           Yueqin%Huang%null%1,           Yu%Wang%null%0,           Hong%Wang%null%1,           Zhaorui%Liu%null%1,           Xin%Yu%null%1,           Jie%Yan%null%2,           Yaqin%Yu%null%1,           Changgui%Kou%null%1,           Xiufeng%Xu%null%1,           Jin%Lu%null%1,           Zhizhong%Wang%null%1,           Shulan%He%null%1,           Yifeng%Xu%null%2,           Yanling%He%null%1,           Tao%Li%null%0,           Wanjun%Guo%null%1,           Hongjun%Tian%null%1,           Guangming%Xu%null%1,           Xiangdong%Xu%null%1,           Yanjuan%Ma%null%1,           Linhong%Wang%null%1,           Limin%Wang%null%1,           Yongping%Yan%null%1,           Bo%Wang%null%1,           Shuiyuan%Xiao%null%1,           Liang%Zhou%null%1,           Lingjiang%Li%null%1,           Liwen%Tan%null%1,           Tingting%Zhang%null%1,           Chao%Ma%null%1,           Qiang%Li%null%1,           Hua%Ding%null%1,           Hongchun%Geng%null%1,           Fujun%Jia%null%1,           Jianfei%Shi%null%1,           Shiliang%Wang%null%1,           Ning%Zhang%null%0,           Xinbai%Du%null%1,           Xiangdong%Du%null%1,           Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,           Simeng%Ma%NULL%4,           Min%Chen%NULL%2,           Jun%Yang%NULL%2,           Ying%Wang%NULL%4,           Ruiting%Li%NULL%5,           Lihua%Yao%NULL%4,           Hanping%Bai%NULL%2,           Zhongxiang%Cai%NULL%4,           Bing%Xiang Yang%NULL%2,           Shaohua%Hu%NULL%4,           Kerang%Zhang%NULL%2,           Gaohua%Wang%NULL%4,           Ci%Ma%NULL%2,           Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,           Kin Kit%Li%NULL%1,           Henry Ho Hin%Chan%NULL%1,           Yuan Yuan%Yi%NULL%1,           Arthur%Tang%NULL%1,           Wan In%Wei%NULL%1,           Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,           Simeng%Ma%NULL%0,           Ying%Wang%NULL%0,           Zhongxiang%Cai%NULL%0,           Jianbo%Hu%NULL%2,           Ning%Wei%NULL%2,           Jiang%Wu%NULL%2,           Hui%Du%NULL%2,           Tingting%Chen%NULL%2,           Ruiting%Li%NULL%0,           Huawei%Tan%NULL%2,           Lijun%Kang%NULL%2,           Lihua%Yao%NULL%0,           Manli%Huang%NULL%2,           Huafen%Wang%NULL%2,           Gaohua%Wang%NULL%0,           Zhongchun%Liu%NULL%0,           Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,           Fan%Zhang%NULL%1,           Cun%Wei%NULL%1,           Yanpu%Jia%NULL%1,           Zhilei%Shang%NULL%1,           Luna%Sun%NULL%1,           Lili%Wu%NULL%1,           Zhuoer%Sun%NULL%1,           Yaoguang%Zhou%NULL%1,           Yan%Wang%NULL%1,           Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,           Hang%Wang%NULL%1,           Yuxing%Lin%NULL%1,           Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,           Lan%Deng%NULL%4,           Lan%Deng%NULL%0,           Liyan%Zhang%NULL%2,           Qiuyan%Lang%NULL%2,           Chunyan%Liao%NULL%2,           Nannan%Wang%NULL%2,           Mingqin%Qin%2026142822@qq.com%2,           Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,           Minh H.%Nguyen%NULL%1,           Binh N.%Do%NULL%1,           Cuong Q.%Tran%NULL%2,           Cuong Q.%Tran%NULL%0,           Thao T. P.%Nguyen%NULL%1,           Khue M.%Pham%NULL%2,           Khue M.%Pham%NULL%0,           Linh V.%Pham%NULL%2,           Linh V.%Pham%NULL%0,           Khanh V.%Tran%NULL%1,           Trang T.%Duong%NULL%1,           Tien V.%Tran%NULL%1,           Thai H.%Duong%NULL%1,           Tham T.%Nguyen%NULL%1,           Quyen H.%Nguyen%NULL%1,           Thanh M.%Hoang%NULL%1,           Kien T.%Nguyen%NULL%1,           Thu T. M.%Pham%NULL%1,           Shwu-Huey%Yang%NULL%1,           Jane C.-J.%Chao%NULL%2,           Jane C.-J.%Chao%NULL%0,           Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,           Francesco%Cinetto%NULL%1,           Cinzia%Milito%NULL%1,           Livia%Bonanni%NULL%1,           Anna Maria%Pesce%NULL%1,           Giorgia%Leodori%NULL%1,           Giulia%Garzi%NULL%1,           Marzia%Miglionico%NULL%1,           Stefano%Tabolli%NULL%1,           Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,           Bin%Shen%NULL%1,           Min%Zhao%NULL%1,           Zhen%Wang%NULL%2,           Zhen%Wang%NULL%0,           Bin%Xie%NULL%1,           Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,           Sarvodaya%Tripathy%NULL%1,           Sujita Kumar%Kar%NULL%1,           Nivedita%Sharma%NULL%1,           Sudhir Kumar%Verma%NULL%1,           Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,           Nicholas W.S.%Chew%NULL%1,           Grace K.H.%Lee%NULL%1,           Mingxue%Jing%NULL%1,           Yihui%Goh%NULL%1,           Leonard L.L.%Yeo%NULL%1,           Ka%Zhang%NULL%1,           Howe-Keat%Chin%NULL%1,           Aftab%Ahmad%NULL%1,           Faheem Ahmed%Khan%NULL%1,           Ganesh Napolean%Shanmugam%NULL%1,           Bernard P.L.%Chan%NULL%1,           Sibi%Sunny%NULL%1,           Bharatendu%Chandra%NULL%1,           Jonathan J.Y.%Ong%NULL%1,           Prakash R.%Paliwal%NULL%1,           Lily Y.H.%Wong%NULL%1,           Renarebecca%Sagayanathan%NULL%1,           Jin Tao%Chen%NULL%1,           Alison Ying%Ying Ng%NULL%1,           Hock Luen%Teoh%NULL%1,           Cyrus S.%Ho%NULL%3,           Roger C.%Ho%NULL%5,           Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,           Riyu%Pan%NULL%5,           Riyu%Pan%NULL%0,           Xiaoyang%Wan%NULL%3,           Yilin%Tan%NULL%3,           Linkang%Xu%NULL%3,           Cyrus S.%Ho%NULL%0,           Roger C.%Ho%NULL%0,           Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2,     Yu%Di%xref no email%2,     Junjie%Ye%xref no email%2,     Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,           Marina%Serper%NULL%1,           Lauren%Opsasnick%NULL%1,           Rachel M.%O'Conor%NULL%1,           Laura M.%Curtis%NULL%1,           Julia Yoshino%Benavente%NULL%1,           Guisselle%Wismer%NULL%1,           Stephanie%Batio%NULL%1,           Morgan%Eifler%NULL%1,           Pauline%Zheng%NULL%1,           Andrea%Russell%NULL%1,           Marina%Arvanitis%NULL%1,           Daniela%Ladner%NULL%1,           Mary%Kwasny%NULL%1,           Stephen D.%Persell%NULL%1,           Theresa%Rowe%NULL%1,           Jeffrey A.%Linder%NULL%1,           Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,           Yan%Zhang%NULL%2,           Desheng%Kong%NULL%2,           Shiyue%Li%NULL%2,           Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,           Zhenxin%Liao%NULL%2,           Haojie%Huang%NULL%2,           Boyue%Jiang%NULL%2,           Xueyan%Zhang%NULL%2,           Yingwen%Wang%NULL%2,           Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,           Kun%Wang%NULL%0,           Lu%Yin%NULL%0,           Wen-feng%Zhao%NULL%1,           Qing%Xue%NULL%1,           Mao%Peng%NULL%1,           Bao-quan%Min%NULL%1,           Qing%Tian%NULL%1,           Hai-xia%Leng%NULL%1,           Jia-lin%Du%NULL%1,           Hong%Chang%NULL%1,           Yuan%Yang%NULL%0,           Wei%Li%NULL%1,           Fang-fang%Shangguan%NULL%1,           Tian-yi%Yan%NULL%1,           Hui-qing%Dong%NULL%1,           Ying%Han%NULL%1,           Yu-ping%Wang%NULL%1,           Fiammetta%Cosci%NULL%1,           Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,           Zheng Feei%Ma%NULL%4,           Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,           M.%Zhou%NULL%1,           F.%Tang%NULL%1,           Y.%Wang%NULL%1,           H.%Nie%NULL%1,           L.%Zhang%NULL%1,           G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,            Wen%Li%NULL%1,            Yuan%Yang%NULL%3,            Yuan%Yang%NULL%0,            Yu%Wang%NULL%0,            Qinge%Zhang%NULL%1,            Teris%Cheung%NULL%1,            Xinjuan%Wu%NULL%1,            Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,            Baoren%Tu%NULL%2,            Jing%Ma%NULL%2,            Limin%Chen%NULL%2,            Lei%Fu%NULL%2,            Yongfang%Jiang%NULL%2,            Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,            Jing%Wei%NULL%1,            Huadong%Zhu%NULL%1,            Yanping%Duan%NULL%1,            Wenqi%Geng%NULL%1,            Xia%Hong%NULL%1,            Jing%Jiang%NULL%1,            Xiaohui%Zhao%NULL%1,            Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,            Ziwei%Fang%NULL%2,            Guoqiang%Hou%NULL%2,            Mei%Han%NULL%2,            Xinrong%Xu%NULL%2,            Jiaxin%Dong%NULL%2,            Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2,      Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0,      Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,            Pinpin%Zheng%NULL%2,            Pinpin%Zheng%NULL%0,            Yingnan%Jia%NULL%1,            Hao%Chen%NULL%1,            Yimeng%Mao%NULL%1,            Suhong%Chen%NULL%1,            Yi%Wang%NULL%1,            Hua%Fu%NULL%1,            Junming%Dai%NULL%1,            Kenji%Hashimoto%NULL%10,            Kenji%Hashimoto%NULL%0,            Junling%Gao%NULL%3,            Junling%Gao%NULL%0,            Junling%Gao%NULL%0,            Kenji%Hashimoto%NULL%0,            Kenji%Hashimoto%NULL%0,            Kenji%Hashimoto%NULL%0,            Kenji%Hashimoto%NULL%0,            Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,             Yu%Wang%null%0,             Hong%Wang%null%1,             Zhaorui%Liu%null%1,             Xin%Yu%null%1,             Jie%Yan%null%2,             Yaqin%Yu%null%1,             Changgui%Kou%null%1,             Xiufeng%Xu%null%1,             Jin%Lu%null%1,             Zhizhong%Wang%null%1,             Shulan%He%null%1,             Yifeng%Xu%null%1,             Yanling%He%null%1,             Tao%Li%null%3,             Wanjun%Guo%null%1,             Hongjun%Tian%null%1,             Guangming%Xu%null%1,             Xiangdong%Xu%null%1,             Yanjuan%Ma%null%1,             Linhong%Wang%null%1,             Limin%Wang%null%1,             Yongping%Yan%null%1,             Bo%Wang%null%0,             Shuiyuan%Xiao%null%1,             Liang%Zhou%null%1,             Lingjiang%Li%null%1,             Liwen%Tan%null%1,             Tingting%Zhang%null%1,             Chao%Ma%null%1,             Qiang%Li%null%2,             Hua%Ding%null%1,             Hongchun%Geng%null%1,             Fujun%Jia%null%1,             Jianfei%Shi%null%1,             Shiliang%Wang%null%1,             Ning%Zhang%null%1,             Xinbai%Du%null%1,             Xiangdong%Du%null%1,             Yue%Wu%null%2,            Yueqin%Huang%null%1,            Yu%Wang%null%0,            Hong%Wang%null%1,            Zhaorui%Liu%null%1,            Xin%Yu%null%1,            Jie%Yan%null%1,            Yaqin%Yu%null%1,            Changgui%Kou%null%1,            Xiufeng%Xu%null%1,            Jin%Lu%null%1,            Zhizhong%Wang%null%1,            Shulan%He%null%1,            Yifeng%Xu%null%2,            Yanling%He%null%1,            Tao%Li%null%0,            Wanjun%Guo%null%1,            Hongjun%Tian%null%1,            Guangming%Xu%null%1,            Xiangdong%Xu%null%1,            Yanjuan%Ma%null%1,            Linhong%Wang%null%1,            Limin%Wang%null%1,            Yongping%Yan%null%1,            Bo%Wang%null%1,            Shuiyuan%Xiao%null%1,            Liang%Zhou%null%1,            Lingjiang%Li%null%1,            Liwen%Tan%null%1,            Tingting%Zhang%null%1,            Chao%Ma%null%1,            Qiang%Li%null%1,            Hua%Ding%null%1,            Hongchun%Geng%null%1,            Fujun%Jia%null%1,            Jianfei%Shi%null%1,            Shiliang%Wang%null%1,            Ning%Zhang%null%0,            Xinbai%Du%null%1,            Xiangdong%Du%null%1,            Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,            Simeng%Ma%NULL%4,            Min%Chen%NULL%2,            Jun%Yang%NULL%2,            Ying%Wang%NULL%4,            Ruiting%Li%NULL%5,            Lihua%Yao%NULL%4,            Hanping%Bai%NULL%2,            Zhongxiang%Cai%NULL%4,            Bing%Xiang Yang%NULL%2,            Shaohua%Hu%NULL%4,            Kerang%Zhang%NULL%2,            Gaohua%Wang%NULL%4,            Ci%Ma%NULL%2,            Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,            Kin Kit%Li%NULL%1,            Henry Ho Hin%Chan%NULL%1,            Yuan Yuan%Yi%NULL%1,            Arthur%Tang%NULL%1,            Wan In%Wei%NULL%1,            Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,            Simeng%Ma%NULL%0,            Ying%Wang%NULL%0,            Zhongxiang%Cai%NULL%0,            Jianbo%Hu%NULL%2,            Ning%Wei%NULL%2,            Jiang%Wu%NULL%2,            Hui%Du%NULL%2,            Tingting%Chen%NULL%2,            Ruiting%Li%NULL%0,            Huawei%Tan%NULL%2,            Lijun%Kang%NULL%2,            Lihua%Yao%NULL%0,            Manli%Huang%NULL%2,            Huafen%Wang%NULL%2,            Gaohua%Wang%NULL%0,            Zhongchun%Liu%NULL%0,            Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,            Fan%Zhang%NULL%1,            Cun%Wei%NULL%1,            Yanpu%Jia%NULL%1,            Zhilei%Shang%NULL%1,            Luna%Sun%NULL%1,            Lili%Wu%NULL%1,            Zhuoer%Sun%NULL%1,            Yaoguang%Zhou%NULL%1,            Yan%Wang%NULL%1,            Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,            Hang%Wang%NULL%1,            Yuxing%Lin%NULL%1,            Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,            Lan%Deng%NULL%4,            Lan%Deng%NULL%0,            Liyan%Zhang%NULL%2,            Qiuyan%Lang%NULL%2,            Chunyan%Liao%NULL%2,            Nannan%Wang%NULL%2,            Mingqin%Qin%2026142822@qq.com%2,            Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,            Minh H.%Nguyen%NULL%1,            Binh N.%Do%NULL%1,            Cuong Q.%Tran%NULL%2,            Cuong Q.%Tran%NULL%0,            Thao T. P.%Nguyen%NULL%1,            Khue M.%Pham%NULL%2,            Khue M.%Pham%NULL%0,            Linh V.%Pham%NULL%2,            Linh V.%Pham%NULL%0,            Khanh V.%Tran%NULL%1,            Trang T.%Duong%NULL%1,            Tien V.%Tran%NULL%1,            Thai H.%Duong%NULL%1,            Tham T.%Nguyen%NULL%1,            Quyen H.%Nguyen%NULL%1,            Thanh M.%Hoang%NULL%1,            Kien T.%Nguyen%NULL%1,            Thu T. M.%Pham%NULL%1,            Shwu-Huey%Yang%NULL%1,            Jane C.-J.%Chao%NULL%2,            Jane C.-J.%Chao%NULL%0,            Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,            Francesco%Cinetto%NULL%1,            Cinzia%Milito%NULL%1,            Livia%Bonanni%NULL%1,            Anna Maria%Pesce%NULL%1,            Giorgia%Leodori%NULL%1,            Giulia%Garzi%NULL%1,            Marzia%Miglionico%NULL%1,            Stefano%Tabolli%NULL%1,            Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,            Bin%Shen%NULL%1,            Min%Zhao%NULL%1,            Zhen%Wang%NULL%2,            Zhen%Wang%NULL%0,            Bin%Xie%NULL%1,            Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,            Sarvodaya%Tripathy%NULL%1,            Sujita Kumar%Kar%NULL%1,            Nivedita%Sharma%NULL%1,            Sudhir Kumar%Verma%NULL%1,            Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,            Nicholas W.S.%Chew%NULL%1,            Grace K.H.%Lee%NULL%1,            Mingxue%Jing%NULL%1,            Yihui%Goh%NULL%1,            Leonard L.L.%Yeo%NULL%1,            Ka%Zhang%NULL%1,            Howe-Keat%Chin%NULL%1,            Aftab%Ahmad%NULL%1,            Faheem Ahmed%Khan%NULL%1,            Ganesh Napolean%Shanmugam%NULL%1,            Bernard P.L.%Chan%NULL%1,            Sibi%Sunny%NULL%1,            Bharatendu%Chandra%NULL%1,            Jonathan J.Y.%Ong%NULL%1,            Prakash R.%Paliwal%NULL%1,            Lily Y.H.%Wong%NULL%1,            Renarebecca%Sagayanathan%NULL%1,            Jin Tao%Chen%NULL%1,            Alison Ying%Ying Ng%NULL%1,            Hock Luen%Teoh%NULL%1,            Cyrus S.%Ho%NULL%3,            Roger C.%Ho%NULL%5,            Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,            Riyu%Pan%NULL%5,            Riyu%Pan%NULL%0,            Xiaoyang%Wan%NULL%3,            Yilin%Tan%NULL%3,            Linkang%Xu%NULL%3,            Cyrus S.%Ho%NULL%0,            Roger C.%Ho%NULL%0,            Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2,      Yu%Di%xref no email%2,      Junjie%Ye%xref no email%2,      Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,            Marina%Serper%NULL%1,            Lauren%Opsasnick%NULL%1,            Rachel M.%O'Conor%NULL%1,            Laura M.%Curtis%NULL%1,            Julia Yoshino%Benavente%NULL%1,            Guisselle%Wismer%NULL%1,            Stephanie%Batio%NULL%1,            Morgan%Eifler%NULL%1,            Pauline%Zheng%NULL%1,            Andrea%Russell%NULL%1,            Marina%Arvanitis%NULL%1,            Daniela%Ladner%NULL%1,            Mary%Kwasny%NULL%1,            Stephen D.%Persell%NULL%1,            Theresa%Rowe%NULL%1,            Jeffrey A.%Linder%NULL%1,            Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,            Yan%Zhang%NULL%2,            Desheng%Kong%NULL%2,            Shiyue%Li%NULL%2,            Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,            Zhenxin%Liao%NULL%2,            Haojie%Huang%NULL%2,            Boyue%Jiang%NULL%2,            Xueyan%Zhang%NULL%2,            Yingwen%Wang%NULL%2,            Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,            Kun%Wang%NULL%0,            Lu%Yin%NULL%0,            Wen-feng%Zhao%NULL%1,            Qing%Xue%NULL%1,            Mao%Peng%NULL%1,            Bao-quan%Min%NULL%1,            Qing%Tian%NULL%1,            Hai-xia%Leng%NULL%1,            Jia-lin%Du%NULL%1,            Hong%Chang%NULL%1,            Yuan%Yang%NULL%0,            Wei%Li%NULL%1,            Fang-fang%Shangguan%NULL%1,            Tian-yi%Yan%NULL%1,            Hui-qing%Dong%NULL%1,            Ying%Han%NULL%1,            Yu-ping%Wang%NULL%1,            Fiammetta%Cosci%NULL%1,            Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,            Zheng Feei%Ma%NULL%4,            Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,            M.%Zhou%NULL%1,            F.%Tang%NULL%1,            Y.%Wang%NULL%1,            H.%Nie%NULL%1,            L.%Zhang%NULL%1,            G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1810,7 +1972,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1839,7 +2001,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1868,7 +2030,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -1897,7 +2059,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -1926,7 +2088,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1955,7 +2117,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1984,7 +2146,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -2042,7 +2204,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2071,7 +2233,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2100,7 +2262,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2129,7 +2291,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2158,7 +2320,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2187,7 +2349,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2216,7 +2378,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2274,7 +2436,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2303,7 +2465,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2332,7 +2494,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2361,7 +2523,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -2390,7 +2552,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2419,7 +2581,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2448,7 +2610,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -2477,7 +2639,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -2506,7 +2668,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -2535,7 +2697,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -2564,7 +2726,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -2593,7 +2755,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -2622,7 +2784,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="478">
   <si>
     <t>Doi</t>
   </si>
@@ -1592,6 +1592,87 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,            M.%Zhou%NULL%1,            F.%Tang%NULL%1,            Y.%Wang%NULL%1,            H.%Nie%NULL%1,            L.%Zhang%NULL%1,            G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,             Wen%Li%NULL%1,             Yuan%Yang%NULL%3,             Yuan%Yang%NULL%0,             Yu%Wang%NULL%0,             Qinge%Zhang%NULL%1,             Teris%Cheung%NULL%1,             Xinjuan%Wu%NULL%1,             Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,             Baoren%Tu%NULL%2,             Jing%Ma%NULL%2,             Limin%Chen%NULL%2,             Lei%Fu%NULL%2,             Yongfang%Jiang%NULL%2,             Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,             Jing%Wei%NULL%1,             Huadong%Zhu%NULL%1,             Yanping%Duan%NULL%1,             Wenqi%Geng%NULL%1,             Xia%Hong%NULL%1,             Jing%Jiang%NULL%1,             Xiaohui%Zhao%NULL%1,             Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,             Ziwei%Fang%NULL%2,             Guoqiang%Hou%NULL%2,             Mei%Han%NULL%2,             Xinrong%Xu%NULL%2,             Jiaxin%Dong%NULL%2,             Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2,       Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0,       Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,             Pinpin%Zheng%NULL%2,             Pinpin%Zheng%NULL%0,             Yingnan%Jia%NULL%1,             Hao%Chen%NULL%1,             Yimeng%Mao%NULL%1,             Suhong%Chen%NULL%1,             Yi%Wang%NULL%1,             Hua%Fu%NULL%1,             Junming%Dai%NULL%1,             Kenji%Hashimoto%NULL%10,             Kenji%Hashimoto%NULL%0,             Junling%Gao%NULL%3,             Junling%Gao%NULL%0,             Junling%Gao%NULL%0,             Kenji%Hashimoto%NULL%0,             Kenji%Hashimoto%NULL%0,             Kenji%Hashimoto%NULL%0,             Kenji%Hashimoto%NULL%0,             Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,              Yu%Wang%null%0,              Hong%Wang%null%1,              Zhaorui%Liu%null%1,              Xin%Yu%null%1,              Jie%Yan%null%2,              Yaqin%Yu%null%1,              Changgui%Kou%null%1,              Xiufeng%Xu%null%1,              Jin%Lu%null%1,              Zhizhong%Wang%null%1,              Shulan%He%null%1,              Yifeng%Xu%null%1,              Yanling%He%null%1,              Tao%Li%null%3,              Wanjun%Guo%null%1,              Hongjun%Tian%null%1,              Guangming%Xu%null%1,              Xiangdong%Xu%null%1,              Yanjuan%Ma%null%1,              Linhong%Wang%null%1,              Limin%Wang%null%1,              Yongping%Yan%null%1,              Bo%Wang%null%0,              Shuiyuan%Xiao%null%1,              Liang%Zhou%null%1,              Lingjiang%Li%null%1,              Liwen%Tan%null%1,              Tingting%Zhang%null%1,              Chao%Ma%null%1,              Qiang%Li%null%2,              Hua%Ding%null%1,              Hongchun%Geng%null%1,              Fujun%Jia%null%1,              Jianfei%Shi%null%1,              Shiliang%Wang%null%1,              Ning%Zhang%null%1,              Xinbai%Du%null%1,              Xiangdong%Du%null%1,              Yue%Wu%null%2,             Yueqin%Huang%null%1,             Yu%Wang%null%0,             Hong%Wang%null%1,             Zhaorui%Liu%null%1,             Xin%Yu%null%1,             Jie%Yan%null%1,             Yaqin%Yu%null%1,             Changgui%Kou%null%1,             Xiufeng%Xu%null%1,             Jin%Lu%null%1,             Zhizhong%Wang%null%1,             Shulan%He%null%1,             Yifeng%Xu%null%2,             Yanling%He%null%1,             Tao%Li%null%0,             Wanjun%Guo%null%1,             Hongjun%Tian%null%1,             Guangming%Xu%null%1,             Xiangdong%Xu%null%1,             Yanjuan%Ma%null%1,             Linhong%Wang%null%1,             Limin%Wang%null%1,             Yongping%Yan%null%1,             Bo%Wang%null%1,             Shuiyuan%Xiao%null%1,             Liang%Zhou%null%1,             Lingjiang%Li%null%1,             Liwen%Tan%null%1,             Tingting%Zhang%null%1,             Chao%Ma%null%1,             Qiang%Li%null%1,             Hua%Ding%null%1,             Hongchun%Geng%null%1,             Fujun%Jia%null%1,             Jianfei%Shi%null%1,             Shiliang%Wang%null%1,             Ning%Zhang%null%0,             Xinbai%Du%null%1,             Xiangdong%Du%null%1,             Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,             Simeng%Ma%NULL%4,             Min%Chen%NULL%2,             Jun%Yang%NULL%2,             Ying%Wang%NULL%4,             Ruiting%Li%NULL%5,             Lihua%Yao%NULL%4,             Hanping%Bai%NULL%2,             Zhongxiang%Cai%NULL%4,             Bing%Xiang Yang%NULL%2,             Shaohua%Hu%NULL%4,             Kerang%Zhang%NULL%2,             Gaohua%Wang%NULL%4,             Ci%Ma%NULL%2,             Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,             Kin Kit%Li%NULL%1,             Henry Ho Hin%Chan%NULL%1,             Yuan Yuan%Yi%NULL%1,             Arthur%Tang%NULL%1,             Wan In%Wei%NULL%1,             Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,             Simeng%Ma%NULL%0,             Ying%Wang%NULL%0,             Zhongxiang%Cai%NULL%0,             Jianbo%Hu%NULL%2,             Ning%Wei%NULL%2,             Jiang%Wu%NULL%2,             Hui%Du%NULL%2,             Tingting%Chen%NULL%2,             Ruiting%Li%NULL%0,             Huawei%Tan%NULL%2,             Lijun%Kang%NULL%2,             Lihua%Yao%NULL%0,             Manli%Huang%NULL%2,             Huafen%Wang%NULL%2,             Gaohua%Wang%NULL%0,             Zhongchun%Liu%NULL%0,             Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,             Fan%Zhang%NULL%1,             Cun%Wei%NULL%1,             Yanpu%Jia%NULL%1,             Zhilei%Shang%NULL%1,             Luna%Sun%NULL%1,             Lili%Wu%NULL%1,             Zhuoer%Sun%NULL%1,             Yaoguang%Zhou%NULL%1,             Yan%Wang%NULL%1,             Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,             Hang%Wang%NULL%1,             Yuxing%Lin%NULL%1,             Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,             Lan%Deng%NULL%4,             Lan%Deng%NULL%0,             Liyan%Zhang%NULL%2,             Qiuyan%Lang%NULL%2,             Chunyan%Liao%NULL%2,             Nannan%Wang%NULL%2,             Mingqin%Qin%2026142822@qq.com%2,             Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,             Minh H.%Nguyen%NULL%1,             Binh N.%Do%NULL%1,             Cuong Q.%Tran%NULL%2,             Cuong Q.%Tran%NULL%0,             Thao T. P.%Nguyen%NULL%1,             Khue M.%Pham%NULL%2,             Khue M.%Pham%NULL%0,             Linh V.%Pham%NULL%2,             Linh V.%Pham%NULL%0,             Khanh V.%Tran%NULL%1,             Trang T.%Duong%NULL%1,             Tien V.%Tran%NULL%1,             Thai H.%Duong%NULL%1,             Tham T.%Nguyen%NULL%1,             Quyen H.%Nguyen%NULL%1,             Thanh M.%Hoang%NULL%1,             Kien T.%Nguyen%NULL%1,             Thu T. M.%Pham%NULL%1,             Shwu-Huey%Yang%NULL%1,             Jane C.-J.%Chao%NULL%2,             Jane C.-J.%Chao%NULL%0,             Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,             Francesco%Cinetto%NULL%1,             Cinzia%Milito%NULL%1,             Livia%Bonanni%NULL%1,             Anna Maria%Pesce%NULL%1,             Giorgia%Leodori%NULL%1,             Giulia%Garzi%NULL%1,             Marzia%Miglionico%NULL%1,             Stefano%Tabolli%NULL%1,             Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,             Bin%Shen%NULL%1,             Min%Zhao%NULL%1,             Zhen%Wang%NULL%2,             Zhen%Wang%NULL%0,             Bin%Xie%NULL%1,             Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,             Sarvodaya%Tripathy%NULL%1,             Sujita Kumar%Kar%NULL%1,             Nivedita%Sharma%NULL%1,             Sudhir Kumar%Verma%NULL%1,             Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,             Nicholas W.S.%Chew%NULL%1,             Grace K.H.%Lee%NULL%1,             Mingxue%Jing%NULL%1,             Yihui%Goh%NULL%1,             Leonard L.L.%Yeo%NULL%1,             Ka%Zhang%NULL%1,             Howe-Keat%Chin%NULL%1,             Aftab%Ahmad%NULL%1,             Faheem Ahmed%Khan%NULL%1,             Ganesh Napolean%Shanmugam%NULL%1,             Bernard P.L.%Chan%NULL%1,             Sibi%Sunny%NULL%1,             Bharatendu%Chandra%NULL%1,             Jonathan J.Y.%Ong%NULL%1,             Prakash R.%Paliwal%NULL%1,             Lily Y.H.%Wong%NULL%1,             Renarebecca%Sagayanathan%NULL%1,             Jin Tao%Chen%NULL%1,             Alison Ying%Ying Ng%NULL%1,             Hock Luen%Teoh%NULL%1,             Cyrus S.%Ho%NULL%3,             Roger C.%Ho%NULL%5,             Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,             Riyu%Pan%NULL%5,             Riyu%Pan%NULL%0,             Xiaoyang%Wan%NULL%3,             Yilin%Tan%NULL%3,             Linkang%Xu%NULL%3,             Cyrus S.%Ho%NULL%0,             Roger C.%Ho%NULL%0,             Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2,       Yu%Di%xref no email%2,       Junjie%Ye%xref no email%2,       Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,             Marina%Serper%NULL%1,             Lauren%Opsasnick%NULL%1,             Rachel M.%O'Conor%NULL%1,             Laura M.%Curtis%NULL%1,             Julia Yoshino%Benavente%NULL%1,             Guisselle%Wismer%NULL%1,             Stephanie%Batio%NULL%1,             Morgan%Eifler%NULL%1,             Pauline%Zheng%NULL%1,             Andrea%Russell%NULL%1,             Marina%Arvanitis%NULL%1,             Daniela%Ladner%NULL%1,             Mary%Kwasny%NULL%1,             Stephen D.%Persell%NULL%1,             Theresa%Rowe%NULL%1,             Jeffrey A.%Linder%NULL%1,             Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,             Yan%Zhang%NULL%2,             Desheng%Kong%NULL%2,             Shiyue%Li%NULL%2,             Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,             Zhenxin%Liao%NULL%2,             Haojie%Huang%NULL%2,             Boyue%Jiang%NULL%2,             Xueyan%Zhang%NULL%2,             Yingwen%Wang%NULL%2,             Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,             Kun%Wang%NULL%0,             Lu%Yin%NULL%0,             Wen-feng%Zhao%NULL%1,             Qing%Xue%NULL%1,             Mao%Peng%NULL%1,             Bao-quan%Min%NULL%1,             Qing%Tian%NULL%1,             Hai-xia%Leng%NULL%1,             Jia-lin%Du%NULL%1,             Hong%Chang%NULL%1,             Yuan%Yang%NULL%0,             Wei%Li%NULL%1,             Fang-fang%Shangguan%NULL%1,             Tian-yi%Yan%NULL%1,             Hui-qing%Dong%NULL%1,             Ying%Han%NULL%1,             Yu-ping%Wang%NULL%1,             Fiammetta%Cosci%NULL%1,             Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,             Zheng Feei%Ma%NULL%4,             Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,             M.%Zhou%NULL%1,             F.%Tang%NULL%1,             Y.%Wang%NULL%1,             H.%Nie%NULL%1,             L.%Zhang%NULL%1,             G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +2053,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2001,7 +2082,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2030,7 +2111,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -2059,7 +2140,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2088,7 +2169,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2117,7 +2198,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -2146,7 +2227,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -2204,7 +2285,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2233,7 +2314,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2262,7 +2343,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2291,7 +2372,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2320,7 +2401,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2349,7 +2430,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2378,7 +2459,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2436,7 +2517,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2465,7 +2546,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2494,7 +2575,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2523,7 +2604,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -2552,7 +2633,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2581,7 +2662,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2610,7 +2691,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -2639,7 +2720,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -2668,7 +2749,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -2697,7 +2778,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -2726,7 +2807,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -2755,7 +2836,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -2784,7 +2865,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="505">
   <si>
     <t>Doi</t>
   </si>
@@ -1673,6 +1673,87 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,             M.%Zhou%NULL%1,             F.%Tang%NULL%1,             Y.%Wang%NULL%1,             H.%Nie%NULL%1,             L.%Zhang%NULL%1,             G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,              Wen%Li%NULL%1,              Yuan%Yang%NULL%3,              Yuan%Yang%NULL%0,              Yu%Wang%NULL%0,              Qinge%Zhang%NULL%1,              Teris%Cheung%NULL%1,              Xinjuan%Wu%NULL%1,              Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,              Baoren%Tu%NULL%2,              Jing%Ma%NULL%2,              Limin%Chen%NULL%2,              Lei%Fu%NULL%2,              Yongfang%Jiang%NULL%2,              Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,              Jing%Wei%NULL%1,              Huadong%Zhu%NULL%1,              Yanping%Duan%NULL%1,              Wenqi%Geng%NULL%1,              Xia%Hong%NULL%1,              Jing%Jiang%NULL%1,              Xiaohui%Zhao%NULL%1,              Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,              Ziwei%Fang%NULL%2,              Guoqiang%Hou%NULL%2,              Mei%Han%NULL%2,              Xinrong%Xu%NULL%2,              Jiaxin%Dong%NULL%2,              Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2,        Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0,        Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,              Pinpin%Zheng%NULL%2,              Pinpin%Zheng%NULL%0,              Yingnan%Jia%NULL%1,              Hao%Chen%NULL%1,              Yimeng%Mao%NULL%1,              Suhong%Chen%NULL%1,              Yi%Wang%NULL%1,              Hua%Fu%NULL%1,              Junming%Dai%NULL%1,              Kenji%Hashimoto%NULL%10,              Kenji%Hashimoto%NULL%0,              Junling%Gao%NULL%3,              Junling%Gao%NULL%0,              Junling%Gao%NULL%0,              Kenji%Hashimoto%NULL%0,              Kenji%Hashimoto%NULL%0,              Kenji%Hashimoto%NULL%0,              Kenji%Hashimoto%NULL%0,              Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,               Yu%Wang%null%0,               Hong%Wang%null%1,               Zhaorui%Liu%null%1,               Xin%Yu%null%1,               Jie%Yan%null%2,               Yaqin%Yu%null%1,               Changgui%Kou%null%1,               Xiufeng%Xu%null%1,               Jin%Lu%null%1,               Zhizhong%Wang%null%1,               Shulan%He%null%1,               Yifeng%Xu%null%1,               Yanling%He%null%1,               Tao%Li%null%3,               Wanjun%Guo%null%1,               Hongjun%Tian%null%1,               Guangming%Xu%null%1,               Xiangdong%Xu%null%1,               Yanjuan%Ma%null%1,               Linhong%Wang%null%1,               Limin%Wang%null%1,               Yongping%Yan%null%1,               Bo%Wang%null%0,               Shuiyuan%Xiao%null%1,               Liang%Zhou%null%1,               Lingjiang%Li%null%1,               Liwen%Tan%null%1,               Tingting%Zhang%null%1,               Chao%Ma%null%1,               Qiang%Li%null%2,               Hua%Ding%null%1,               Hongchun%Geng%null%1,               Fujun%Jia%null%1,               Jianfei%Shi%null%1,               Shiliang%Wang%null%1,               Ning%Zhang%null%1,               Xinbai%Du%null%1,               Xiangdong%Du%null%1,               Yue%Wu%null%2,              Yueqin%Huang%null%1,              Yu%Wang%null%0,              Hong%Wang%null%1,              Zhaorui%Liu%null%1,              Xin%Yu%null%1,              Jie%Yan%null%1,              Yaqin%Yu%null%1,              Changgui%Kou%null%1,              Xiufeng%Xu%null%1,              Jin%Lu%null%1,              Zhizhong%Wang%null%1,              Shulan%He%null%1,              Yifeng%Xu%null%2,              Yanling%He%null%1,              Tao%Li%null%0,              Wanjun%Guo%null%1,              Hongjun%Tian%null%1,              Guangming%Xu%null%1,              Xiangdong%Xu%null%1,              Yanjuan%Ma%null%1,              Linhong%Wang%null%1,              Limin%Wang%null%1,              Yongping%Yan%null%1,              Bo%Wang%null%1,              Shuiyuan%Xiao%null%1,              Liang%Zhou%null%1,              Lingjiang%Li%null%1,              Liwen%Tan%null%1,              Tingting%Zhang%null%1,              Chao%Ma%null%1,              Qiang%Li%null%1,              Hua%Ding%null%1,              Hongchun%Geng%null%1,              Fujun%Jia%null%1,              Jianfei%Shi%null%1,              Shiliang%Wang%null%1,              Ning%Zhang%null%0,              Xinbai%Du%null%1,              Xiangdong%Du%null%1,              Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,              Simeng%Ma%NULL%4,              Min%Chen%NULL%2,              Jun%Yang%NULL%2,              Ying%Wang%NULL%4,              Ruiting%Li%NULL%5,              Lihua%Yao%NULL%4,              Hanping%Bai%NULL%2,              Zhongxiang%Cai%NULL%4,              Bing%Xiang Yang%NULL%2,              Shaohua%Hu%NULL%4,              Kerang%Zhang%NULL%2,              Gaohua%Wang%NULL%4,              Ci%Ma%NULL%2,              Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,              Kin Kit%Li%NULL%1,              Henry Ho Hin%Chan%NULL%1,              Yuan Yuan%Yi%NULL%1,              Arthur%Tang%NULL%1,              Wan In%Wei%NULL%1,              Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,              Simeng%Ma%NULL%0,              Ying%Wang%NULL%0,              Zhongxiang%Cai%NULL%0,              Jianbo%Hu%NULL%2,              Ning%Wei%NULL%2,              Jiang%Wu%NULL%2,              Hui%Du%NULL%2,              Tingting%Chen%NULL%2,              Ruiting%Li%NULL%0,              Huawei%Tan%NULL%2,              Lijun%Kang%NULL%2,              Lihua%Yao%NULL%0,              Manli%Huang%NULL%2,              Huafen%Wang%NULL%2,              Gaohua%Wang%NULL%0,              Zhongchun%Liu%NULL%0,              Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,              Fan%Zhang%NULL%1,              Cun%Wei%NULL%1,              Yanpu%Jia%NULL%1,              Zhilei%Shang%NULL%1,              Luna%Sun%NULL%1,              Lili%Wu%NULL%1,              Zhuoer%Sun%NULL%1,              Yaoguang%Zhou%NULL%1,              Yan%Wang%NULL%1,              Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,              Hang%Wang%NULL%1,              Yuxing%Lin%NULL%1,              Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,              Lan%Deng%NULL%4,              Lan%Deng%NULL%0,              Liyan%Zhang%NULL%2,              Qiuyan%Lang%NULL%2,              Chunyan%Liao%NULL%2,              Nannan%Wang%NULL%2,              Mingqin%Qin%2026142822@qq.com%2,              Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,              Minh H.%Nguyen%NULL%1,              Binh N.%Do%NULL%1,              Cuong Q.%Tran%NULL%2,              Cuong Q.%Tran%NULL%0,              Thao T. P.%Nguyen%NULL%1,              Khue M.%Pham%NULL%2,              Khue M.%Pham%NULL%0,              Linh V.%Pham%NULL%2,              Linh V.%Pham%NULL%0,              Khanh V.%Tran%NULL%1,              Trang T.%Duong%NULL%1,              Tien V.%Tran%NULL%1,              Thai H.%Duong%NULL%1,              Tham T.%Nguyen%NULL%1,              Quyen H.%Nguyen%NULL%1,              Thanh M.%Hoang%NULL%1,              Kien T.%Nguyen%NULL%1,              Thu T. M.%Pham%NULL%1,              Shwu-Huey%Yang%NULL%1,              Jane C.-J.%Chao%NULL%2,              Jane C.-J.%Chao%NULL%0,              Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,              Francesco%Cinetto%NULL%1,              Cinzia%Milito%NULL%1,              Livia%Bonanni%NULL%1,              Anna Maria%Pesce%NULL%1,              Giorgia%Leodori%NULL%1,              Giulia%Garzi%NULL%1,              Marzia%Miglionico%NULL%1,              Stefano%Tabolli%NULL%1,              Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,              Bin%Shen%NULL%1,              Min%Zhao%NULL%1,              Zhen%Wang%NULL%2,              Zhen%Wang%NULL%0,              Bin%Xie%NULL%1,              Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,              Sarvodaya%Tripathy%NULL%1,              Sujita Kumar%Kar%NULL%1,              Nivedita%Sharma%NULL%1,              Sudhir Kumar%Verma%NULL%1,              Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,              Nicholas W.S.%Chew%NULL%1,              Grace K.H.%Lee%NULL%1,              Mingxue%Jing%NULL%1,              Yihui%Goh%NULL%1,              Leonard L.L.%Yeo%NULL%1,              Ka%Zhang%NULL%1,              Howe-Keat%Chin%NULL%1,              Aftab%Ahmad%NULL%1,              Faheem Ahmed%Khan%NULL%1,              Ganesh Napolean%Shanmugam%NULL%1,              Bernard P.L.%Chan%NULL%1,              Sibi%Sunny%NULL%1,              Bharatendu%Chandra%NULL%1,              Jonathan J.Y.%Ong%NULL%1,              Prakash R.%Paliwal%NULL%1,              Lily Y.H.%Wong%NULL%1,              Renarebecca%Sagayanathan%NULL%1,              Jin Tao%Chen%NULL%1,              Alison Ying%Ying Ng%NULL%1,              Hock Luen%Teoh%NULL%1,              Cyrus S.%Ho%NULL%3,              Roger C.%Ho%NULL%5,              Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,              Riyu%Pan%NULL%5,              Riyu%Pan%NULL%0,              Xiaoyang%Wan%NULL%3,              Yilin%Tan%NULL%3,              Linkang%Xu%NULL%3,              Cyrus S.%Ho%NULL%0,              Roger C.%Ho%NULL%0,              Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2,        Yu%Di%xref no email%2,        Junjie%Ye%xref no email%2,        Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,              Marina%Serper%NULL%1,              Lauren%Opsasnick%NULL%1,              Rachel M.%O'Conor%NULL%1,              Laura M.%Curtis%NULL%1,              Julia Yoshino%Benavente%NULL%1,              Guisselle%Wismer%NULL%1,              Stephanie%Batio%NULL%1,              Morgan%Eifler%NULL%1,              Pauline%Zheng%NULL%1,              Andrea%Russell%NULL%1,              Marina%Arvanitis%NULL%1,              Daniela%Ladner%NULL%1,              Mary%Kwasny%NULL%1,              Stephen D.%Persell%NULL%1,              Theresa%Rowe%NULL%1,              Jeffrey A.%Linder%NULL%1,              Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,              Yan%Zhang%NULL%2,              Desheng%Kong%NULL%2,              Shiyue%Li%NULL%2,              Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,              Zhenxin%Liao%NULL%2,              Haojie%Huang%NULL%2,              Boyue%Jiang%NULL%2,              Xueyan%Zhang%NULL%2,              Yingwen%Wang%NULL%2,              Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,              Kun%Wang%NULL%0,              Lu%Yin%NULL%0,              Wen-feng%Zhao%NULL%1,              Qing%Xue%NULL%1,              Mao%Peng%NULL%1,              Bao-quan%Min%NULL%1,              Qing%Tian%NULL%1,              Hai-xia%Leng%NULL%1,              Jia-lin%Du%NULL%1,              Hong%Chang%NULL%1,              Yuan%Yang%NULL%0,              Wei%Li%NULL%1,              Fang-fang%Shangguan%NULL%1,              Tian-yi%Yan%NULL%1,              Hui-qing%Dong%NULL%1,              Ying%Han%NULL%1,              Yu-ping%Wang%NULL%1,              Fiammetta%Cosci%NULL%1,              Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,              Zheng Feei%Ma%NULL%4,              Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,              M.%Zhou%NULL%1,              F.%Tang%NULL%1,              Y.%Wang%NULL%1,              H.%Nie%NULL%1,              L.%Zhang%NULL%1,              G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2134,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2082,7 +2163,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2111,7 +2192,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -2140,7 +2221,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2169,7 +2250,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2198,7 +2279,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -2227,7 +2308,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -2285,7 +2366,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2314,7 +2395,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2343,7 +2424,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2372,7 +2453,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2401,7 +2482,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2430,7 +2511,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2459,7 +2540,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2517,7 +2598,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2546,7 +2627,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2575,7 +2656,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2604,7 +2685,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -2633,7 +2714,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2662,7 +2743,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2691,7 +2772,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -2720,7 +2801,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -2749,7 +2830,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -2778,7 +2859,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -2807,7 +2888,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -2836,7 +2917,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -2865,7 +2946,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="559">
   <si>
     <t>Doi</t>
   </si>
@@ -1754,6 +1754,168 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,              M.%Zhou%NULL%1,              F.%Tang%NULL%1,              Y.%Wang%NULL%1,              H.%Nie%NULL%1,              L.%Zhang%NULL%1,              G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,               Wen%Li%NULL%1,               Yuan%Yang%NULL%3,               Yuan%Yang%NULL%0,               Yu%Wang%NULL%0,               Qinge%Zhang%NULL%1,               Teris%Cheung%NULL%1,               Xinjuan%Wu%NULL%1,               Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,               Baoren%Tu%NULL%2,               Jing%Ma%NULL%2,               Limin%Chen%NULL%2,               Lei%Fu%NULL%2,               Yongfang%Jiang%NULL%2,               Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,               Jing%Wei%NULL%1,               Huadong%Zhu%NULL%1,               Yanping%Duan%NULL%1,               Wenqi%Geng%NULL%1,               Xia%Hong%NULL%1,               Jing%Jiang%NULL%1,               Xiaohui%Zhao%NULL%1,               Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,               Ziwei%Fang%NULL%2,               Guoqiang%Hou%NULL%2,               Mei%Han%NULL%2,               Xinrong%Xu%NULL%2,               Jiaxin%Dong%NULL%2,               Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2,         Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0,         Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,               Pinpin%Zheng%NULL%2,               Pinpin%Zheng%NULL%0,               Yingnan%Jia%NULL%1,               Hao%Chen%NULL%1,               Yimeng%Mao%NULL%1,               Suhong%Chen%NULL%1,               Yi%Wang%NULL%1,               Hua%Fu%NULL%1,               Junming%Dai%NULL%1,               Kenji%Hashimoto%NULL%10,               Kenji%Hashimoto%NULL%0,               Junling%Gao%NULL%3,               Junling%Gao%NULL%0,               Junling%Gao%NULL%0,               Kenji%Hashimoto%NULL%0,               Kenji%Hashimoto%NULL%0,               Kenji%Hashimoto%NULL%0,               Kenji%Hashimoto%NULL%0,               Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,                Yu%Wang%null%0,                Hong%Wang%null%1,                Zhaorui%Liu%null%1,                Xin%Yu%null%1,                Jie%Yan%null%2,                Yaqin%Yu%null%1,                Changgui%Kou%null%1,                Xiufeng%Xu%null%1,                Jin%Lu%null%1,                Zhizhong%Wang%null%1,                Shulan%He%null%1,                Yifeng%Xu%null%1,                Yanling%He%null%1,                Tao%Li%null%3,                Wanjun%Guo%null%1,                Hongjun%Tian%null%1,                Guangming%Xu%null%1,                Xiangdong%Xu%null%1,                Yanjuan%Ma%null%1,                Linhong%Wang%null%1,                Limin%Wang%null%1,                Yongping%Yan%null%1,                Bo%Wang%null%0,                Shuiyuan%Xiao%null%1,                Liang%Zhou%null%1,                Lingjiang%Li%null%1,                Liwen%Tan%null%1,                Tingting%Zhang%null%1,                Chao%Ma%null%1,                Qiang%Li%null%2,                Hua%Ding%null%1,                Hongchun%Geng%null%1,                Fujun%Jia%null%1,                Jianfei%Shi%null%1,                Shiliang%Wang%null%1,                Ning%Zhang%null%1,                Xinbai%Du%null%1,                Xiangdong%Du%null%1,                Yue%Wu%null%2,               Yueqin%Huang%null%1,               Yu%Wang%null%0,               Hong%Wang%null%1,               Zhaorui%Liu%null%1,               Xin%Yu%null%1,               Jie%Yan%null%1,               Yaqin%Yu%null%1,               Changgui%Kou%null%1,               Xiufeng%Xu%null%1,               Jin%Lu%null%1,               Zhizhong%Wang%null%1,               Shulan%He%null%1,               Yifeng%Xu%null%2,               Yanling%He%null%1,               Tao%Li%null%0,               Wanjun%Guo%null%1,               Hongjun%Tian%null%1,               Guangming%Xu%null%1,               Xiangdong%Xu%null%1,               Yanjuan%Ma%null%1,               Linhong%Wang%null%1,               Limin%Wang%null%1,               Yongping%Yan%null%1,               Bo%Wang%null%1,               Shuiyuan%Xiao%null%1,               Liang%Zhou%null%1,               Lingjiang%Li%null%1,               Liwen%Tan%null%1,               Tingting%Zhang%null%1,               Chao%Ma%null%1,               Qiang%Li%null%1,               Hua%Ding%null%1,               Hongchun%Geng%null%1,               Fujun%Jia%null%1,               Jianfei%Shi%null%1,               Shiliang%Wang%null%1,               Ning%Zhang%null%0,               Xinbai%Du%null%1,               Xiangdong%Du%null%1,               Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,               Simeng%Ma%NULL%4,               Min%Chen%NULL%2,               Jun%Yang%NULL%2,               Ying%Wang%NULL%4,               Ruiting%Li%NULL%5,               Lihua%Yao%NULL%4,               Hanping%Bai%NULL%2,               Zhongxiang%Cai%NULL%4,               Bing%Xiang Yang%NULL%2,               Shaohua%Hu%NULL%4,               Kerang%Zhang%NULL%2,               Gaohua%Wang%NULL%4,               Ci%Ma%NULL%2,               Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,               Kin Kit%Li%NULL%1,               Henry Ho Hin%Chan%NULL%1,               Yuan Yuan%Yi%NULL%1,               Arthur%Tang%NULL%1,               Wan In%Wei%NULL%1,               Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,               Simeng%Ma%NULL%0,               Ying%Wang%NULL%0,               Zhongxiang%Cai%NULL%0,               Jianbo%Hu%NULL%2,               Ning%Wei%NULL%2,               Jiang%Wu%NULL%2,               Hui%Du%NULL%2,               Tingting%Chen%NULL%2,               Ruiting%Li%NULL%0,               Huawei%Tan%NULL%2,               Lijun%Kang%NULL%2,               Lihua%Yao%NULL%0,               Manli%Huang%NULL%2,               Huafen%Wang%NULL%2,               Gaohua%Wang%NULL%0,               Zhongchun%Liu%NULL%0,               Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,               Fan%Zhang%NULL%1,               Cun%Wei%NULL%1,               Yanpu%Jia%NULL%1,               Zhilei%Shang%NULL%1,               Luna%Sun%NULL%1,               Lili%Wu%NULL%1,               Zhuoer%Sun%NULL%1,               Yaoguang%Zhou%NULL%1,               Yan%Wang%NULL%1,               Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,               Hang%Wang%NULL%1,               Yuxing%Lin%NULL%1,               Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,               Lan%Deng%NULL%4,               Lan%Deng%NULL%0,               Liyan%Zhang%NULL%2,               Qiuyan%Lang%NULL%2,               Chunyan%Liao%NULL%2,               Nannan%Wang%NULL%2,               Mingqin%Qin%2026142822@qq.com%2,               Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,               Minh H.%Nguyen%NULL%1,               Binh N.%Do%NULL%1,               Cuong Q.%Tran%NULL%2,               Cuong Q.%Tran%NULL%0,               Thao T. P.%Nguyen%NULL%1,               Khue M.%Pham%NULL%2,               Khue M.%Pham%NULL%0,               Linh V.%Pham%NULL%2,               Linh V.%Pham%NULL%0,               Khanh V.%Tran%NULL%1,               Trang T.%Duong%NULL%1,               Tien V.%Tran%NULL%1,               Thai H.%Duong%NULL%1,               Tham T.%Nguyen%NULL%1,               Quyen H.%Nguyen%NULL%1,               Thanh M.%Hoang%NULL%1,               Kien T.%Nguyen%NULL%1,               Thu T. M.%Pham%NULL%1,               Shwu-Huey%Yang%NULL%1,               Jane C.-J.%Chao%NULL%2,               Jane C.-J.%Chao%NULL%0,               Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,               Francesco%Cinetto%NULL%1,               Cinzia%Milito%NULL%1,               Livia%Bonanni%NULL%1,               Anna Maria%Pesce%NULL%1,               Giorgia%Leodori%NULL%1,               Giulia%Garzi%NULL%1,               Marzia%Miglionico%NULL%1,               Stefano%Tabolli%NULL%1,               Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,               Bin%Shen%NULL%1,               Min%Zhao%NULL%1,               Zhen%Wang%NULL%2,               Zhen%Wang%NULL%0,               Bin%Xie%NULL%1,               Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,               Sarvodaya%Tripathy%NULL%1,               Sujita Kumar%Kar%NULL%1,               Nivedita%Sharma%NULL%1,               Sudhir Kumar%Verma%NULL%1,               Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,               Nicholas W.S.%Chew%NULL%1,               Grace K.H.%Lee%NULL%1,               Mingxue%Jing%NULL%1,               Yihui%Goh%NULL%1,               Leonard L.L.%Yeo%NULL%1,               Ka%Zhang%NULL%1,               Howe-Keat%Chin%NULL%1,               Aftab%Ahmad%NULL%1,               Faheem Ahmed%Khan%NULL%1,               Ganesh Napolean%Shanmugam%NULL%1,               Bernard P.L.%Chan%NULL%1,               Sibi%Sunny%NULL%1,               Bharatendu%Chandra%NULL%1,               Jonathan J.Y.%Ong%NULL%1,               Prakash R.%Paliwal%NULL%1,               Lily Y.H.%Wong%NULL%1,               Renarebecca%Sagayanathan%NULL%1,               Jin Tao%Chen%NULL%1,               Alison Ying%Ying Ng%NULL%1,               Hock Luen%Teoh%NULL%1,               Cyrus S.%Ho%NULL%3,               Roger C.%Ho%NULL%5,               Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,               Riyu%Pan%NULL%5,               Riyu%Pan%NULL%0,               Xiaoyang%Wan%NULL%3,               Yilin%Tan%NULL%3,               Linkang%Xu%NULL%3,               Cyrus S.%Ho%NULL%0,               Roger C.%Ho%NULL%0,               Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2,         Yu%Di%xref no email%2,         Junjie%Ye%xref no email%2,         Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,               Marina%Serper%NULL%1,               Lauren%Opsasnick%NULL%1,               Rachel M.%O'Conor%NULL%1,               Laura M.%Curtis%NULL%1,               Julia Yoshino%Benavente%NULL%1,               Guisselle%Wismer%NULL%1,               Stephanie%Batio%NULL%1,               Morgan%Eifler%NULL%1,               Pauline%Zheng%NULL%1,               Andrea%Russell%NULL%1,               Marina%Arvanitis%NULL%1,               Daniela%Ladner%NULL%1,               Mary%Kwasny%NULL%1,               Stephen D.%Persell%NULL%1,               Theresa%Rowe%NULL%1,               Jeffrey A.%Linder%NULL%1,               Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,               Yan%Zhang%NULL%2,               Desheng%Kong%NULL%2,               Shiyue%Li%NULL%2,               Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,               Zhenxin%Liao%NULL%2,               Haojie%Huang%NULL%2,               Boyue%Jiang%NULL%2,               Xueyan%Zhang%NULL%2,               Yingwen%Wang%NULL%2,               Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,               Kun%Wang%NULL%0,               Lu%Yin%NULL%0,               Wen-feng%Zhao%NULL%1,               Qing%Xue%NULL%1,               Mao%Peng%NULL%1,               Bao-quan%Min%NULL%1,               Qing%Tian%NULL%1,               Hai-xia%Leng%NULL%1,               Jia-lin%Du%NULL%1,               Hong%Chang%NULL%1,               Yuan%Yang%NULL%0,               Wei%Li%NULL%1,               Fang-fang%Shangguan%NULL%1,               Tian-yi%Yan%NULL%1,               Hui-qing%Dong%NULL%1,               Ying%Han%NULL%1,               Yu-ping%Wang%NULL%1,               Fiammetta%Cosci%NULL%1,               Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,               Zheng Feei%Ma%NULL%4,               Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,               M.%Zhou%NULL%1,               F.%Tang%NULL%1,               Y.%Wang%NULL%1,               H.%Nie%NULL%1,               L.%Zhang%NULL%1,               G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                Wen%Li%NULL%1,                Yuan%Yang%NULL%3,                Yuan%Yang%NULL%0,                Yu%Wang%NULL%0,                Qinge%Zhang%NULL%1,                Teris%Cheung%NULL%1,                Xinjuan%Wu%NULL%1,                Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                Baoren%Tu%NULL%2,                Jing%Ma%NULL%2,                Limin%Chen%NULL%2,                Lei%Fu%NULL%2,                Yongfang%Jiang%NULL%2,                Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                Jing%Wei%NULL%1,                Huadong%Zhu%NULL%1,                Yanping%Duan%NULL%1,                Wenqi%Geng%NULL%1,                Xia%Hong%NULL%1,                Jing%Jiang%NULL%1,                Xiaohui%Zhao%NULL%1,                Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                Ziwei%Fang%NULL%2,                Guoqiang%Hou%NULL%2,                Mei%Han%NULL%2,                Xinrong%Xu%NULL%2,                Jiaxin%Dong%NULL%2,                Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2,          Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0,          Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                Pinpin%Zheng%NULL%2,                Pinpin%Zheng%NULL%0,                Yingnan%Jia%NULL%1,                Hao%Chen%NULL%1,                Yimeng%Mao%NULL%1,                Suhong%Chen%NULL%1,                Yi%Wang%NULL%1,                Hua%Fu%NULL%1,                Junming%Dai%NULL%1,                Kenji%Hashimoto%NULL%10,                Kenji%Hashimoto%NULL%0,                Junling%Gao%NULL%3,                Junling%Gao%NULL%0,                Junling%Gao%NULL%0,                Kenji%Hashimoto%NULL%0,                Kenji%Hashimoto%NULL%0,                Kenji%Hashimoto%NULL%0,                Kenji%Hashimoto%NULL%0,                Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,                 Yu%Wang%null%0,                 Hong%Wang%null%1,                 Zhaorui%Liu%null%1,                 Xin%Yu%null%1,                 Jie%Yan%null%2,                 Yaqin%Yu%null%1,                 Changgui%Kou%null%1,                 Xiufeng%Xu%null%1,                 Jin%Lu%null%1,                 Zhizhong%Wang%null%1,                 Shulan%He%null%1,                 Yifeng%Xu%null%1,                 Yanling%He%null%1,                 Tao%Li%null%3,                 Wanjun%Guo%null%1,                 Hongjun%Tian%null%1,                 Guangming%Xu%null%1,                 Xiangdong%Xu%null%1,                 Yanjuan%Ma%null%1,                 Linhong%Wang%null%1,                 Limin%Wang%null%1,                 Yongping%Yan%null%1,                 Bo%Wang%null%0,                 Shuiyuan%Xiao%null%1,                 Liang%Zhou%null%1,                 Lingjiang%Li%null%1,                 Liwen%Tan%null%1,                 Tingting%Zhang%null%1,                 Chao%Ma%null%1,                 Qiang%Li%null%2,                 Hua%Ding%null%1,                 Hongchun%Geng%null%1,                 Fujun%Jia%null%1,                 Jianfei%Shi%null%1,                 Shiliang%Wang%null%1,                 Ning%Zhang%null%1,                 Xinbai%Du%null%1,                 Xiangdong%Du%null%1,                 Yue%Wu%null%2,                Yueqin%Huang%null%1,                Yu%Wang%null%0,                Hong%Wang%null%1,                Zhaorui%Liu%null%1,                Xin%Yu%null%1,                Jie%Yan%null%1,                Yaqin%Yu%null%1,                Changgui%Kou%null%1,                Xiufeng%Xu%null%1,                Jin%Lu%null%1,                Zhizhong%Wang%null%1,                Shulan%He%null%1,                Yifeng%Xu%null%2,                Yanling%He%null%1,                Tao%Li%null%0,                Wanjun%Guo%null%1,                Hongjun%Tian%null%1,                Guangming%Xu%null%1,                Xiangdong%Xu%null%1,                Yanjuan%Ma%null%1,                Linhong%Wang%null%1,                Limin%Wang%null%1,                Yongping%Yan%null%1,                Bo%Wang%null%1,                Shuiyuan%Xiao%null%1,                Liang%Zhou%null%1,                Lingjiang%Li%null%1,                Liwen%Tan%null%1,                Tingting%Zhang%null%1,                Chao%Ma%null%1,                Qiang%Li%null%1,                Hua%Ding%null%1,                Hongchun%Geng%null%1,                Fujun%Jia%null%1,                Jianfei%Shi%null%1,                Shiliang%Wang%null%1,                Ning%Zhang%null%0,                Xinbai%Du%null%1,                Xiangdong%Du%null%1,                Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                Simeng%Ma%NULL%4,                Min%Chen%NULL%2,                Jun%Yang%NULL%2,                Ying%Wang%NULL%4,                Ruiting%Li%NULL%5,                Lihua%Yao%NULL%4,                Hanping%Bai%NULL%2,                Zhongxiang%Cai%NULL%4,                Bing%Xiang Yang%NULL%2,                Shaohua%Hu%NULL%4,                Kerang%Zhang%NULL%2,                Gaohua%Wang%NULL%4,                Ci%Ma%NULL%2,                Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                Kin Kit%Li%NULL%1,                Henry Ho Hin%Chan%NULL%1,                Yuan Yuan%Yi%NULL%1,                Arthur%Tang%NULL%1,                Wan In%Wei%NULL%1,                Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                Simeng%Ma%NULL%0,                Ying%Wang%NULL%0,                Zhongxiang%Cai%NULL%0,                Jianbo%Hu%NULL%2,                Ning%Wei%NULL%2,                Jiang%Wu%NULL%2,                Hui%Du%NULL%2,                Tingting%Chen%NULL%2,                Ruiting%Li%NULL%0,                Huawei%Tan%NULL%2,                Lijun%Kang%NULL%2,                Lihua%Yao%NULL%0,                Manli%Huang%NULL%2,                Huafen%Wang%NULL%2,                Gaohua%Wang%NULL%0,                Zhongchun%Liu%NULL%0,                Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                Fan%Zhang%NULL%1,                Cun%Wei%NULL%1,                Yanpu%Jia%NULL%1,                Zhilei%Shang%NULL%1,                Luna%Sun%NULL%1,                Lili%Wu%NULL%1,                Zhuoer%Sun%NULL%1,                Yaoguang%Zhou%NULL%1,                Yan%Wang%NULL%1,                Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                Hang%Wang%NULL%1,                Yuxing%Lin%NULL%1,                Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                Lan%Deng%NULL%4,                Lan%Deng%NULL%0,                Liyan%Zhang%NULL%2,                Qiuyan%Lang%NULL%2,                Chunyan%Liao%NULL%2,                Nannan%Wang%NULL%2,                Mingqin%Qin%2026142822@qq.com%2,                Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                Minh H.%Nguyen%NULL%1,                Binh N.%Do%NULL%1,                Cuong Q.%Tran%NULL%2,                Cuong Q.%Tran%NULL%0,                Thao T. P.%Nguyen%NULL%1,                Khue M.%Pham%NULL%2,                Khue M.%Pham%NULL%0,                Linh V.%Pham%NULL%2,                Linh V.%Pham%NULL%0,                Khanh V.%Tran%NULL%1,                Trang T.%Duong%NULL%1,                Tien V.%Tran%NULL%1,                Thai H.%Duong%NULL%1,                Tham T.%Nguyen%NULL%1,                Quyen H.%Nguyen%NULL%1,                Thanh M.%Hoang%NULL%1,                Kien T.%Nguyen%NULL%1,                Thu T. M.%Pham%NULL%1,                Shwu-Huey%Yang%NULL%1,                Jane C.-J.%Chao%NULL%2,                Jane C.-J.%Chao%NULL%0,                Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                Francesco%Cinetto%NULL%1,                Cinzia%Milito%NULL%1,                Livia%Bonanni%NULL%1,                Anna Maria%Pesce%NULL%1,                Giorgia%Leodori%NULL%1,                Giulia%Garzi%NULL%1,                Marzia%Miglionico%NULL%1,                Stefano%Tabolli%NULL%1,                Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                Bin%Shen%NULL%1,                Min%Zhao%NULL%1,                Zhen%Wang%NULL%2,                Zhen%Wang%NULL%0,                Bin%Xie%NULL%1,                Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                Sarvodaya%Tripathy%NULL%1,                Sujita Kumar%Kar%NULL%1,                Nivedita%Sharma%NULL%1,                Sudhir Kumar%Verma%NULL%1,                Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                Nicholas W.S.%Chew%NULL%1,                Grace K.H.%Lee%NULL%1,                Mingxue%Jing%NULL%1,                Yihui%Goh%NULL%1,                Leonard L.L.%Yeo%NULL%1,                Ka%Zhang%NULL%1,                Howe-Keat%Chin%NULL%1,                Aftab%Ahmad%NULL%1,                Faheem Ahmed%Khan%NULL%1,                Ganesh Napolean%Shanmugam%NULL%1,                Bernard P.L.%Chan%NULL%1,                Sibi%Sunny%NULL%1,                Bharatendu%Chandra%NULL%1,                Jonathan J.Y.%Ong%NULL%1,                Prakash R.%Paliwal%NULL%1,                Lily Y.H.%Wong%NULL%1,                Renarebecca%Sagayanathan%NULL%1,                Jin Tao%Chen%NULL%1,                Alison Ying%Ying Ng%NULL%1,                Hock Luen%Teoh%NULL%1,                Cyrus S.%Ho%NULL%3,                Roger C.%Ho%NULL%5,                Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                Riyu%Pan%NULL%5,                Riyu%Pan%NULL%0,                Xiaoyang%Wan%NULL%3,                Yilin%Tan%NULL%3,                Linkang%Xu%NULL%3,                Cyrus S.%Ho%NULL%0,                Roger C.%Ho%NULL%0,                Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2,          Yu%Di%xref no email%2,          Junjie%Ye%xref no email%2,          Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                Marina%Serper%NULL%1,                Lauren%Opsasnick%NULL%1,                Rachel M.%O'Conor%NULL%1,                Laura M.%Curtis%NULL%1,                Julia Yoshino%Benavente%NULL%1,                Guisselle%Wismer%NULL%1,                Stephanie%Batio%NULL%1,                Morgan%Eifler%NULL%1,                Pauline%Zheng%NULL%1,                Andrea%Russell%NULL%1,                Marina%Arvanitis%NULL%1,                Daniela%Ladner%NULL%1,                Mary%Kwasny%NULL%1,                Stephen D.%Persell%NULL%1,                Theresa%Rowe%NULL%1,                Jeffrey A.%Linder%NULL%1,                Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                Yan%Zhang%NULL%2,                Desheng%Kong%NULL%2,                Shiyue%Li%NULL%2,                Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                Zhenxin%Liao%NULL%2,                Haojie%Huang%NULL%2,                Boyue%Jiang%NULL%2,                Xueyan%Zhang%NULL%2,                Yingwen%Wang%NULL%2,                Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                Kun%Wang%NULL%0,                Lu%Yin%NULL%0,                Wen-feng%Zhao%NULL%1,                Qing%Xue%NULL%1,                Mao%Peng%NULL%1,                Bao-quan%Min%NULL%1,                Qing%Tian%NULL%1,                Hai-xia%Leng%NULL%1,                Jia-lin%Du%NULL%1,                Hong%Chang%NULL%1,                Yuan%Yang%NULL%0,                Wei%Li%NULL%1,                Fang-fang%Shangguan%NULL%1,                Tian-yi%Yan%NULL%1,                Hui-qing%Dong%NULL%1,                Ying%Han%NULL%1,                Yu-ping%Wang%NULL%1,                Fiammetta%Cosci%NULL%1,                Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                Zheng Feei%Ma%NULL%4,                Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                M.%Zhou%NULL%1,                F.%Tang%NULL%1,                Y.%Wang%NULL%1,                H.%Nie%NULL%1,                L.%Zhang%NULL%1,                G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2134,7 +2296,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2163,7 +2325,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2192,7 +2354,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -2221,7 +2383,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2250,7 +2412,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2279,7 +2441,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -2308,7 +2470,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -2366,7 +2528,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2395,7 +2557,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2424,7 +2586,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2453,7 +2615,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2482,7 +2644,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2511,7 +2673,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2540,7 +2702,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2598,7 +2760,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2627,7 +2789,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2656,7 +2818,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2685,7 +2847,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -2714,7 +2876,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2743,7 +2905,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2772,7 +2934,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -2801,7 +2963,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -2830,7 +2992,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -2859,7 +3021,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -2888,7 +3050,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -2917,7 +3079,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -2946,7 +3108,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3811" uniqueCount="586">
   <si>
     <t>Doi</t>
   </si>
@@ -1916,6 +1916,87 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,                M.%Zhou%NULL%1,                F.%Tang%NULL%1,                Y.%Wang%NULL%1,                H.%Nie%NULL%1,                L.%Zhang%NULL%1,                G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                 Wen%Li%NULL%1,                 Yuan%Yang%NULL%3,                 Yuan%Yang%NULL%0,                 Yu%Wang%NULL%0,                 Qinge%Zhang%NULL%1,                 Teris%Cheung%NULL%1,                 Xinjuan%Wu%NULL%1,                 Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                 Baoren%Tu%NULL%2,                 Jing%Ma%NULL%2,                 Limin%Chen%NULL%2,                 Lei%Fu%NULL%2,                 Yongfang%Jiang%NULL%2,                 Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                 Jing%Wei%NULL%1,                 Huadong%Zhu%NULL%1,                 Yanping%Duan%NULL%1,                 Wenqi%Geng%NULL%1,                 Xia%Hong%NULL%1,                 Jing%Jiang%NULL%1,                 Xiaohui%Zhao%NULL%1,                 Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                 Ziwei%Fang%NULL%2,                 Guoqiang%Hou%NULL%2,                 Mei%Han%NULL%2,                 Xinrong%Xu%NULL%2,                 Jiaxin%Dong%NULL%2,                 Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2,           Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0,           Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                 Pinpin%Zheng%NULL%2,                 Pinpin%Zheng%NULL%0,                 Yingnan%Jia%NULL%1,                 Hao%Chen%NULL%1,                 Yimeng%Mao%NULL%1,                 Suhong%Chen%NULL%1,                 Yi%Wang%NULL%1,                 Hua%Fu%NULL%1,                 Junming%Dai%NULL%1,                 Kenji%Hashimoto%NULL%10,                 Kenji%Hashimoto%NULL%0,                 Junling%Gao%NULL%3,                 Junling%Gao%NULL%0,                 Junling%Gao%NULL%0,                 Kenji%Hashimoto%NULL%0,                 Kenji%Hashimoto%NULL%0,                 Kenji%Hashimoto%NULL%0,                 Kenji%Hashimoto%NULL%0,                 Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,                  Yu%Wang%null%0,                  Hong%Wang%null%1,                  Zhaorui%Liu%null%1,                  Xin%Yu%null%1,                  Jie%Yan%null%2,                  Yaqin%Yu%null%1,                  Changgui%Kou%null%1,                  Xiufeng%Xu%null%1,                  Jin%Lu%null%1,                  Zhizhong%Wang%null%1,                  Shulan%He%null%1,                  Yifeng%Xu%null%1,                  Yanling%He%null%1,                  Tao%Li%null%3,                  Wanjun%Guo%null%1,                  Hongjun%Tian%null%1,                  Guangming%Xu%null%1,                  Xiangdong%Xu%null%1,                  Yanjuan%Ma%null%1,                  Linhong%Wang%null%1,                  Limin%Wang%null%1,                  Yongping%Yan%null%1,                  Bo%Wang%null%0,                  Shuiyuan%Xiao%null%1,                  Liang%Zhou%null%1,                  Lingjiang%Li%null%1,                  Liwen%Tan%null%1,                  Tingting%Zhang%null%1,                  Chao%Ma%null%1,                  Qiang%Li%null%2,                  Hua%Ding%null%1,                  Hongchun%Geng%null%1,                  Fujun%Jia%null%1,                  Jianfei%Shi%null%1,                  Shiliang%Wang%null%1,                  Ning%Zhang%null%1,                  Xinbai%Du%null%1,                  Xiangdong%Du%null%1,                  Yue%Wu%null%2,                 Yueqin%Huang%null%1,                 Yu%Wang%null%0,                 Hong%Wang%null%1,                 Zhaorui%Liu%null%1,                 Xin%Yu%null%1,                 Jie%Yan%null%1,                 Yaqin%Yu%null%1,                 Changgui%Kou%null%1,                 Xiufeng%Xu%null%1,                 Jin%Lu%null%1,                 Zhizhong%Wang%null%1,                 Shulan%He%null%1,                 Yifeng%Xu%null%2,                 Yanling%He%null%1,                 Tao%Li%null%0,                 Wanjun%Guo%null%1,                 Hongjun%Tian%null%1,                 Guangming%Xu%null%1,                 Xiangdong%Xu%null%1,                 Yanjuan%Ma%null%1,                 Linhong%Wang%null%1,                 Limin%Wang%null%1,                 Yongping%Yan%null%1,                 Bo%Wang%null%1,                 Shuiyuan%Xiao%null%1,                 Liang%Zhou%null%1,                 Lingjiang%Li%null%1,                 Liwen%Tan%null%1,                 Tingting%Zhang%null%1,                 Chao%Ma%null%1,                 Qiang%Li%null%1,                 Hua%Ding%null%1,                 Hongchun%Geng%null%1,                 Fujun%Jia%null%1,                 Jianfei%Shi%null%1,                 Shiliang%Wang%null%1,                 Ning%Zhang%null%0,                 Xinbai%Du%null%1,                 Xiangdong%Du%null%1,                 Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                 Simeng%Ma%NULL%4,                 Min%Chen%NULL%2,                 Jun%Yang%NULL%2,                 Ying%Wang%NULL%4,                 Ruiting%Li%NULL%5,                 Lihua%Yao%NULL%4,                 Hanping%Bai%NULL%2,                 Zhongxiang%Cai%NULL%4,                 Bing%Xiang Yang%NULL%2,                 Shaohua%Hu%NULL%4,                 Kerang%Zhang%NULL%2,                 Gaohua%Wang%NULL%4,                 Ci%Ma%NULL%2,                 Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                 Kin Kit%Li%NULL%1,                 Henry Ho Hin%Chan%NULL%1,                 Yuan Yuan%Yi%NULL%1,                 Arthur%Tang%NULL%1,                 Wan In%Wei%NULL%1,                 Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                 Simeng%Ma%NULL%0,                 Ying%Wang%NULL%0,                 Zhongxiang%Cai%NULL%0,                 Jianbo%Hu%NULL%2,                 Ning%Wei%NULL%2,                 Jiang%Wu%NULL%2,                 Hui%Du%NULL%2,                 Tingting%Chen%NULL%2,                 Ruiting%Li%NULL%0,                 Huawei%Tan%NULL%2,                 Lijun%Kang%NULL%2,                 Lihua%Yao%NULL%0,                 Manli%Huang%NULL%2,                 Huafen%Wang%NULL%2,                 Gaohua%Wang%NULL%0,                 Zhongchun%Liu%NULL%0,                 Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                 Fan%Zhang%NULL%1,                 Cun%Wei%NULL%1,                 Yanpu%Jia%NULL%1,                 Zhilei%Shang%NULL%1,                 Luna%Sun%NULL%1,                 Lili%Wu%NULL%1,                 Zhuoer%Sun%NULL%1,                 Yaoguang%Zhou%NULL%1,                 Yan%Wang%NULL%1,                 Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                 Hang%Wang%NULL%1,                 Yuxing%Lin%NULL%1,                 Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                 Lan%Deng%NULL%4,                 Lan%Deng%NULL%0,                 Liyan%Zhang%NULL%2,                 Qiuyan%Lang%NULL%2,                 Chunyan%Liao%NULL%2,                 Nannan%Wang%NULL%2,                 Mingqin%Qin%2026142822@qq.com%2,                 Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                 Minh H.%Nguyen%NULL%1,                 Binh N.%Do%NULL%1,                 Cuong Q.%Tran%NULL%2,                 Cuong Q.%Tran%NULL%0,                 Thao T. P.%Nguyen%NULL%1,                 Khue M.%Pham%NULL%2,                 Khue M.%Pham%NULL%0,                 Linh V.%Pham%NULL%2,                 Linh V.%Pham%NULL%0,                 Khanh V.%Tran%NULL%1,                 Trang T.%Duong%NULL%1,                 Tien V.%Tran%NULL%1,                 Thai H.%Duong%NULL%1,                 Tham T.%Nguyen%NULL%1,                 Quyen H.%Nguyen%NULL%1,                 Thanh M.%Hoang%NULL%1,                 Kien T.%Nguyen%NULL%1,                 Thu T. M.%Pham%NULL%1,                 Shwu-Huey%Yang%NULL%1,                 Jane C.-J.%Chao%NULL%2,                 Jane C.-J.%Chao%NULL%0,                 Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                 Francesco%Cinetto%NULL%1,                 Cinzia%Milito%NULL%1,                 Livia%Bonanni%NULL%1,                 Anna Maria%Pesce%NULL%1,                 Giorgia%Leodori%NULL%1,                 Giulia%Garzi%NULL%1,                 Marzia%Miglionico%NULL%1,                 Stefano%Tabolli%NULL%1,                 Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                 Bin%Shen%NULL%1,                 Min%Zhao%NULL%1,                 Zhen%Wang%NULL%2,                 Zhen%Wang%NULL%0,                 Bin%Xie%NULL%1,                 Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                 Sarvodaya%Tripathy%NULL%1,                 Sujita Kumar%Kar%NULL%1,                 Nivedita%Sharma%NULL%1,                 Sudhir Kumar%Verma%NULL%1,                 Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                 Nicholas W.S.%Chew%NULL%1,                 Grace K.H.%Lee%NULL%1,                 Mingxue%Jing%NULL%1,                 Yihui%Goh%NULL%1,                 Leonard L.L.%Yeo%NULL%1,                 Ka%Zhang%NULL%1,                 Howe-Keat%Chin%NULL%1,                 Aftab%Ahmad%NULL%1,                 Faheem Ahmed%Khan%NULL%1,                 Ganesh Napolean%Shanmugam%NULL%1,                 Bernard P.L.%Chan%NULL%1,                 Sibi%Sunny%NULL%1,                 Bharatendu%Chandra%NULL%1,                 Jonathan J.Y.%Ong%NULL%1,                 Prakash R.%Paliwal%NULL%1,                 Lily Y.H.%Wong%NULL%1,                 Renarebecca%Sagayanathan%NULL%1,                 Jin Tao%Chen%NULL%1,                 Alison Ying%Ying Ng%NULL%1,                 Hock Luen%Teoh%NULL%1,                 Cyrus S.%Ho%NULL%3,                 Roger C.%Ho%NULL%5,                 Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                 Riyu%Pan%NULL%5,                 Riyu%Pan%NULL%0,                 Xiaoyang%Wan%NULL%3,                 Yilin%Tan%NULL%3,                 Linkang%Xu%NULL%3,                 Cyrus S.%Ho%NULL%0,                 Roger C.%Ho%NULL%0,                 Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2,           Yu%Di%xref no email%2,           Junjie%Ye%xref no email%2,           Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                 Marina%Serper%NULL%1,                 Lauren%Opsasnick%NULL%1,                 Rachel M.%O'Conor%NULL%1,                 Laura M.%Curtis%NULL%1,                 Julia Yoshino%Benavente%NULL%1,                 Guisselle%Wismer%NULL%1,                 Stephanie%Batio%NULL%1,                 Morgan%Eifler%NULL%1,                 Pauline%Zheng%NULL%1,                 Andrea%Russell%NULL%1,                 Marina%Arvanitis%NULL%1,                 Daniela%Ladner%NULL%1,                 Mary%Kwasny%NULL%1,                 Stephen D.%Persell%NULL%1,                 Theresa%Rowe%NULL%1,                 Jeffrey A.%Linder%NULL%1,                 Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                 Yan%Zhang%NULL%2,                 Desheng%Kong%NULL%2,                 Shiyue%Li%NULL%2,                 Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                 Zhenxin%Liao%NULL%2,                 Haojie%Huang%NULL%2,                 Boyue%Jiang%NULL%2,                 Xueyan%Zhang%NULL%2,                 Yingwen%Wang%NULL%2,                 Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                 Kun%Wang%NULL%0,                 Lu%Yin%NULL%0,                 Wen-feng%Zhao%NULL%1,                 Qing%Xue%NULL%1,                 Mao%Peng%NULL%1,                 Bao-quan%Min%NULL%1,                 Qing%Tian%NULL%1,                 Hai-xia%Leng%NULL%1,                 Jia-lin%Du%NULL%1,                 Hong%Chang%NULL%1,                 Yuan%Yang%NULL%0,                 Wei%Li%NULL%1,                 Fang-fang%Shangguan%NULL%1,                 Tian-yi%Yan%NULL%1,                 Hui-qing%Dong%NULL%1,                 Ying%Han%NULL%1,                 Yu-ping%Wang%NULL%1,                 Fiammetta%Cosci%NULL%1,                 Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                 Zheng Feei%Ma%NULL%4,                 Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                 M.%Zhou%NULL%1,                 F.%Tang%NULL%1,                 Y.%Wang%NULL%1,                 H.%Nie%NULL%1,                 L.%Zhang%NULL%1,                 G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2296,7 +2377,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2325,7 +2406,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2354,7 +2435,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -2383,7 +2464,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2412,7 +2493,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2441,7 +2522,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -2470,7 +2551,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -2528,7 +2609,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2557,7 +2638,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2586,7 +2667,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2615,7 +2696,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2644,7 +2725,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>543</v>
+        <v>570</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2673,7 +2754,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2702,7 +2783,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2760,7 +2841,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2789,7 +2870,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2818,7 +2899,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2847,7 +2928,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -2876,7 +2957,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2905,7 +2986,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2934,7 +3015,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -2963,7 +3044,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -2992,7 +3073,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3021,7 +3102,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -3050,7 +3131,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -3079,7 +3160,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -3108,7 +3189,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3811" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="616">
   <si>
     <t>Doi</t>
   </si>
@@ -1997,6 +1997,96 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,                 M.%Zhou%NULL%1,                 F.%Tang%NULL%1,                 Y.%Wang%NULL%1,                 H.%Nie%NULL%1,                 L.%Zhang%NULL%1,                 G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                  Wen%Li%NULL%1,                  Yuan%Yang%NULL%3,                  Yuan%Yang%NULL%0,                  Yu%Wang%NULL%0,                  Qinge%Zhang%NULL%1,                  Teris%Cheung%NULL%1,                  Xinjuan%Wu%NULL%1,                  Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                  Baoren%Tu%NULL%2,                  Jing%Ma%NULL%2,                  Limin%Chen%NULL%2,                  Lei%Fu%NULL%2,                  Yongfang%Jiang%NULL%2,                  Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                  Jing%Wei%NULL%1,                  Huadong%Zhu%NULL%1,                  Yanping%Duan%NULL%1,                  Wenqi%Geng%NULL%1,                  Xia%Hong%NULL%1,                  Jing%Jiang%NULL%1,                  Xiaohui%Zhao%NULL%1,                  Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                  Ziwei%Fang%NULL%2,                  Guoqiang%Hou%NULL%2,                  Mei%Han%NULL%2,                  Xinrong%Xu%NULL%2,                  Jiaxin%Dong%NULL%2,                  Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2,            Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0,            Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                  Pinpin%Zheng%NULL%2,                  Pinpin%Zheng%NULL%0,                  Yingnan%Jia%NULL%1,                  Hao%Chen%NULL%1,                  Yimeng%Mao%NULL%1,                  Suhong%Chen%NULL%1,                  Yi%Wang%NULL%1,                  Hua%Fu%NULL%1,                  Junming%Dai%NULL%1,                  Kenji%Hashimoto%NULL%10,                  Kenji%Hashimoto%NULL%0,                  Junling%Gao%NULL%3,                  Junling%Gao%NULL%0,                  Junling%Gao%NULL%0,                  Kenji%Hashimoto%NULL%0,                  Kenji%Hashimoto%NULL%0,                  Kenji%Hashimoto%NULL%0,                  Kenji%Hashimoto%NULL%0,                  Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,                   Yu%Wang%null%0,                   Hong%Wang%null%1,                   Zhaorui%Liu%null%1,                   Xin%Yu%null%1,                   Jie%Yan%null%2,                   Yaqin%Yu%null%1,                   Changgui%Kou%null%1,                   Xiufeng%Xu%null%1,                   Jin%Lu%null%1,                   Zhizhong%Wang%null%1,                   Shulan%He%null%1,                   Yifeng%Xu%null%1,                   Yanling%He%null%1,                   Tao%Li%null%3,                   Wanjun%Guo%null%1,                   Hongjun%Tian%null%1,                   Guangming%Xu%null%1,                   Xiangdong%Xu%null%1,                   Yanjuan%Ma%null%1,                   Linhong%Wang%null%1,                   Limin%Wang%null%1,                   Yongping%Yan%null%1,                   Bo%Wang%null%0,                   Shuiyuan%Xiao%null%1,                   Liang%Zhou%null%1,                   Lingjiang%Li%null%1,                   Liwen%Tan%null%1,                   Tingting%Zhang%null%1,                   Chao%Ma%null%1,                   Qiang%Li%null%2,                   Hua%Ding%null%1,                   Hongchun%Geng%null%1,                   Fujun%Jia%null%1,                   Jianfei%Shi%null%1,                   Shiliang%Wang%null%1,                   Ning%Zhang%null%1,                   Xinbai%Du%null%1,                   Xiangdong%Du%null%1,                   Yue%Wu%null%2,                  Yueqin%Huang%null%1,                  Yu%Wang%null%0,                  Hong%Wang%null%1,                  Zhaorui%Liu%null%1,                  Xin%Yu%null%1,                  Jie%Yan%null%1,                  Yaqin%Yu%null%1,                  Changgui%Kou%null%1,                  Xiufeng%Xu%null%1,                  Jin%Lu%null%1,                  Zhizhong%Wang%null%1,                  Shulan%He%null%1,                  Yifeng%Xu%null%2,                  Yanling%He%null%1,                  Tao%Li%null%0,                  Wanjun%Guo%null%1,                  Hongjun%Tian%null%1,                  Guangming%Xu%null%1,                  Xiangdong%Xu%null%1,                  Yanjuan%Ma%null%1,                  Linhong%Wang%null%1,                  Limin%Wang%null%1,                  Yongping%Yan%null%1,                  Bo%Wang%null%1,                  Shuiyuan%Xiao%null%1,                  Liang%Zhou%null%1,                  Lingjiang%Li%null%1,                  Liwen%Tan%null%1,                  Tingting%Zhang%null%1,                  Chao%Ma%null%1,                  Qiang%Li%null%1,                  Hua%Ding%null%1,                  Hongchun%Geng%null%1,                  Fujun%Jia%null%1,                  Jianfei%Shi%null%1,                  Shiliang%Wang%null%1,                  Ning%Zhang%null%0,                  Xinbai%Du%null%1,                  Xiangdong%Du%null%1,                  Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                  Simeng%Ma%NULL%4,                  Min%Chen%NULL%2,                  Jun%Yang%NULL%2,                  Ying%Wang%NULL%4,                  Ruiting%Li%NULL%5,                  Lihua%Yao%NULL%4,                  Hanping%Bai%NULL%2,                  Zhongxiang%Cai%NULL%4,                  Bing%Xiang Yang%NULL%2,                  Shaohua%Hu%NULL%4,                  Kerang%Zhang%NULL%2,                  Gaohua%Wang%NULL%4,                  Ci%Ma%NULL%2,                  Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                  Kin Kit%Li%NULL%1,                  Henry Ho Hin%Chan%NULL%1,                  Yuan Yuan%Yi%NULL%1,                  Arthur%Tang%NULL%1,                  Wan In%Wei%NULL%1,                  Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                  Simeng%Ma%NULL%0,                  Ying%Wang%NULL%0,                  Zhongxiang%Cai%NULL%0,                  Jianbo%Hu%NULL%2,                  Ning%Wei%NULL%2,                  Jiang%Wu%NULL%2,                  Hui%Du%NULL%2,                  Tingting%Chen%NULL%2,                  Ruiting%Li%NULL%0,                  Huawei%Tan%NULL%2,                  Lijun%Kang%NULL%2,                  Lihua%Yao%NULL%0,                  Manli%Huang%NULL%2,                  Huafen%Wang%NULL%2,                  Gaohua%Wang%NULL%0,                  Zhongchun%Liu%NULL%0,                  Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                  Fan%Zhang%NULL%1,                  Cun%Wei%NULL%1,                  Yanpu%Jia%NULL%1,                  Zhilei%Shang%NULL%1,                  Luna%Sun%NULL%1,                  Lili%Wu%NULL%1,                  Zhuoer%Sun%NULL%1,                  Yaoguang%Zhou%NULL%1,                  Yan%Wang%NULL%1,                  Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                  Hang%Wang%NULL%1,                  Yuxing%Lin%NULL%1,                  Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                  Lan%Deng%NULL%4,                  Lan%Deng%NULL%0,                  Liyan%Zhang%NULL%2,                  Qiuyan%Lang%NULL%2,                  Chunyan%Liao%NULL%2,                  Nannan%Wang%NULL%2,                  Mingqin%Qin%2026142822@qq.com%2,                  Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                  Minh H.%Nguyen%NULL%1,                  Binh N.%Do%NULL%1,                  Cuong Q.%Tran%NULL%2,                  Cuong Q.%Tran%NULL%0,                  Thao T. P.%Nguyen%NULL%1,                  Khue M.%Pham%NULL%2,                  Khue M.%Pham%NULL%0,                  Linh V.%Pham%NULL%2,                  Linh V.%Pham%NULL%0,                  Khanh V.%Tran%NULL%1,                  Trang T.%Duong%NULL%1,                  Tien V.%Tran%NULL%1,                  Thai H.%Duong%NULL%1,                  Tham T.%Nguyen%NULL%1,                  Quyen H.%Nguyen%NULL%1,                  Thanh M.%Hoang%NULL%1,                  Kien T.%Nguyen%NULL%1,                  Thu T. M.%Pham%NULL%1,                  Shwu-Huey%Yang%NULL%1,                  Jane C.-J.%Chao%NULL%2,                  Jane C.-J.%Chao%NULL%0,                  Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                  Francesco%Cinetto%NULL%1,                  Cinzia%Milito%NULL%1,                  Livia%Bonanni%NULL%1,                  Anna Maria%Pesce%NULL%1,                  Giorgia%Leodori%NULL%1,                  Giulia%Garzi%NULL%1,                  Marzia%Miglionico%NULL%1,                  Stefano%Tabolli%NULL%1,                  Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                  Bin%Shen%NULL%1,                  Min%Zhao%NULL%1,                  Zhen%Wang%NULL%2,                  Zhen%Wang%NULL%0,                  Bin%Xie%NULL%1,                  Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                  Sarvodaya%Tripathy%NULL%1,                  Sujita Kumar%Kar%NULL%1,                  Nivedita%Sharma%NULL%1,                  Sudhir Kumar%Verma%NULL%1,                  Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                  Nicholas W.S.%Chew%NULL%1,                  Grace K.H.%Lee%NULL%1,                  Mingxue%Jing%NULL%1,                  Yihui%Goh%NULL%1,                  Leonard L.L.%Yeo%NULL%1,                  Ka%Zhang%NULL%1,                  Howe-Keat%Chin%NULL%1,                  Aftab%Ahmad%NULL%1,                  Faheem Ahmed%Khan%NULL%1,                  Ganesh Napolean%Shanmugam%NULL%1,                  Bernard P.L.%Chan%NULL%1,                  Sibi%Sunny%NULL%1,                  Bharatendu%Chandra%NULL%1,                  Jonathan J.Y.%Ong%NULL%1,                  Prakash R.%Paliwal%NULL%1,                  Lily Y.H.%Wong%NULL%1,                  Renarebecca%Sagayanathan%NULL%1,                  Jin Tao%Chen%NULL%1,                  Alison Ying%Ying Ng%NULL%1,                  Hock Luen%Teoh%NULL%1,                  Cyrus S.%Ho%NULL%3,                  Roger C.%Ho%NULL%5,                  Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                  Riyu%Pan%NULL%5,                  Riyu%Pan%NULL%0,                  Xiaoyang%Wan%NULL%3,                  Yilin%Tan%NULL%3,                  Linkang%Xu%NULL%3,                  Cyrus S.%Ho%NULL%0,                  Roger C.%Ho%NULL%0,                  Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2,            Yu%Di%xref no email%2,            Junjie%Ye%xref no email%2,            Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                  Marina%Serper%NULL%1,                  Lauren%Opsasnick%NULL%1,                  Rachel M.%O'Conor%NULL%1,                  Laura M.%Curtis%NULL%1,                  Julia Yoshino%Benavente%NULL%1,                  Guisselle%Wismer%NULL%1,                  Stephanie%Batio%NULL%1,                  Morgan%Eifler%NULL%1,                  Pauline%Zheng%NULL%1,                  Andrea%Russell%NULL%1,                  Marina%Arvanitis%NULL%1,                  Daniela%Ladner%NULL%1,                  Mary%Kwasny%NULL%1,                  Stephen D.%Persell%NULL%1,                  Theresa%Rowe%NULL%1,                  Jeffrey A.%Linder%NULL%1,                  Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                  Yan%Zhang%NULL%2,                  Desheng%Kong%NULL%2,                  Shiyue%Li%NULL%2,                  Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                  Zhenxin%Liao%NULL%2,                  Haojie%Huang%NULL%2,                  Boyue%Jiang%NULL%2,                  Xueyan%Zhang%NULL%2,                  Yingwen%Wang%NULL%2,                  Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                  Kun%Wang%NULL%0,                  Lu%Yin%NULL%0,                  Wen-feng%Zhao%NULL%1,                  Qing%Xue%NULL%1,                  Mao%Peng%NULL%1,                  Bao-quan%Min%NULL%1,                  Qing%Tian%NULL%1,                  Hai-xia%Leng%NULL%1,                  Jia-lin%Du%NULL%1,                  Hong%Chang%NULL%1,                  Yuan%Yang%NULL%0,                  Wei%Li%NULL%1,                  Fang-fang%Shangguan%NULL%1,                  Tian-yi%Yan%NULL%1,                  Hui-qing%Dong%NULL%1,                  Ying%Han%NULL%1,                  Yu-ping%Wang%NULL%1,                  Fiammetta%Cosci%NULL%1,                  Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                  Zheng Feei%Ma%NULL%4,                  Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                  M.%Zhou%NULL%1,                  F.%Tang%NULL%1,                  Y.%Wang%NULL%1,                  H.%Nie%NULL%1,                  L.%Zhang%NULL%1,                  G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2377,7 +2467,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2389,7 +2479,7 @@
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3">
@@ -2406,7 +2496,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2418,7 +2508,7 @@
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4">
@@ -2435,7 +2525,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -2447,7 +2537,7 @@
         <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5">
@@ -2464,7 +2554,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2476,7 +2566,7 @@
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6">
@@ -2493,7 +2583,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2505,7 +2595,7 @@
         <v>287</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7">
@@ -2522,7 +2612,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -2534,7 +2624,7 @@
         <v>287</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8">
@@ -2551,7 +2641,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -2563,7 +2653,7 @@
         <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9">
@@ -2609,7 +2699,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2621,7 +2711,7 @@
         <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11">
@@ -2638,7 +2728,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2650,7 +2740,7 @@
         <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12">
@@ -2667,7 +2757,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2679,7 +2769,7 @@
         <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13">
@@ -2696,7 +2786,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2708,7 +2798,7 @@
         <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14">
@@ -2725,7 +2815,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2737,7 +2827,7 @@
         <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15">
@@ -2754,7 +2844,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2766,7 +2856,7 @@
         <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16">
@@ -2783,7 +2873,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2795,7 +2885,7 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17">
@@ -2824,7 +2914,7 @@
         <v>300</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18">
@@ -2841,7 +2931,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2853,7 +2943,7 @@
         <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19">
@@ -2870,7 +2960,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2882,7 +2972,7 @@
         <v>110</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20">
@@ -2899,7 +2989,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2911,7 +3001,7 @@
         <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21">
@@ -2928,7 +3018,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -2940,7 +3030,7 @@
         <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22">
@@ -2957,7 +3047,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2969,7 +3059,7 @@
         <v>61</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23">
@@ -2986,7 +3076,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2998,7 +3088,7 @@
         <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24">
@@ -3015,7 +3105,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -3027,7 +3117,7 @@
         <v>309</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25">
@@ -3044,7 +3134,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -3056,7 +3146,7 @@
         <v>61</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26">
@@ -3073,7 +3163,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3085,7 +3175,7 @@
         <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27">
@@ -3102,7 +3192,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -3114,7 +3204,7 @@
         <v>142</v>
       </c>
       <c r="I27" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28">
@@ -3131,7 +3221,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -3143,7 +3233,7 @@
         <v>147</v>
       </c>
       <c r="I28" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29">
@@ -3160,7 +3250,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -3172,7 +3262,7 @@
         <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>159</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30">
@@ -3189,7 +3279,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>
@@ -3201,7 +3291,7 @@
         <v>156</v>
       </c>
       <c r="I30" t="s">
-        <v>163</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="643">
   <si>
     <t>Doi</t>
   </si>
@@ -2087,6 +2087,87 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,                  M.%Zhou%NULL%1,                  F.%Tang%NULL%1,                  Y.%Wang%NULL%1,                  H.%Nie%NULL%1,                  L.%Zhang%NULL%1,                  G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                   Wen%Li%NULL%1,                   Yuan%Yang%NULL%3,                   Yuan%Yang%NULL%0,                   Yu%Wang%NULL%0,                   Qinge%Zhang%NULL%1,                   Teris%Cheung%NULL%1,                   Xinjuan%Wu%NULL%1,                   Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                   Baoren%Tu%NULL%2,                   Jing%Ma%NULL%2,                   Limin%Chen%NULL%2,                   Lei%Fu%NULL%2,                   Yongfang%Jiang%NULL%2,                   Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                   Jing%Wei%NULL%1,                   Huadong%Zhu%NULL%1,                   Yanping%Duan%NULL%1,                   Wenqi%Geng%NULL%1,                   Xia%Hong%NULL%1,                   Jing%Jiang%NULL%1,                   Xiaohui%Zhao%NULL%1,                   Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                   Ziwei%Fang%NULL%2,                   Guoqiang%Hou%NULL%2,                   Mei%Han%NULL%2,                   Xinrong%Xu%NULL%2,                   Jiaxin%Dong%NULL%2,                   Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%2,             Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0,             Wai-song%Yeung%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                   Pinpin%Zheng%NULL%2,                   Pinpin%Zheng%NULL%0,                   Yingnan%Jia%NULL%1,                   Hao%Chen%NULL%1,                   Yimeng%Mao%NULL%1,                   Suhong%Chen%NULL%1,                   Yi%Wang%NULL%1,                   Hua%Fu%NULL%1,                   Junming%Dai%NULL%1,                   Kenji%Hashimoto%NULL%10,                   Kenji%Hashimoto%NULL%0,                   Junling%Gao%NULL%3,                   Junling%Gao%NULL%0,                   Junling%Gao%NULL%0,                   Kenji%Hashimoto%NULL%0,                   Kenji%Hashimoto%NULL%0,                   Kenji%Hashimoto%NULL%0,                   Kenji%Hashimoto%NULL%0,                   Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,                    Yu%Wang%null%0,                    Hong%Wang%null%1,                    Zhaorui%Liu%null%1,                    Xin%Yu%null%1,                    Jie%Yan%null%2,                    Yaqin%Yu%null%1,                    Changgui%Kou%null%1,                    Xiufeng%Xu%null%1,                    Jin%Lu%null%1,                    Zhizhong%Wang%null%1,                    Shulan%He%null%1,                    Yifeng%Xu%null%1,                    Yanling%He%null%1,                    Tao%Li%null%3,                    Wanjun%Guo%null%1,                    Hongjun%Tian%null%1,                    Guangming%Xu%null%1,                    Xiangdong%Xu%null%1,                    Yanjuan%Ma%null%1,                    Linhong%Wang%null%1,                    Limin%Wang%null%1,                    Yongping%Yan%null%1,                    Bo%Wang%null%0,                    Shuiyuan%Xiao%null%1,                    Liang%Zhou%null%1,                    Lingjiang%Li%null%1,                    Liwen%Tan%null%1,                    Tingting%Zhang%null%1,                    Chao%Ma%null%1,                    Qiang%Li%null%2,                    Hua%Ding%null%1,                    Hongchun%Geng%null%1,                    Fujun%Jia%null%1,                    Jianfei%Shi%null%1,                    Shiliang%Wang%null%1,                    Ning%Zhang%null%1,                    Xinbai%Du%null%1,                    Xiangdong%Du%null%1,                    Yue%Wu%null%2,                   Yueqin%Huang%null%1,                   Yu%Wang%null%0,                   Hong%Wang%null%1,                   Zhaorui%Liu%null%1,                   Xin%Yu%null%1,                   Jie%Yan%null%1,                   Yaqin%Yu%null%1,                   Changgui%Kou%null%1,                   Xiufeng%Xu%null%1,                   Jin%Lu%null%1,                   Zhizhong%Wang%null%1,                   Shulan%He%null%1,                   Yifeng%Xu%null%2,                   Yanling%He%null%1,                   Tao%Li%null%0,                   Wanjun%Guo%null%1,                   Hongjun%Tian%null%1,                   Guangming%Xu%null%1,                   Xiangdong%Xu%null%1,                   Yanjuan%Ma%null%1,                   Linhong%Wang%null%1,                   Limin%Wang%null%1,                   Yongping%Yan%null%1,                   Bo%Wang%null%1,                   Shuiyuan%Xiao%null%1,                   Liang%Zhou%null%1,                   Lingjiang%Li%null%1,                   Liwen%Tan%null%1,                   Tingting%Zhang%null%1,                   Chao%Ma%null%1,                   Qiang%Li%null%1,                   Hua%Ding%null%1,                   Hongchun%Geng%null%1,                   Fujun%Jia%null%1,                   Jianfei%Shi%null%1,                   Shiliang%Wang%null%1,                   Ning%Zhang%null%0,                   Xinbai%Du%null%1,                   Xiangdong%Du%null%1,                   Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                   Simeng%Ma%NULL%4,                   Min%Chen%NULL%2,                   Jun%Yang%NULL%2,                   Ying%Wang%NULL%4,                   Ruiting%Li%NULL%5,                   Lihua%Yao%NULL%4,                   Hanping%Bai%NULL%2,                   Zhongxiang%Cai%NULL%4,                   Bing%Xiang Yang%NULL%2,                   Shaohua%Hu%NULL%4,                   Kerang%Zhang%NULL%2,                   Gaohua%Wang%NULL%4,                   Ci%Ma%NULL%2,                   Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                   Kin Kit%Li%NULL%1,                   Henry Ho Hin%Chan%NULL%1,                   Yuan Yuan%Yi%NULL%1,                   Arthur%Tang%NULL%1,                   Wan In%Wei%NULL%1,                   Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                   Simeng%Ma%NULL%0,                   Ying%Wang%NULL%0,                   Zhongxiang%Cai%NULL%0,                   Jianbo%Hu%NULL%2,                   Ning%Wei%NULL%2,                   Jiang%Wu%NULL%2,                   Hui%Du%NULL%2,                   Tingting%Chen%NULL%2,                   Ruiting%Li%NULL%0,                   Huawei%Tan%NULL%2,                   Lijun%Kang%NULL%2,                   Lihua%Yao%NULL%0,                   Manli%Huang%NULL%2,                   Huafen%Wang%NULL%2,                   Gaohua%Wang%NULL%0,                   Zhongchun%Liu%NULL%0,                   Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                   Fan%Zhang%NULL%1,                   Cun%Wei%NULL%1,                   Yanpu%Jia%NULL%1,                   Zhilei%Shang%NULL%1,                   Luna%Sun%NULL%1,                   Lili%Wu%NULL%1,                   Zhuoer%Sun%NULL%1,                   Yaoguang%Zhou%NULL%1,                   Yan%Wang%NULL%1,                   Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                   Hang%Wang%NULL%1,                   Yuxing%Lin%NULL%1,                   Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                   Lan%Deng%NULL%4,                   Lan%Deng%NULL%0,                   Liyan%Zhang%NULL%2,                   Qiuyan%Lang%NULL%2,                   Chunyan%Liao%NULL%2,                   Nannan%Wang%NULL%2,                   Mingqin%Qin%2026142822@qq.com%2,                   Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                   Minh H.%Nguyen%NULL%1,                   Binh N.%Do%NULL%1,                   Cuong Q.%Tran%NULL%2,                   Cuong Q.%Tran%NULL%0,                   Thao T. P.%Nguyen%NULL%1,                   Khue M.%Pham%NULL%2,                   Khue M.%Pham%NULL%0,                   Linh V.%Pham%NULL%2,                   Linh V.%Pham%NULL%0,                   Khanh V.%Tran%NULL%1,                   Trang T.%Duong%NULL%1,                   Tien V.%Tran%NULL%1,                   Thai H.%Duong%NULL%1,                   Tham T.%Nguyen%NULL%1,                   Quyen H.%Nguyen%NULL%1,                   Thanh M.%Hoang%NULL%1,                   Kien T.%Nguyen%NULL%1,                   Thu T. M.%Pham%NULL%1,                   Shwu-Huey%Yang%NULL%1,                   Jane C.-J.%Chao%NULL%2,                   Jane C.-J.%Chao%NULL%0,                   Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                   Francesco%Cinetto%NULL%1,                   Cinzia%Milito%NULL%1,                   Livia%Bonanni%NULL%1,                   Anna Maria%Pesce%NULL%1,                   Giorgia%Leodori%NULL%1,                   Giulia%Garzi%NULL%1,                   Marzia%Miglionico%NULL%1,                   Stefano%Tabolli%NULL%1,                   Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                   Bin%Shen%NULL%1,                   Min%Zhao%NULL%1,                   Zhen%Wang%NULL%2,                   Zhen%Wang%NULL%0,                   Bin%Xie%NULL%1,                   Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                   Sarvodaya%Tripathy%NULL%1,                   Sujita Kumar%Kar%NULL%1,                   Nivedita%Sharma%NULL%1,                   Sudhir Kumar%Verma%NULL%1,                   Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                   Nicholas W.S.%Chew%NULL%1,                   Grace K.H.%Lee%NULL%1,                   Mingxue%Jing%NULL%1,                   Yihui%Goh%NULL%1,                   Leonard L.L.%Yeo%NULL%1,                   Ka%Zhang%NULL%1,                   Howe-Keat%Chin%NULL%1,                   Aftab%Ahmad%NULL%1,                   Faheem Ahmed%Khan%NULL%1,                   Ganesh Napolean%Shanmugam%NULL%1,                   Bernard P.L.%Chan%NULL%1,                   Sibi%Sunny%NULL%1,                   Bharatendu%Chandra%NULL%1,                   Jonathan J.Y.%Ong%NULL%1,                   Prakash R.%Paliwal%NULL%1,                   Lily Y.H.%Wong%NULL%1,                   Renarebecca%Sagayanathan%NULL%1,                   Jin Tao%Chen%NULL%1,                   Alison Ying%Ying Ng%NULL%1,                   Hock Luen%Teoh%NULL%1,                   Cyrus S.%Ho%NULL%3,                   Roger C.%Ho%NULL%5,                   Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                   Riyu%Pan%NULL%5,                   Riyu%Pan%NULL%0,                   Xiaoyang%Wan%NULL%3,                   Yilin%Tan%NULL%3,                   Linkang%Xu%NULL%3,                   Cyrus S.%Ho%NULL%0,                   Roger C.%Ho%NULL%0,                   Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%2,             Yu%Di%xref no email%2,             Junjie%Ye%xref no email%2,             Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                   Marina%Serper%NULL%1,                   Lauren%Opsasnick%NULL%1,                   Rachel M.%O'Conor%NULL%1,                   Laura M.%Curtis%NULL%1,                   Julia Yoshino%Benavente%NULL%1,                   Guisselle%Wismer%NULL%1,                   Stephanie%Batio%NULL%1,                   Morgan%Eifler%NULL%1,                   Pauline%Zheng%NULL%1,                   Andrea%Russell%NULL%1,                   Marina%Arvanitis%NULL%1,                   Daniela%Ladner%NULL%1,                   Mary%Kwasny%NULL%1,                   Stephen D.%Persell%NULL%1,                   Theresa%Rowe%NULL%1,                   Jeffrey A.%Linder%NULL%1,                   Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                   Yan%Zhang%NULL%2,                   Desheng%Kong%NULL%2,                   Shiyue%Li%NULL%2,                   Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                   Zhenxin%Liao%NULL%2,                   Haojie%Huang%NULL%2,                   Boyue%Jiang%NULL%2,                   Xueyan%Zhang%NULL%2,                   Yingwen%Wang%NULL%2,                   Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                   Kun%Wang%NULL%0,                   Lu%Yin%NULL%0,                   Wen-feng%Zhao%NULL%1,                   Qing%Xue%NULL%1,                   Mao%Peng%NULL%1,                   Bao-quan%Min%NULL%1,                   Qing%Tian%NULL%1,                   Hai-xia%Leng%NULL%1,                   Jia-lin%Du%NULL%1,                   Hong%Chang%NULL%1,                   Yuan%Yang%NULL%0,                   Wei%Li%NULL%1,                   Fang-fang%Shangguan%NULL%1,                   Tian-yi%Yan%NULL%1,                   Hui-qing%Dong%NULL%1,                   Ying%Han%NULL%1,                   Yu-ping%Wang%NULL%1,                   Fiammetta%Cosci%NULL%1,                   Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                   Zheng Feei%Ma%NULL%4,                   Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                   M.%Zhou%NULL%1,                   F.%Tang%NULL%1,                   Y.%Wang%NULL%1,                   H.%Nie%NULL%1,                   L.%Zhang%NULL%1,                   G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2548,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2496,7 +2577,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2525,7 +2606,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -2554,7 +2635,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2583,7 +2664,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2612,7 +2693,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -2641,7 +2722,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -2699,7 +2780,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2728,7 +2809,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2757,7 +2838,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2786,7 +2867,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2815,7 +2896,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2844,7 +2925,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2873,7 +2954,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2931,7 +3012,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2960,7 +3041,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2989,7 +3070,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3018,7 +3099,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -3047,7 +3128,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3076,7 +3157,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -3105,7 +3186,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -3134,7 +3215,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -3163,7 +3244,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3192,7 +3273,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -3221,7 +3302,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -3250,7 +3331,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -3279,7 +3360,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5431" uniqueCount="772">
   <si>
     <t>Doi</t>
   </si>
@@ -2168,6 +2168,393 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,                   M.%Zhou%NULL%1,                   F.%Tang%NULL%1,                   Y.%Wang%NULL%1,                   H.%Nie%NULL%1,                   L.%Zhang%NULL%1,                   G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                    Wen%Li%NULL%1,                    Yuan%Yang%NULL%3,                    Yuan%Yang%NULL%0,                    Yu%Wang%NULL%0,                    Qinge%Zhang%NULL%1,                    Teris%Cheung%NULL%1,                    Xinjuan%Wu%NULL%1,                    Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                    Baoren%Tu%NULL%2,                    Jing%Ma%NULL%2,                    Limin%Chen%NULL%2,                    Lei%Fu%NULL%2,                    Yongfang%Jiang%NULL%2,                    Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                    Jing%Wei%NULL%1,                    Huadong%Zhu%NULL%1,                    Yanping%Duan%NULL%1,                    Wenqi%Geng%NULL%1,                    Xia%Hong%NULL%1,                    Jing%Jiang%NULL%1,                    Xiaohui%Zhao%NULL%1,                    Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                    Ziwei%Fang%NULL%2,                    Guoqiang%Hou%NULL%2,                    Mei%Han%NULL%2,                    Xinrong%Xu%NULL%2,                    Jiaxin%Dong%NULL%2,                    Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Joseph PY%Chung%xref no email%0, Wai-song%Yeung%xref no email%2]</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Hong Kong Academy of Medicine Press</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                    Pinpin%Zheng%NULL%2,                    Pinpin%Zheng%NULL%0,                    Yingnan%Jia%NULL%1,                    Hao%Chen%NULL%1,                    Yimeng%Mao%NULL%1,                    Suhong%Chen%NULL%1,                    Yi%Wang%NULL%1,                    Hua%Fu%NULL%1,                    Junming%Dai%NULL%1,                    Kenji%Hashimoto%NULL%10,                    Kenji%Hashimoto%NULL%0,                    Junling%Gao%NULL%3,                    Junling%Gao%NULL%0,                    Junling%Gao%NULL%0,                    Kenji%Hashimoto%NULL%0,                    Kenji%Hashimoto%NULL%0,                    Kenji%Hashimoto%NULL%0,                    Kenji%Hashimoto%NULL%0,                    Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,                     Yu%Wang%null%0,                     Hong%Wang%null%1,                     Zhaorui%Liu%null%1,                     Xin%Yu%null%1,                     Jie%Yan%null%2,                     Yaqin%Yu%null%1,                     Changgui%Kou%null%1,                     Xiufeng%Xu%null%1,                     Jin%Lu%null%1,                     Zhizhong%Wang%null%1,                     Shulan%He%null%1,                     Yifeng%Xu%null%1,                     Yanling%He%null%1,                     Tao%Li%null%3,                     Wanjun%Guo%null%1,                     Hongjun%Tian%null%1,                     Guangming%Xu%null%1,                     Xiangdong%Xu%null%1,                     Yanjuan%Ma%null%1,                     Linhong%Wang%null%1,                     Limin%Wang%null%1,                     Yongping%Yan%null%1,                     Bo%Wang%null%0,                     Shuiyuan%Xiao%null%1,                     Liang%Zhou%null%1,                     Lingjiang%Li%null%1,                     Liwen%Tan%null%1,                     Tingting%Zhang%null%1,                     Chao%Ma%null%1,                     Qiang%Li%null%2,                     Hua%Ding%null%1,                     Hongchun%Geng%null%1,                     Fujun%Jia%null%1,                     Jianfei%Shi%null%1,                     Shiliang%Wang%null%1,                     Ning%Zhang%null%1,                     Xinbai%Du%null%1,                     Xiangdong%Du%null%1,                     Yue%Wu%null%2,                    Yueqin%Huang%null%1,                    Yu%Wang%null%0,                    Hong%Wang%null%1,                    Zhaorui%Liu%null%1,                    Xin%Yu%null%1,                    Jie%Yan%null%1,                    Yaqin%Yu%null%1,                    Changgui%Kou%null%1,                    Xiufeng%Xu%null%1,                    Jin%Lu%null%1,                    Zhizhong%Wang%null%1,                    Shulan%He%null%1,                    Yifeng%Xu%null%2,                    Yanling%He%null%1,                    Tao%Li%null%0,                    Wanjun%Guo%null%1,                    Hongjun%Tian%null%1,                    Guangming%Xu%null%1,                    Xiangdong%Xu%null%1,                    Yanjuan%Ma%null%1,                    Linhong%Wang%null%1,                    Limin%Wang%null%1,                    Yongping%Yan%null%1,                    Bo%Wang%null%1,                    Shuiyuan%Xiao%null%1,                    Liang%Zhou%null%1,                    Lingjiang%Li%null%1,                    Liwen%Tan%null%1,                    Tingting%Zhang%null%1,                    Chao%Ma%null%1,                    Qiang%Li%null%1,                    Hua%Ding%null%1,                    Hongchun%Geng%null%1,                    Fujun%Jia%null%1,                    Jianfei%Shi%null%1,                    Shiliang%Wang%null%1,                    Ning%Zhang%null%0,                    Xinbai%Du%null%1,                    Xiangdong%Du%null%1,                    Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                    Simeng%Ma%NULL%4,                    Min%Chen%NULL%2,                    Jun%Yang%NULL%2,                    Ying%Wang%NULL%4,                    Ruiting%Li%NULL%5,                    Lihua%Yao%NULL%4,                    Hanping%Bai%NULL%2,                    Zhongxiang%Cai%NULL%4,                    Bing%Xiang Yang%NULL%2,                    Shaohua%Hu%NULL%4,                    Kerang%Zhang%NULL%2,                    Gaohua%Wang%NULL%4,                    Ci%Ma%NULL%2,                    Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                    Kin Kit%Li%NULL%1,                    Henry Ho Hin%Chan%NULL%1,                    Yuan Yuan%Yi%NULL%1,                    Arthur%Tang%NULL%1,                    Wan In%Wei%NULL%1,                    Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                    Simeng%Ma%NULL%0,                    Ying%Wang%NULL%0,                    Zhongxiang%Cai%NULL%0,                    Jianbo%Hu%NULL%2,                    Ning%Wei%NULL%2,                    Jiang%Wu%NULL%2,                    Hui%Du%NULL%2,                    Tingting%Chen%NULL%2,                    Ruiting%Li%NULL%0,                    Huawei%Tan%NULL%2,                    Lijun%Kang%NULL%2,                    Lihua%Yao%NULL%0,                    Manli%Huang%NULL%2,                    Huafen%Wang%NULL%2,                    Gaohua%Wang%NULL%0,                    Zhongchun%Liu%NULL%0,                    Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                    Fan%Zhang%NULL%1,                    Cun%Wei%NULL%1,                    Yanpu%Jia%NULL%1,                    Zhilei%Shang%NULL%1,                    Luna%Sun%NULL%1,                    Lili%Wu%NULL%1,                    Zhuoer%Sun%NULL%1,                    Yaoguang%Zhou%NULL%1,                    Yan%Wang%NULL%1,                    Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                    Hang%Wang%NULL%1,                    Yuxing%Lin%NULL%1,                    Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                    Lan%Deng%NULL%4,                    Lan%Deng%NULL%0,                    Liyan%Zhang%NULL%2,                    Qiuyan%Lang%NULL%2,                    Chunyan%Liao%NULL%2,                    Nannan%Wang%NULL%2,                    Mingqin%Qin%2026142822@qq.com%2,                    Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Abdorreza%Naser Moghadasi%xref no email%0]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Maad Rayan Publishing Company</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                    Minh H.%Nguyen%NULL%1,                    Binh N.%Do%NULL%1,                    Cuong Q.%Tran%NULL%2,                    Cuong Q.%Tran%NULL%0,                    Thao T. P.%Nguyen%NULL%1,                    Khue M.%Pham%NULL%2,                    Khue M.%Pham%NULL%0,                    Linh V.%Pham%NULL%2,                    Linh V.%Pham%NULL%0,                    Khanh V.%Tran%NULL%1,                    Trang T.%Duong%NULL%1,                    Tien V.%Tran%NULL%1,                    Thai H.%Duong%NULL%1,                    Tham T.%Nguyen%NULL%1,                    Quyen H.%Nguyen%NULL%1,                    Thanh M.%Hoang%NULL%1,                    Kien T.%Nguyen%NULL%1,                    Thu T. M.%Pham%NULL%1,                    Shwu-Huey%Yang%NULL%1,                    Jane C.-J.%Chao%NULL%2,                    Jane C.-J.%Chao%NULL%0,                    Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                    Francesco%Cinetto%NULL%1,                    Cinzia%Milito%NULL%1,                    Livia%Bonanni%NULL%1,                    Anna Maria%Pesce%NULL%1,                    Giorgia%Leodori%NULL%1,                    Giulia%Garzi%NULL%1,                    Marzia%Miglionico%NULL%1,                    Stefano%Tabolli%NULL%1,                    Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                    Bin%Shen%NULL%1,                    Min%Zhao%NULL%1,                    Zhen%Wang%NULL%2,                    Zhen%Wang%NULL%0,                    Bin%Xie%NULL%1,                    Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                    Sarvodaya%Tripathy%NULL%1,                    Sujita Kumar%Kar%NULL%1,                    Nivedita%Sharma%NULL%1,                    Sudhir Kumar%Verma%NULL%1,                    Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                    Nicholas W.S.%Chew%NULL%1,                    Grace K.H.%Lee%NULL%1,                    Mingxue%Jing%NULL%1,                    Yihui%Goh%NULL%1,                    Leonard L.L.%Yeo%NULL%1,                    Ka%Zhang%NULL%1,                    Howe-Keat%Chin%NULL%1,                    Aftab%Ahmad%NULL%1,                    Faheem Ahmed%Khan%NULL%1,                    Ganesh Napolean%Shanmugam%NULL%1,                    Bernard P.L.%Chan%NULL%1,                    Sibi%Sunny%NULL%1,                    Bharatendu%Chandra%NULL%1,                    Jonathan J.Y.%Ong%NULL%1,                    Prakash R.%Paliwal%NULL%1,                    Lily Y.H.%Wong%NULL%1,                    Renarebecca%Sagayanathan%NULL%1,                    Jin Tao%Chen%NULL%1,                    Alison Ying%Ying Ng%NULL%1,                    Hock Luen%Teoh%NULL%1,                    Cyrus S.%Ho%NULL%3,                    Roger C.%Ho%NULL%5,                    Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                    Riyu%Pan%NULL%5,                    Riyu%Pan%NULL%0,                    Xiaoyang%Wan%NULL%3,                    Yilin%Tan%NULL%3,                    Linkang%Xu%NULL%3,                    Cyrus S.%Ho%NULL%0,                    Roger C.%Ho%NULL%0,                    Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0, Yu%Di%xref no email%2, Junjie%Ye%xref no email%2, Wenbin%Wei%xref no email%2]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                    Marina%Serper%NULL%1,                    Lauren%Opsasnick%NULL%1,                    Rachel M.%O'Conor%NULL%1,                    Laura M.%Curtis%NULL%1,                    Julia Yoshino%Benavente%NULL%1,                    Guisselle%Wismer%NULL%1,                    Stephanie%Batio%NULL%1,                    Morgan%Eifler%NULL%1,                    Pauline%Zheng%NULL%1,                    Andrea%Russell%NULL%1,                    Marina%Arvanitis%NULL%1,                    Daniela%Ladner%NULL%1,                    Mary%Kwasny%NULL%1,                    Stephen D.%Persell%NULL%1,                    Theresa%Rowe%NULL%1,                    Jeffrey A.%Linder%NULL%1,                    Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                    Yan%Zhang%NULL%2,                    Desheng%Kong%NULL%2,                    Shiyue%Li%NULL%2,                    Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                    Zhenxin%Liao%NULL%2,                    Haojie%Huang%NULL%2,                    Boyue%Jiang%NULL%2,                    Xueyan%Zhang%NULL%2,                    Yingwen%Wang%NULL%2,                    Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                    Kun%Wang%NULL%0,                    Lu%Yin%NULL%0,                    Wen-feng%Zhao%NULL%1,                    Qing%Xue%NULL%1,                    Mao%Peng%NULL%1,                    Bao-quan%Min%NULL%1,                    Qing%Tian%NULL%1,                    Hai-xia%Leng%NULL%1,                    Jia-lin%Du%NULL%1,                    Hong%Chang%NULL%1,                    Yuan%Yang%NULL%0,                    Wei%Li%NULL%1,                    Fang-fang%Shangguan%NULL%1,                    Tian-yi%Yan%NULL%1,                    Hui-qing%Dong%NULL%1,                    Ying%Han%NULL%1,                    Yu-ping%Wang%NULL%1,                    Fiammetta%Cosci%NULL%1,                    Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                    Zheng Feei%Ma%NULL%4,                    Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                    M.%Zhou%NULL%1,                    F.%Tang%NULL%1,                    Y.%Wang%NULL%1,                    H.%Nie%NULL%1,                    L.%Zhang%NULL%1,                    G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                     Wen%Li%NULL%1,                     Yuan%Yang%NULL%3,                     Yuan%Yang%NULL%0,                     Yu%Wang%NULL%0,                     Qinge%Zhang%NULL%1,                     Teris%Cheung%NULL%1,                     Xinjuan%Wu%NULL%1,                     Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                     Baoren%Tu%NULL%2,                     Jing%Ma%NULL%2,                     Limin%Chen%NULL%2,                     Lei%Fu%NULL%2,                     Yongfang%Jiang%NULL%2,                     Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                     Jing%Wei%NULL%1,                     Huadong%Zhu%NULL%1,                     Yanping%Duan%NULL%1,                     Wenqi%Geng%NULL%1,                     Xia%Hong%NULL%1,                     Jing%Jiang%NULL%1,                     Xiaohui%Zhao%NULL%1,                     Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                     Ziwei%Fang%NULL%2,                     Guoqiang%Hou%NULL%2,                     Mei%Han%NULL%2,                     Xinrong%Xu%NULL%2,                     Jiaxin%Dong%NULL%2,                     Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                     Pinpin%Zheng%NULL%2,                     Pinpin%Zheng%NULL%0,                     Yingnan%Jia%NULL%1,                     Hao%Chen%NULL%1,                     Yimeng%Mao%NULL%1,                     Suhong%Chen%NULL%1,                     Yi%Wang%NULL%1,                     Hua%Fu%NULL%1,                     Junming%Dai%NULL%1,                     Kenji%Hashimoto%NULL%10,                     Kenji%Hashimoto%NULL%0,                     Junling%Gao%NULL%3,                     Junling%Gao%NULL%0,                     Junling%Gao%NULL%0,                     Kenji%Hashimoto%NULL%0,                     Kenji%Hashimoto%NULL%0,                     Kenji%Hashimoto%NULL%0,                     Kenji%Hashimoto%NULL%0,                     Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,                      Yu%Wang%null%0,                      Hong%Wang%null%1,                      Zhaorui%Liu%null%1,                      Xin%Yu%null%1,                      Jie%Yan%null%2,                      Yaqin%Yu%null%1,                      Changgui%Kou%null%1,                      Xiufeng%Xu%null%1,                      Jin%Lu%null%1,                      Zhizhong%Wang%null%1,                      Shulan%He%null%1,                      Yifeng%Xu%null%1,                      Yanling%He%null%1,                      Tao%Li%null%3,                      Wanjun%Guo%null%1,                      Hongjun%Tian%null%1,                      Guangming%Xu%null%1,                      Xiangdong%Xu%null%1,                      Yanjuan%Ma%null%1,                      Linhong%Wang%null%1,                      Limin%Wang%null%1,                      Yongping%Yan%null%1,                      Bo%Wang%null%0,                      Shuiyuan%Xiao%null%1,                      Liang%Zhou%null%1,                      Lingjiang%Li%null%1,                      Liwen%Tan%null%1,                      Tingting%Zhang%null%1,                      Chao%Ma%null%1,                      Qiang%Li%null%2,                      Hua%Ding%null%1,                      Hongchun%Geng%null%1,                      Fujun%Jia%null%1,                      Jianfei%Shi%null%1,                      Shiliang%Wang%null%1,                      Ning%Zhang%null%1,                      Xinbai%Du%null%1,                      Xiangdong%Du%null%1,                      Yue%Wu%null%2,                     Yueqin%Huang%null%1,                     Yu%Wang%null%0,                     Hong%Wang%null%1,                     Zhaorui%Liu%null%1,                     Xin%Yu%null%1,                     Jie%Yan%null%1,                     Yaqin%Yu%null%1,                     Changgui%Kou%null%1,                     Xiufeng%Xu%null%1,                     Jin%Lu%null%1,                     Zhizhong%Wang%null%1,                     Shulan%He%null%1,                     Yifeng%Xu%null%2,                     Yanling%He%null%1,                     Tao%Li%null%0,                     Wanjun%Guo%null%1,                     Hongjun%Tian%null%1,                     Guangming%Xu%null%1,                     Xiangdong%Xu%null%1,                     Yanjuan%Ma%null%1,                     Linhong%Wang%null%1,                     Limin%Wang%null%1,                     Yongping%Yan%null%1,                     Bo%Wang%null%1,                     Shuiyuan%Xiao%null%1,                     Liang%Zhou%null%1,                     Lingjiang%Li%null%1,                     Liwen%Tan%null%1,                     Tingting%Zhang%null%1,                     Chao%Ma%null%1,                     Qiang%Li%null%1,                     Hua%Ding%null%1,                     Hongchun%Geng%null%1,                     Fujun%Jia%null%1,                     Jianfei%Shi%null%1,                     Shiliang%Wang%null%1,                     Ning%Zhang%null%0,                     Xinbai%Du%null%1,                     Xiangdong%Du%null%1,                     Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                     Simeng%Ma%NULL%4,                     Min%Chen%NULL%2,                     Jun%Yang%NULL%2,                     Ying%Wang%NULL%4,                     Ruiting%Li%NULL%5,                     Lihua%Yao%NULL%4,                     Hanping%Bai%NULL%2,                     Zhongxiang%Cai%NULL%4,                     Bing%Xiang Yang%NULL%2,                     Shaohua%Hu%NULL%4,                     Kerang%Zhang%NULL%2,                     Gaohua%Wang%NULL%4,                     Ci%Ma%NULL%2,                     Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                     Kin Kit%Li%NULL%1,                     Henry Ho Hin%Chan%NULL%1,                     Yuan Yuan%Yi%NULL%1,                     Arthur%Tang%NULL%1,                     Wan In%Wei%NULL%1,                     Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                     Simeng%Ma%NULL%0,                     Ying%Wang%NULL%0,                     Zhongxiang%Cai%NULL%0,                     Jianbo%Hu%NULL%2,                     Ning%Wei%NULL%2,                     Jiang%Wu%NULL%2,                     Hui%Du%NULL%2,                     Tingting%Chen%NULL%2,                     Ruiting%Li%NULL%0,                     Huawei%Tan%NULL%2,                     Lijun%Kang%NULL%2,                     Lihua%Yao%NULL%0,                     Manli%Huang%NULL%2,                     Huafen%Wang%NULL%2,                     Gaohua%Wang%NULL%0,                     Zhongchun%Liu%NULL%0,                     Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                     Fan%Zhang%NULL%1,                     Cun%Wei%NULL%1,                     Yanpu%Jia%NULL%1,                     Zhilei%Shang%NULL%1,                     Luna%Sun%NULL%1,                     Lili%Wu%NULL%1,                     Zhuoer%Sun%NULL%1,                     Yaoguang%Zhou%NULL%1,                     Yan%Wang%NULL%1,                     Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                     Hang%Wang%NULL%1,                     Yuxing%Lin%NULL%1,                     Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                     Lan%Deng%NULL%4,                     Lan%Deng%NULL%0,                     Liyan%Zhang%NULL%2,                     Qiuyan%Lang%NULL%2,                     Chunyan%Liao%NULL%2,                     Nannan%Wang%NULL%2,                     Mingqin%Qin%2026142822@qq.com%2,                     Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                     Minh H.%Nguyen%NULL%1,                     Binh N.%Do%NULL%1,                     Cuong Q.%Tran%NULL%2,                     Cuong Q.%Tran%NULL%0,                     Thao T. P.%Nguyen%NULL%1,                     Khue M.%Pham%NULL%2,                     Khue M.%Pham%NULL%0,                     Linh V.%Pham%NULL%2,                     Linh V.%Pham%NULL%0,                     Khanh V.%Tran%NULL%1,                     Trang T.%Duong%NULL%1,                     Tien V.%Tran%NULL%1,                     Thai H.%Duong%NULL%1,                     Tham T.%Nguyen%NULL%1,                     Quyen H.%Nguyen%NULL%1,                     Thanh M.%Hoang%NULL%1,                     Kien T.%Nguyen%NULL%1,                     Thu T. M.%Pham%NULL%1,                     Shwu-Huey%Yang%NULL%1,                     Jane C.-J.%Chao%NULL%2,                     Jane C.-J.%Chao%NULL%0,                     Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                     Francesco%Cinetto%NULL%1,                     Cinzia%Milito%NULL%1,                     Livia%Bonanni%NULL%1,                     Anna Maria%Pesce%NULL%1,                     Giorgia%Leodori%NULL%1,                     Giulia%Garzi%NULL%1,                     Marzia%Miglionico%NULL%1,                     Stefano%Tabolli%NULL%1,                     Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                     Bin%Shen%NULL%1,                     Min%Zhao%NULL%1,                     Zhen%Wang%NULL%2,                     Zhen%Wang%NULL%0,                     Bin%Xie%NULL%1,                     Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                     Sarvodaya%Tripathy%NULL%1,                     Sujita Kumar%Kar%NULL%1,                     Nivedita%Sharma%NULL%1,                     Sudhir Kumar%Verma%NULL%1,                     Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                     Nicholas W.S.%Chew%NULL%1,                     Grace K.H.%Lee%NULL%1,                     Mingxue%Jing%NULL%1,                     Yihui%Goh%NULL%1,                     Leonard L.L.%Yeo%NULL%1,                     Ka%Zhang%NULL%1,                     Howe-Keat%Chin%NULL%1,                     Aftab%Ahmad%NULL%1,                     Faheem Ahmed%Khan%NULL%1,                     Ganesh Napolean%Shanmugam%NULL%1,                     Bernard P.L.%Chan%NULL%1,                     Sibi%Sunny%NULL%1,                     Bharatendu%Chandra%NULL%1,                     Jonathan J.Y.%Ong%NULL%1,                     Prakash R.%Paliwal%NULL%1,                     Lily Y.H.%Wong%NULL%1,                     Renarebecca%Sagayanathan%NULL%1,                     Jin Tao%Chen%NULL%1,                     Alison Ying%Ying Ng%NULL%1,                     Hock Luen%Teoh%NULL%1,                     Cyrus S.%Ho%NULL%3,                     Roger C.%Ho%NULL%5,                     Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                     Riyu%Pan%NULL%5,                     Riyu%Pan%NULL%0,                     Xiaoyang%Wan%NULL%3,                     Yilin%Tan%NULL%3,                     Linkang%Xu%NULL%3,                     Cyrus S.%Ho%NULL%0,                     Roger C.%Ho%NULL%0,                     Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                     Marina%Serper%NULL%1,                     Lauren%Opsasnick%NULL%1,                     Rachel M.%O'Conor%NULL%1,                     Laura M.%Curtis%NULL%1,                     Julia Yoshino%Benavente%NULL%1,                     Guisselle%Wismer%NULL%1,                     Stephanie%Batio%NULL%1,                     Morgan%Eifler%NULL%1,                     Pauline%Zheng%NULL%1,                     Andrea%Russell%NULL%1,                     Marina%Arvanitis%NULL%1,                     Daniela%Ladner%NULL%1,                     Mary%Kwasny%NULL%1,                     Stephen D.%Persell%NULL%1,                     Theresa%Rowe%NULL%1,                     Jeffrey A.%Linder%NULL%1,                     Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                     Yan%Zhang%NULL%2,                     Desheng%Kong%NULL%2,                     Shiyue%Li%NULL%2,                     Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                     Zhenxin%Liao%NULL%2,                     Haojie%Huang%NULL%2,                     Boyue%Jiang%NULL%2,                     Xueyan%Zhang%NULL%2,                     Yingwen%Wang%NULL%2,                     Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                     Kun%Wang%NULL%0,                     Lu%Yin%NULL%0,                     Wen-feng%Zhao%NULL%1,                     Qing%Xue%NULL%1,                     Mao%Peng%NULL%1,                     Bao-quan%Min%NULL%1,                     Qing%Tian%NULL%1,                     Hai-xia%Leng%NULL%1,                     Jia-lin%Du%NULL%1,                     Hong%Chang%NULL%1,                     Yuan%Yang%NULL%0,                     Wei%Li%NULL%1,                     Fang-fang%Shangguan%NULL%1,                     Tian-yi%Yan%NULL%1,                     Hui-qing%Dong%NULL%1,                     Ying%Han%NULL%1,                     Yu-ping%Wang%NULL%1,                     Fiammetta%Cosci%NULL%1,                     Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                     Zheng Feei%Ma%NULL%4,                     Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                     M.%Zhou%NULL%1,                     F.%Tang%NULL%1,                     Y.%Wang%NULL%1,                     H.%Nie%NULL%1,                     L.%Zhang%NULL%1,                     G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                      Wen%Li%NULL%1,                      Yuan%Yang%NULL%3,                      Yuan%Yang%NULL%0,                      Yu%Wang%NULL%0,                      Qinge%Zhang%NULL%1,                      Teris%Cheung%NULL%1,                      Xinjuan%Wu%NULL%1,                      Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                      Baoren%Tu%NULL%2,                      Jing%Ma%NULL%2,                      Limin%Chen%NULL%2,                      Lei%Fu%NULL%2,                      Yongfang%Jiang%NULL%2,                      Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                      Jing%Wei%NULL%1,                      Huadong%Zhu%NULL%1,                      Yanping%Duan%NULL%1,                      Wenqi%Geng%NULL%1,                      Xia%Hong%NULL%1,                      Jing%Jiang%NULL%1,                      Xiaohui%Zhao%NULL%1,                      Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                      Ziwei%Fang%NULL%2,                      Guoqiang%Hou%NULL%2,                      Mei%Han%NULL%2,                      Xinrong%Xu%NULL%2,                      Jiaxin%Dong%NULL%2,                      Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                      Pinpin%Zheng%NULL%2,                      Pinpin%Zheng%NULL%0,                      Yingnan%Jia%NULL%1,                      Hao%Chen%NULL%1,                      Yimeng%Mao%NULL%1,                      Suhong%Chen%NULL%1,                      Yi%Wang%NULL%1,                      Hua%Fu%NULL%1,                      Junming%Dai%NULL%1,                      Kenji%Hashimoto%NULL%10,                      Kenji%Hashimoto%NULL%0,                      Junling%Gao%NULL%3,                      Junling%Gao%NULL%0,                      Junling%Gao%NULL%0,                      Kenji%Hashimoto%NULL%0,                      Kenji%Hashimoto%NULL%0,                      Kenji%Hashimoto%NULL%0,                      Kenji%Hashimoto%NULL%0,                      Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,                       Yu%Wang%null%0,                       Hong%Wang%null%1,                       Zhaorui%Liu%null%1,                       Xin%Yu%null%1,                       Jie%Yan%null%2,                       Yaqin%Yu%null%1,                       Changgui%Kou%null%1,                       Xiufeng%Xu%null%1,                       Jin%Lu%null%1,                       Zhizhong%Wang%null%1,                       Shulan%He%null%1,                       Yifeng%Xu%null%1,                       Yanling%He%null%1,                       Tao%Li%null%3,                       Wanjun%Guo%null%1,                       Hongjun%Tian%null%1,                       Guangming%Xu%null%1,                       Xiangdong%Xu%null%1,                       Yanjuan%Ma%null%1,                       Linhong%Wang%null%1,                       Limin%Wang%null%1,                       Yongping%Yan%null%1,                       Bo%Wang%null%0,                       Shuiyuan%Xiao%null%1,                       Liang%Zhou%null%1,                       Lingjiang%Li%null%1,                       Liwen%Tan%null%1,                       Tingting%Zhang%null%1,                       Chao%Ma%null%1,                       Qiang%Li%null%2,                       Hua%Ding%null%1,                       Hongchun%Geng%null%1,                       Fujun%Jia%null%1,                       Jianfei%Shi%null%1,                       Shiliang%Wang%null%1,                       Ning%Zhang%null%1,                       Xinbai%Du%null%1,                       Xiangdong%Du%null%1,                       Yue%Wu%null%2,                      Yueqin%Huang%null%1,                      Yu%Wang%null%0,                      Hong%Wang%null%1,                      Zhaorui%Liu%null%1,                      Xin%Yu%null%1,                      Jie%Yan%null%1,                      Yaqin%Yu%null%1,                      Changgui%Kou%null%1,                      Xiufeng%Xu%null%1,                      Jin%Lu%null%1,                      Zhizhong%Wang%null%1,                      Shulan%He%null%1,                      Yifeng%Xu%null%2,                      Yanling%He%null%1,                      Tao%Li%null%0,                      Wanjun%Guo%null%1,                      Hongjun%Tian%null%1,                      Guangming%Xu%null%1,                      Xiangdong%Xu%null%1,                      Yanjuan%Ma%null%1,                      Linhong%Wang%null%1,                      Limin%Wang%null%1,                      Yongping%Yan%null%1,                      Bo%Wang%null%1,                      Shuiyuan%Xiao%null%1,                      Liang%Zhou%null%1,                      Lingjiang%Li%null%1,                      Liwen%Tan%null%1,                      Tingting%Zhang%null%1,                      Chao%Ma%null%1,                      Qiang%Li%null%1,                      Hua%Ding%null%1,                      Hongchun%Geng%null%1,                      Fujun%Jia%null%1,                      Jianfei%Shi%null%1,                      Shiliang%Wang%null%1,                      Ning%Zhang%null%0,                      Xinbai%Du%null%1,                      Xiangdong%Du%null%1,                      Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                      Simeng%Ma%NULL%4,                      Min%Chen%NULL%2,                      Jun%Yang%NULL%2,                      Ying%Wang%NULL%4,                      Ruiting%Li%NULL%5,                      Lihua%Yao%NULL%4,                      Hanping%Bai%NULL%2,                      Zhongxiang%Cai%NULL%4,                      Bing%Xiang Yang%NULL%2,                      Shaohua%Hu%NULL%4,                      Kerang%Zhang%NULL%2,                      Gaohua%Wang%NULL%4,                      Ci%Ma%NULL%2,                      Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                      Kin Kit%Li%NULL%1,                      Henry Ho Hin%Chan%NULL%1,                      Yuan Yuan%Yi%NULL%1,                      Arthur%Tang%NULL%1,                      Wan In%Wei%NULL%1,                      Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                      Simeng%Ma%NULL%0,                      Ying%Wang%NULL%0,                      Zhongxiang%Cai%NULL%0,                      Jianbo%Hu%NULL%2,                      Ning%Wei%NULL%2,                      Jiang%Wu%NULL%2,                      Hui%Du%NULL%2,                      Tingting%Chen%NULL%2,                      Ruiting%Li%NULL%0,                      Huawei%Tan%NULL%2,                      Lijun%Kang%NULL%2,                      Lihua%Yao%NULL%0,                      Manli%Huang%NULL%2,                      Huafen%Wang%NULL%2,                      Gaohua%Wang%NULL%0,                      Zhongchun%Liu%NULL%0,                      Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                      Fan%Zhang%NULL%1,                      Cun%Wei%NULL%1,                      Yanpu%Jia%NULL%1,                      Zhilei%Shang%NULL%1,                      Luna%Sun%NULL%1,                      Lili%Wu%NULL%1,                      Zhuoer%Sun%NULL%1,                      Yaoguang%Zhou%NULL%1,                      Yan%Wang%NULL%1,                      Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                      Hang%Wang%NULL%1,                      Yuxing%Lin%NULL%1,                      Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                      Lan%Deng%NULL%4,                      Lan%Deng%NULL%0,                      Liyan%Zhang%NULL%2,                      Qiuyan%Lang%NULL%2,                      Chunyan%Liao%NULL%2,                      Nannan%Wang%NULL%2,                      Mingqin%Qin%2026142822@qq.com%2,                      Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                      Minh H.%Nguyen%NULL%1,                      Binh N.%Do%NULL%1,                      Cuong Q.%Tran%NULL%2,                      Cuong Q.%Tran%NULL%0,                      Thao T. P.%Nguyen%NULL%1,                      Khue M.%Pham%NULL%2,                      Khue M.%Pham%NULL%0,                      Linh V.%Pham%NULL%2,                      Linh V.%Pham%NULL%0,                      Khanh V.%Tran%NULL%1,                      Trang T.%Duong%NULL%1,                      Tien V.%Tran%NULL%1,                      Thai H.%Duong%NULL%1,                      Tham T.%Nguyen%NULL%1,                      Quyen H.%Nguyen%NULL%1,                      Thanh M.%Hoang%NULL%1,                      Kien T.%Nguyen%NULL%1,                      Thu T. M.%Pham%NULL%1,                      Shwu-Huey%Yang%NULL%1,                      Jane C.-J.%Chao%NULL%2,                      Jane C.-J.%Chao%NULL%0,                      Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                      Francesco%Cinetto%NULL%1,                      Cinzia%Milito%NULL%1,                      Livia%Bonanni%NULL%1,                      Anna Maria%Pesce%NULL%1,                      Giorgia%Leodori%NULL%1,                      Giulia%Garzi%NULL%1,                      Marzia%Miglionico%NULL%1,                      Stefano%Tabolli%NULL%1,                      Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                      Bin%Shen%NULL%1,                      Min%Zhao%NULL%1,                      Zhen%Wang%NULL%2,                      Zhen%Wang%NULL%0,                      Bin%Xie%NULL%1,                      Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                      Sarvodaya%Tripathy%NULL%1,                      Sujita Kumar%Kar%NULL%1,                      Nivedita%Sharma%NULL%1,                      Sudhir Kumar%Verma%NULL%1,                      Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                      Nicholas W.S.%Chew%NULL%1,                      Grace K.H.%Lee%NULL%1,                      Mingxue%Jing%NULL%1,                      Yihui%Goh%NULL%1,                      Leonard L.L.%Yeo%NULL%1,                      Ka%Zhang%NULL%1,                      Howe-Keat%Chin%NULL%1,                      Aftab%Ahmad%NULL%1,                      Faheem Ahmed%Khan%NULL%1,                      Ganesh Napolean%Shanmugam%NULL%1,                      Bernard P.L.%Chan%NULL%1,                      Sibi%Sunny%NULL%1,                      Bharatendu%Chandra%NULL%1,                      Jonathan J.Y.%Ong%NULL%1,                      Prakash R.%Paliwal%NULL%1,                      Lily Y.H.%Wong%NULL%1,                      Renarebecca%Sagayanathan%NULL%1,                      Jin Tao%Chen%NULL%1,                      Alison Ying%Ying Ng%NULL%1,                      Hock Luen%Teoh%NULL%1,                      Cyrus S.%Ho%NULL%3,                      Roger C.%Ho%NULL%5,                      Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                      Riyu%Pan%NULL%5,                      Riyu%Pan%NULL%0,                      Xiaoyang%Wan%NULL%3,                      Yilin%Tan%NULL%3,                      Linkang%Xu%NULL%3,                      Cyrus S.%Ho%NULL%0,                      Roger C.%Ho%NULL%0,                      Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                      Marina%Serper%NULL%1,                      Lauren%Opsasnick%NULL%1,                      Rachel M.%O'Conor%NULL%1,                      Laura M.%Curtis%NULL%1,                      Julia Yoshino%Benavente%NULL%1,                      Guisselle%Wismer%NULL%1,                      Stephanie%Batio%NULL%1,                      Morgan%Eifler%NULL%1,                      Pauline%Zheng%NULL%1,                      Andrea%Russell%NULL%1,                      Marina%Arvanitis%NULL%1,                      Daniela%Ladner%NULL%1,                      Mary%Kwasny%NULL%1,                      Stephen D.%Persell%NULL%1,                      Theresa%Rowe%NULL%1,                      Jeffrey A.%Linder%NULL%1,                      Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                      Yan%Zhang%NULL%2,                      Desheng%Kong%NULL%2,                      Shiyue%Li%NULL%2,                      Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                      Zhenxin%Liao%NULL%2,                      Haojie%Huang%NULL%2,                      Boyue%Jiang%NULL%2,                      Xueyan%Zhang%NULL%2,                      Yingwen%Wang%NULL%2,                      Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                      Kun%Wang%NULL%0,                      Lu%Yin%NULL%0,                      Wen-feng%Zhao%NULL%1,                      Qing%Xue%NULL%1,                      Mao%Peng%NULL%1,                      Bao-quan%Min%NULL%1,                      Qing%Tian%NULL%1,                      Hai-xia%Leng%NULL%1,                      Jia-lin%Du%NULL%1,                      Hong%Chang%NULL%1,                      Yuan%Yang%NULL%0,                      Wei%Li%NULL%1,                      Fang-fang%Shangguan%NULL%1,                      Tian-yi%Yan%NULL%1,                      Hui-qing%Dong%NULL%1,                      Ying%Han%NULL%1,                      Yu-ping%Wang%NULL%1,                      Fiammetta%Cosci%NULL%1,                      Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                      Zheng Feei%Ma%NULL%4,                      Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                      M.%Zhou%NULL%1,                      F.%Tang%NULL%1,                      Y.%Wang%NULL%1,                      H.%Nie%NULL%1,                      L.%Zhang%NULL%1,                      G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                       Wen%Li%NULL%1,                       Yuan%Yang%NULL%3,                       Yuan%Yang%NULL%0,                       Yu%Wang%NULL%0,                       Qinge%Zhang%NULL%1,                       Teris%Cheung%NULL%1,                       Xinjuan%Wu%NULL%1,                       Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                       Baoren%Tu%NULL%2,                       Jing%Ma%NULL%2,                       Limin%Chen%NULL%2,                       Lei%Fu%NULL%2,                       Yongfang%Jiang%NULL%2,                       Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                       Jing%Wei%NULL%1,                       Huadong%Zhu%NULL%1,                       Yanping%Duan%NULL%1,                       Wenqi%Geng%NULL%1,                       Xia%Hong%NULL%1,                       Jing%Jiang%NULL%1,                       Xiaohui%Zhao%NULL%1,                       Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                       Ziwei%Fang%NULL%2,                       Guoqiang%Hou%NULL%2,                       Mei%Han%NULL%2,                       Xinrong%Xu%NULL%2,                       Jiaxin%Dong%NULL%2,                       Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                       Pinpin%Zheng%NULL%2,                       Pinpin%Zheng%NULL%0,                       Yingnan%Jia%NULL%1,                       Hao%Chen%NULL%1,                       Yimeng%Mao%NULL%1,                       Suhong%Chen%NULL%1,                       Yi%Wang%NULL%1,                       Hua%Fu%NULL%1,                       Junming%Dai%NULL%1,                       Kenji%Hashimoto%NULL%10,                       Kenji%Hashimoto%NULL%0,                       Junling%Gao%NULL%3,                       Junling%Gao%NULL%0,                       Junling%Gao%NULL%0,                       Kenji%Hashimoto%NULL%0,                       Kenji%Hashimoto%NULL%0,                       Kenji%Hashimoto%NULL%0,                       Kenji%Hashimoto%NULL%0,                       Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,                        Yu%Wang%null%0,                        Hong%Wang%null%1,                        Zhaorui%Liu%null%1,                        Xin%Yu%null%1,                        Jie%Yan%null%2,                        Yaqin%Yu%null%1,                        Changgui%Kou%null%1,                        Xiufeng%Xu%null%1,                        Jin%Lu%null%1,                        Zhizhong%Wang%null%1,                        Shulan%He%null%1,                        Yifeng%Xu%null%1,                        Yanling%He%null%1,                        Tao%Li%null%3,                        Wanjun%Guo%null%1,                        Hongjun%Tian%null%1,                        Guangming%Xu%null%1,                        Xiangdong%Xu%null%1,                        Yanjuan%Ma%null%1,                        Linhong%Wang%null%1,                        Limin%Wang%null%1,                        Yongping%Yan%null%1,                        Bo%Wang%null%0,                        Shuiyuan%Xiao%null%1,                        Liang%Zhou%null%1,                        Lingjiang%Li%null%1,                        Liwen%Tan%null%1,                        Tingting%Zhang%null%1,                        Chao%Ma%null%1,                        Qiang%Li%null%2,                        Hua%Ding%null%1,                        Hongchun%Geng%null%1,                        Fujun%Jia%null%1,                        Jianfei%Shi%null%1,                        Shiliang%Wang%null%1,                        Ning%Zhang%null%1,                        Xinbai%Du%null%1,                        Xiangdong%Du%null%1,                        Yue%Wu%null%2,                       Yueqin%Huang%null%1,                       Yu%Wang%null%0,                       Hong%Wang%null%1,                       Zhaorui%Liu%null%1,                       Xin%Yu%null%1,                       Jie%Yan%null%1,                       Yaqin%Yu%null%1,                       Changgui%Kou%null%1,                       Xiufeng%Xu%null%1,                       Jin%Lu%null%1,                       Zhizhong%Wang%null%1,                       Shulan%He%null%1,                       Yifeng%Xu%null%2,                       Yanling%He%null%1,                       Tao%Li%null%0,                       Wanjun%Guo%null%1,                       Hongjun%Tian%null%1,                       Guangming%Xu%null%1,                       Xiangdong%Xu%null%1,                       Yanjuan%Ma%null%1,                       Linhong%Wang%null%1,                       Limin%Wang%null%1,                       Yongping%Yan%null%1,                       Bo%Wang%null%1,                       Shuiyuan%Xiao%null%1,                       Liang%Zhou%null%1,                       Lingjiang%Li%null%1,                       Liwen%Tan%null%1,                       Tingting%Zhang%null%1,                       Chao%Ma%null%1,                       Qiang%Li%null%1,                       Hua%Ding%null%1,                       Hongchun%Geng%null%1,                       Fujun%Jia%null%1,                       Jianfei%Shi%null%1,                       Shiliang%Wang%null%1,                       Ning%Zhang%null%0,                       Xinbai%Du%null%1,                       Xiangdong%Du%null%1,                       Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                       Simeng%Ma%NULL%4,                       Min%Chen%NULL%2,                       Jun%Yang%NULL%2,                       Ying%Wang%NULL%4,                       Ruiting%Li%NULL%5,                       Lihua%Yao%NULL%4,                       Hanping%Bai%NULL%2,                       Zhongxiang%Cai%NULL%4,                       Bing%Xiang Yang%NULL%2,                       Shaohua%Hu%NULL%4,                       Kerang%Zhang%NULL%2,                       Gaohua%Wang%NULL%4,                       Ci%Ma%NULL%2,                       Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                       Kin Kit%Li%NULL%1,                       Henry Ho Hin%Chan%NULL%1,                       Yuan Yuan%Yi%NULL%1,                       Arthur%Tang%NULL%1,                       Wan In%Wei%NULL%1,                       Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                       Simeng%Ma%NULL%0,                       Ying%Wang%NULL%0,                       Zhongxiang%Cai%NULL%0,                       Jianbo%Hu%NULL%2,                       Ning%Wei%NULL%2,                       Jiang%Wu%NULL%2,                       Hui%Du%NULL%2,                       Tingting%Chen%NULL%2,                       Ruiting%Li%NULL%0,                       Huawei%Tan%NULL%2,                       Lijun%Kang%NULL%2,                       Lihua%Yao%NULL%0,                       Manli%Huang%NULL%2,                       Huafen%Wang%NULL%2,                       Gaohua%Wang%NULL%0,                       Zhongchun%Liu%NULL%0,                       Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                       Fan%Zhang%NULL%1,                       Cun%Wei%NULL%1,                       Yanpu%Jia%NULL%1,                       Zhilei%Shang%NULL%1,                       Luna%Sun%NULL%1,                       Lili%Wu%NULL%1,                       Zhuoer%Sun%NULL%1,                       Yaoguang%Zhou%NULL%1,                       Yan%Wang%NULL%1,                       Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                       Hang%Wang%NULL%1,                       Yuxing%Lin%NULL%1,                       Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                       Lan%Deng%NULL%4,                       Lan%Deng%NULL%0,                       Liyan%Zhang%NULL%2,                       Qiuyan%Lang%NULL%2,                       Chunyan%Liao%NULL%2,                       Nannan%Wang%NULL%2,                       Mingqin%Qin%2026142822@qq.com%2,                       Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                       Minh H.%Nguyen%NULL%1,                       Binh N.%Do%NULL%1,                       Cuong Q.%Tran%NULL%2,                       Cuong Q.%Tran%NULL%0,                       Thao T. P.%Nguyen%NULL%1,                       Khue M.%Pham%NULL%2,                       Khue M.%Pham%NULL%0,                       Linh V.%Pham%NULL%2,                       Linh V.%Pham%NULL%0,                       Khanh V.%Tran%NULL%1,                       Trang T.%Duong%NULL%1,                       Tien V.%Tran%NULL%1,                       Thai H.%Duong%NULL%1,                       Tham T.%Nguyen%NULL%1,                       Quyen H.%Nguyen%NULL%1,                       Thanh M.%Hoang%NULL%1,                       Kien T.%Nguyen%NULL%1,                       Thu T. M.%Pham%NULL%1,                       Shwu-Huey%Yang%NULL%1,                       Jane C.-J.%Chao%NULL%2,                       Jane C.-J.%Chao%NULL%0,                       Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                       Francesco%Cinetto%NULL%1,                       Cinzia%Milito%NULL%1,                       Livia%Bonanni%NULL%1,                       Anna Maria%Pesce%NULL%1,                       Giorgia%Leodori%NULL%1,                       Giulia%Garzi%NULL%1,                       Marzia%Miglionico%NULL%1,                       Stefano%Tabolli%NULL%1,                       Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                       Bin%Shen%NULL%1,                       Min%Zhao%NULL%1,                       Zhen%Wang%NULL%2,                       Zhen%Wang%NULL%0,                       Bin%Xie%NULL%1,                       Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                       Sarvodaya%Tripathy%NULL%1,                       Sujita Kumar%Kar%NULL%1,                       Nivedita%Sharma%NULL%1,                       Sudhir Kumar%Verma%NULL%1,                       Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                       Nicholas W.S.%Chew%NULL%1,                       Grace K.H.%Lee%NULL%1,                       Mingxue%Jing%NULL%1,                       Yihui%Goh%NULL%1,                       Leonard L.L.%Yeo%NULL%1,                       Ka%Zhang%NULL%1,                       Howe-Keat%Chin%NULL%1,                       Aftab%Ahmad%NULL%1,                       Faheem Ahmed%Khan%NULL%1,                       Ganesh Napolean%Shanmugam%NULL%1,                       Bernard P.L.%Chan%NULL%1,                       Sibi%Sunny%NULL%1,                       Bharatendu%Chandra%NULL%1,                       Jonathan J.Y.%Ong%NULL%1,                       Prakash R.%Paliwal%NULL%1,                       Lily Y.H.%Wong%NULL%1,                       Renarebecca%Sagayanathan%NULL%1,                       Jin Tao%Chen%NULL%1,                       Alison Ying%Ying Ng%NULL%1,                       Hock Luen%Teoh%NULL%1,                       Cyrus S.%Ho%NULL%3,                       Roger C.%Ho%NULL%5,                       Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                       Riyu%Pan%NULL%5,                       Riyu%Pan%NULL%0,                       Xiaoyang%Wan%NULL%3,                       Yilin%Tan%NULL%3,                       Linkang%Xu%NULL%3,                       Cyrus S.%Ho%NULL%0,                       Roger C.%Ho%NULL%0,                       Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                       Marina%Serper%NULL%1,                       Lauren%Opsasnick%NULL%1,                       Rachel M.%O'Conor%NULL%1,                       Laura M.%Curtis%NULL%1,                       Julia Yoshino%Benavente%NULL%1,                       Guisselle%Wismer%NULL%1,                       Stephanie%Batio%NULL%1,                       Morgan%Eifler%NULL%1,                       Pauline%Zheng%NULL%1,                       Andrea%Russell%NULL%1,                       Marina%Arvanitis%NULL%1,                       Daniela%Ladner%NULL%1,                       Mary%Kwasny%NULL%1,                       Stephen D.%Persell%NULL%1,                       Theresa%Rowe%NULL%1,                       Jeffrey A.%Linder%NULL%1,                       Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                       Yan%Zhang%NULL%2,                       Desheng%Kong%NULL%2,                       Shiyue%Li%NULL%2,                       Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                       Zhenxin%Liao%NULL%2,                       Haojie%Huang%NULL%2,                       Boyue%Jiang%NULL%2,                       Xueyan%Zhang%NULL%2,                       Yingwen%Wang%NULL%2,                       Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                       Kun%Wang%NULL%0,                       Lu%Yin%NULL%0,                       Wen-feng%Zhao%NULL%1,                       Qing%Xue%NULL%1,                       Mao%Peng%NULL%1,                       Bao-quan%Min%NULL%1,                       Qing%Tian%NULL%1,                       Hai-xia%Leng%NULL%1,                       Jia-lin%Du%NULL%1,                       Hong%Chang%NULL%1,                       Yuan%Yang%NULL%0,                       Wei%Li%NULL%1,                       Fang-fang%Shangguan%NULL%1,                       Tian-yi%Yan%NULL%1,                       Hui-qing%Dong%NULL%1,                       Ying%Han%NULL%1,                       Yu-ping%Wang%NULL%1,                       Fiammetta%Cosci%NULL%1,                       Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                       Zheng Feei%Ma%NULL%4,                       Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                       M.%Zhou%NULL%1,                       F.%Tang%NULL%1,                       Y.%Wang%NULL%1,                       H.%Nie%NULL%1,                       L.%Zhang%NULL%1,                       G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                        Wen%Li%NULL%1,                        Yuan%Yang%NULL%3,                        Yuan%Yang%NULL%0,                        Yu%Wang%NULL%0,                        Qinge%Zhang%NULL%1,                        Teris%Cheung%NULL%1,                        Xinjuan%Wu%NULL%1,                        Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                        Baoren%Tu%NULL%2,                        Jing%Ma%NULL%2,                        Limin%Chen%NULL%2,                        Lei%Fu%NULL%2,                        Yongfang%Jiang%NULL%2,                        Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                        Jing%Wei%NULL%1,                        Huadong%Zhu%NULL%1,                        Yanping%Duan%NULL%1,                        Wenqi%Geng%NULL%1,                        Xia%Hong%NULL%1,                        Jing%Jiang%NULL%1,                        Xiaohui%Zhao%NULL%1,                        Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                        Ziwei%Fang%NULL%2,                        Guoqiang%Hou%NULL%2,                        Mei%Han%NULL%2,                        Xinrong%Xu%NULL%2,                        Jiaxin%Dong%NULL%2,                        Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                        Pinpin%Zheng%NULL%2,                        Pinpin%Zheng%NULL%0,                        Yingnan%Jia%NULL%1,                        Hao%Chen%NULL%1,                        Yimeng%Mao%NULL%1,                        Suhong%Chen%NULL%1,                        Yi%Wang%NULL%1,                        Hua%Fu%NULL%1,                        Junming%Dai%NULL%1,                        Kenji%Hashimoto%NULL%10,                        Kenji%Hashimoto%NULL%0,                        Junling%Gao%NULL%3,                        Junling%Gao%NULL%0,                        Junling%Gao%NULL%0,                        Kenji%Hashimoto%NULL%0,                        Kenji%Hashimoto%NULL%0,                        Kenji%Hashimoto%NULL%0,                        Kenji%Hashimoto%NULL%0,                        Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,                         Yu%Wang%null%0,                         Hong%Wang%null%1,                         Zhaorui%Liu%null%1,                         Xin%Yu%null%1,                         Jie%Yan%null%2,                         Yaqin%Yu%null%1,                         Changgui%Kou%null%1,                         Xiufeng%Xu%null%1,                         Jin%Lu%null%1,                         Zhizhong%Wang%null%1,                         Shulan%He%null%1,                         Yifeng%Xu%null%1,                         Yanling%He%null%1,                         Tao%Li%null%3,                         Wanjun%Guo%null%1,                         Hongjun%Tian%null%1,                         Guangming%Xu%null%1,                         Xiangdong%Xu%null%1,                         Yanjuan%Ma%null%1,                         Linhong%Wang%null%1,                         Limin%Wang%null%1,                         Yongping%Yan%null%1,                         Bo%Wang%null%0,                         Shuiyuan%Xiao%null%1,                         Liang%Zhou%null%1,                         Lingjiang%Li%null%1,                         Liwen%Tan%null%1,                         Tingting%Zhang%null%1,                         Chao%Ma%null%1,                         Qiang%Li%null%2,                         Hua%Ding%null%1,                         Hongchun%Geng%null%1,                         Fujun%Jia%null%1,                         Jianfei%Shi%null%1,                         Shiliang%Wang%null%1,                         Ning%Zhang%null%1,                         Xinbai%Du%null%1,                         Xiangdong%Du%null%1,                         Yue%Wu%null%2,                        Yueqin%Huang%null%1,                        Yu%Wang%null%0,                        Hong%Wang%null%1,                        Zhaorui%Liu%null%1,                        Xin%Yu%null%1,                        Jie%Yan%null%1,                        Yaqin%Yu%null%1,                        Changgui%Kou%null%1,                        Xiufeng%Xu%null%1,                        Jin%Lu%null%1,                        Zhizhong%Wang%null%1,                        Shulan%He%null%1,                        Yifeng%Xu%null%2,                        Yanling%He%null%1,                        Tao%Li%null%0,                        Wanjun%Guo%null%1,                        Hongjun%Tian%null%1,                        Guangming%Xu%null%1,                        Xiangdong%Xu%null%1,                        Yanjuan%Ma%null%1,                        Linhong%Wang%null%1,                        Limin%Wang%null%1,                        Yongping%Yan%null%1,                        Bo%Wang%null%1,                        Shuiyuan%Xiao%null%1,                        Liang%Zhou%null%1,                        Lingjiang%Li%null%1,                        Liwen%Tan%null%1,                        Tingting%Zhang%null%1,                        Chao%Ma%null%1,                        Qiang%Li%null%1,                        Hua%Ding%null%1,                        Hongchun%Geng%null%1,                        Fujun%Jia%null%1,                        Jianfei%Shi%null%1,                        Shiliang%Wang%null%1,                        Ning%Zhang%null%0,                        Xinbai%Du%null%1,                        Xiangdong%Du%null%1,                        Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                        Simeng%Ma%NULL%4,                        Min%Chen%NULL%2,                        Jun%Yang%NULL%2,                        Ying%Wang%NULL%4,                        Ruiting%Li%NULL%5,                        Lihua%Yao%NULL%4,                        Hanping%Bai%NULL%2,                        Zhongxiang%Cai%NULL%4,                        Bing%Xiang Yang%NULL%2,                        Shaohua%Hu%NULL%4,                        Kerang%Zhang%NULL%2,                        Gaohua%Wang%NULL%4,                        Ci%Ma%NULL%2,                        Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                        Kin Kit%Li%NULL%1,                        Henry Ho Hin%Chan%NULL%1,                        Yuan Yuan%Yi%NULL%1,                        Arthur%Tang%NULL%1,                        Wan In%Wei%NULL%1,                        Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                        Simeng%Ma%NULL%0,                        Ying%Wang%NULL%0,                        Zhongxiang%Cai%NULL%0,                        Jianbo%Hu%NULL%2,                        Ning%Wei%NULL%2,                        Jiang%Wu%NULL%2,                        Hui%Du%NULL%2,                        Tingting%Chen%NULL%2,                        Ruiting%Li%NULL%0,                        Huawei%Tan%NULL%2,                        Lijun%Kang%NULL%2,                        Lihua%Yao%NULL%0,                        Manli%Huang%NULL%2,                        Huafen%Wang%NULL%2,                        Gaohua%Wang%NULL%0,                        Zhongchun%Liu%NULL%0,                        Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                        Fan%Zhang%NULL%1,                        Cun%Wei%NULL%1,                        Yanpu%Jia%NULL%1,                        Zhilei%Shang%NULL%1,                        Luna%Sun%NULL%1,                        Lili%Wu%NULL%1,                        Zhuoer%Sun%NULL%1,                        Yaoguang%Zhou%NULL%1,                        Yan%Wang%NULL%1,                        Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                        Hang%Wang%NULL%1,                        Yuxing%Lin%NULL%1,                        Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                        Lan%Deng%NULL%4,                        Lan%Deng%NULL%0,                        Liyan%Zhang%NULL%2,                        Qiuyan%Lang%NULL%2,                        Chunyan%Liao%NULL%2,                        Nannan%Wang%NULL%2,                        Mingqin%Qin%2026142822@qq.com%2,                        Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                        Minh H.%Nguyen%NULL%1,                        Binh N.%Do%NULL%1,                        Cuong Q.%Tran%NULL%2,                        Cuong Q.%Tran%NULL%0,                        Thao T. P.%Nguyen%NULL%1,                        Khue M.%Pham%NULL%2,                        Khue M.%Pham%NULL%0,                        Linh V.%Pham%NULL%2,                        Linh V.%Pham%NULL%0,                        Khanh V.%Tran%NULL%1,                        Trang T.%Duong%NULL%1,                        Tien V.%Tran%NULL%1,                        Thai H.%Duong%NULL%1,                        Tham T.%Nguyen%NULL%1,                        Quyen H.%Nguyen%NULL%1,                        Thanh M.%Hoang%NULL%1,                        Kien T.%Nguyen%NULL%1,                        Thu T. M.%Pham%NULL%1,                        Shwu-Huey%Yang%NULL%1,                        Jane C.-J.%Chao%NULL%2,                        Jane C.-J.%Chao%NULL%0,                        Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                        Francesco%Cinetto%NULL%1,                        Cinzia%Milito%NULL%1,                        Livia%Bonanni%NULL%1,                        Anna Maria%Pesce%NULL%1,                        Giorgia%Leodori%NULL%1,                        Giulia%Garzi%NULL%1,                        Marzia%Miglionico%NULL%1,                        Stefano%Tabolli%NULL%1,                        Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                        Bin%Shen%NULL%1,                        Min%Zhao%NULL%1,                        Zhen%Wang%NULL%2,                        Zhen%Wang%NULL%0,                        Bin%Xie%NULL%1,                        Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                        Sarvodaya%Tripathy%NULL%1,                        Sujita Kumar%Kar%NULL%1,                        Nivedita%Sharma%NULL%1,                        Sudhir Kumar%Verma%NULL%1,                        Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                        Nicholas W.S.%Chew%NULL%1,                        Grace K.H.%Lee%NULL%1,                        Mingxue%Jing%NULL%1,                        Yihui%Goh%NULL%1,                        Leonard L.L.%Yeo%NULL%1,                        Ka%Zhang%NULL%1,                        Howe-Keat%Chin%NULL%1,                        Aftab%Ahmad%NULL%1,                        Faheem Ahmed%Khan%NULL%1,                        Ganesh Napolean%Shanmugam%NULL%1,                        Bernard P.L.%Chan%NULL%1,                        Sibi%Sunny%NULL%1,                        Bharatendu%Chandra%NULL%1,                        Jonathan J.Y.%Ong%NULL%1,                        Prakash R.%Paliwal%NULL%1,                        Lily Y.H.%Wong%NULL%1,                        Renarebecca%Sagayanathan%NULL%1,                        Jin Tao%Chen%NULL%1,                        Alison Ying%Ying Ng%NULL%1,                        Hock Luen%Teoh%NULL%1,                        Cyrus S.%Ho%NULL%3,                        Roger C.%Ho%NULL%5,                        Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                        Riyu%Pan%NULL%5,                        Riyu%Pan%NULL%0,                        Xiaoyang%Wan%NULL%3,                        Yilin%Tan%NULL%3,                        Linkang%Xu%NULL%3,                        Cyrus S.%Ho%NULL%0,                        Roger C.%Ho%NULL%0,                        Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                        Marina%Serper%NULL%1,                        Lauren%Opsasnick%NULL%1,                        Rachel M.%O'Conor%NULL%1,                        Laura M.%Curtis%NULL%1,                        Julia Yoshino%Benavente%NULL%1,                        Guisselle%Wismer%NULL%1,                        Stephanie%Batio%NULL%1,                        Morgan%Eifler%NULL%1,                        Pauline%Zheng%NULL%1,                        Andrea%Russell%NULL%1,                        Marina%Arvanitis%NULL%1,                        Daniela%Ladner%NULL%1,                        Mary%Kwasny%NULL%1,                        Stephen D.%Persell%NULL%1,                        Theresa%Rowe%NULL%1,                        Jeffrey A.%Linder%NULL%1,                        Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                        Yan%Zhang%NULL%2,                        Desheng%Kong%NULL%2,                        Shiyue%Li%NULL%2,                        Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                        Zhenxin%Liao%NULL%2,                        Haojie%Huang%NULL%2,                        Boyue%Jiang%NULL%2,                        Xueyan%Zhang%NULL%2,                        Yingwen%Wang%NULL%2,                        Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                        Kun%Wang%NULL%0,                        Lu%Yin%NULL%0,                        Wen-feng%Zhao%NULL%1,                        Qing%Xue%NULL%1,                        Mao%Peng%NULL%1,                        Bao-quan%Min%NULL%1,                        Qing%Tian%NULL%1,                        Hai-xia%Leng%NULL%1,                        Jia-lin%Du%NULL%1,                        Hong%Chang%NULL%1,                        Yuan%Yang%NULL%0,                        Wei%Li%NULL%1,                        Fang-fang%Shangguan%NULL%1,                        Tian-yi%Yan%NULL%1,                        Hui-qing%Dong%NULL%1,                        Ying%Han%NULL%1,                        Yu-ping%Wang%NULL%1,                        Fiammetta%Cosci%NULL%1,                        Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                        Zheng Feei%Ma%NULL%4,                        Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                        M.%Zhou%NULL%1,                        F.%Tang%NULL%1,                        Y.%Wang%NULL%1,                        H.%Nie%NULL%1,                        L.%Zhang%NULL%1,                        G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2533,6 +2920,9 @@
       <c r="I1" t="s">
         <v>157</v>
       </c>
+      <c r="J1" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2548,7 +2938,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>616</v>
+        <v>748</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2561,6 +2951,9 @@
       </c>
       <c r="I2" t="s">
         <v>587</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -2577,7 +2970,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>617</v>
+        <v>749</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2590,6 +2983,9 @@
       </c>
       <c r="I3" t="s">
         <v>587</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -2606,7 +3002,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>618</v>
+        <v>750</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -2619,6 +3015,9 @@
       </c>
       <c r="I4" t="s">
         <v>587</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -2635,7 +3034,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>619</v>
+        <v>751</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2648,6 +3047,9 @@
       </c>
       <c r="I5" t="s">
         <v>591</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -2664,7 +3066,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>620</v>
+        <v>401</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2673,10 +3075,13 @@
         <v>286</v>
       </c>
       <c r="H6" t="s">
-        <v>287</v>
+        <v>649</v>
       </c>
       <c r="I6" t="s">
-        <v>593</v>
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="7">
@@ -2693,7 +3098,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>621</v>
+        <v>402</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -2702,10 +3107,13 @@
         <v>286</v>
       </c>
       <c r="H7" t="s">
-        <v>287</v>
+        <v>649</v>
       </c>
       <c r="I7" t="s">
-        <v>593</v>
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="8">
@@ -2722,7 +3130,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>622</v>
+        <v>752</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -2735,6 +3143,9 @@
       </c>
       <c r="I8" t="s">
         <v>587</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -2765,6 +3176,9 @@
       <c r="I9" t="s">
         <v>42</v>
       </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -2780,7 +3194,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>623</v>
+        <v>753</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2793,6 +3207,9 @@
       </c>
       <c r="I10" t="s">
         <v>593</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -2809,7 +3226,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>624</v>
+        <v>754</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -2822,6 +3239,9 @@
       </c>
       <c r="I11" t="s">
         <v>591</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2838,7 +3258,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>625</v>
+        <v>755</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -2851,6 +3271,9 @@
       </c>
       <c r="I12" t="s">
         <v>587</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2867,7 +3290,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>626</v>
+        <v>756</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -2880,6 +3303,9 @@
       </c>
       <c r="I13" t="s">
         <v>587</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -2896,7 +3322,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>627</v>
+        <v>757</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -2909,6 +3335,9 @@
       </c>
       <c r="I14" t="s">
         <v>591</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -2925,7 +3354,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>628</v>
+        <v>758</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -2938,6 +3367,9 @@
       </c>
       <c r="I15" t="s">
         <v>591</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -2954,7 +3386,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>629</v>
+        <v>759</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -2967,6 +3399,9 @@
       </c>
       <c r="I16" t="s">
         <v>587</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2995,7 +3430,10 @@
         <v>300</v>
       </c>
       <c r="I17" t="s">
-        <v>593</v>
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="18">
@@ -3012,7 +3450,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>630</v>
+        <v>760</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -3025,6 +3463,9 @@
       </c>
       <c r="I18" t="s">
         <v>587</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -3041,7 +3482,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>631</v>
+        <v>761</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -3054,6 +3495,9 @@
       </c>
       <c r="I19" t="s">
         <v>591</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -3070,7 +3514,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>632</v>
+        <v>762</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3083,6 +3527,9 @@
       </c>
       <c r="I20" t="s">
         <v>587</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -3099,7 +3546,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>633</v>
+        <v>763</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -3112,6 +3559,9 @@
       </c>
       <c r="I21" t="s">
         <v>591</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -3128,7 +3578,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>634</v>
+        <v>764</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3141,6 +3591,9 @@
       </c>
       <c r="I22" t="s">
         <v>587</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -3157,7 +3610,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>635</v>
+        <v>765</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -3170,6 +3623,9 @@
       </c>
       <c r="I23" t="s">
         <v>587</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -3186,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>636</v>
+        <v>417</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -3195,10 +3651,13 @@
         <v>286</v>
       </c>
       <c r="H24" t="s">
-        <v>309</v>
+        <v>668</v>
       </c>
       <c r="I24" t="s">
-        <v>593</v>
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="25">
@@ -3215,7 +3674,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>637</v>
+        <v>766</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -3228,6 +3687,9 @@
       </c>
       <c r="I25" t="s">
         <v>587</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -3244,7 +3706,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>638</v>
+        <v>767</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3257,6 +3719,9 @@
       </c>
       <c r="I26" t="s">
         <v>587</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -3273,7 +3738,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>639</v>
+        <v>768</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -3286,6 +3751,9 @@
       </c>
       <c r="I27" t="s">
         <v>587</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -3302,7 +3770,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>640</v>
+        <v>769</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -3315,6 +3783,9 @@
       </c>
       <c r="I28" t="s">
         <v>587</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29">
@@ -3331,7 +3802,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>641</v>
+        <v>770</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -3344,6 +3815,9 @@
       </c>
       <c r="I29" t="s">
         <v>587</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30">
@@ -3360,7 +3834,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>642</v>
+        <v>771</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>
@@ -3373,6 +3847,9 @@
       </c>
       <c r="I30" t="s">
         <v>591</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/30.xlsx
+++ b/Covid_19_Dataset_and_References/References/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5431" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5911" uniqueCount="827">
   <si>
     <t>Doi</t>
   </si>
@@ -2555,6 +2555,183 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,                        M.%Zhou%NULL%1,                        F.%Tang%NULL%1,                        Y.%Wang%NULL%1,                        H.%Nie%NULL%1,                        L.%Zhang%NULL%1,                        G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                         Wen%Li%NULL%1,                         Yuan%Yang%NULL%3,                         Yuan%Yang%NULL%0,                         Yu%Wang%NULL%0,                         Qinge%Zhang%NULL%1,                         Teris%Cheung%NULL%1,                         Xinjuan%Wu%NULL%1,                         Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                         Baoren%Tu%NULL%2,                         Jing%Ma%NULL%2,                         Limin%Chen%NULL%2,                         Lei%Fu%NULL%2,                         Yongfang%Jiang%NULL%2,                         Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                         Jing%Wei%NULL%1,                         Huadong%Zhu%NULL%1,                         Yanping%Duan%NULL%1,                         Wenqi%Geng%NULL%1,                         Xia%Hong%NULL%1,                         Jing%Jiang%NULL%1,                         Xiaohui%Zhao%NULL%1,                         Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                         Ziwei%Fang%NULL%2,                         Guoqiang%Hou%NULL%2,                         Mei%Han%NULL%2,                         Xinrong%Xu%NULL%2,                         Jiaxin%Dong%NULL%2,                         Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                         Pinpin%Zheng%NULL%2,                         Pinpin%Zheng%NULL%0,                         Yingnan%Jia%NULL%1,                         Hao%Chen%NULL%1,                         Yimeng%Mao%NULL%1,                         Suhong%Chen%NULL%1,                         Yi%Wang%NULL%1,                         Hua%Fu%NULL%1,                         Junming%Dai%NULL%1,                         Kenji%Hashimoto%NULL%10,                         Kenji%Hashimoto%NULL%0,                         Junling%Gao%NULL%3,                         Junling%Gao%NULL%0,                         Junling%Gao%NULL%0,                         Kenji%Hashimoto%NULL%0,                         Kenji%Hashimoto%NULL%0,                         Kenji%Hashimoto%NULL%0,                         Kenji%Hashimoto%NULL%0,                         Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mental health survey of 230 medical staff in a tertiary infectious disease hospital for COVID-19].</t>
+  </si>
+  <si>
+    <t>Objective: To investigate the mental health of clinical first-line medical staff in COVID-19 epidemic and provide theoretical basis for psychological intervention. Method: The mental health status of the first-line medical staff was investigated by Self-rating Anxiety Acale (SAS) and Post-Traumatic Stress Disorder Self-rating Scale(PTSD-SS). From February 7 to 14, 2020, 246 medical staff were investigated who participated in the treatment of COVID-19 using cluster sampling , and received 230 responses, with a recovery rate of 93.5%. Results: The incidence of anxiety in medical staff was 23.04% (53/230), and the score of SAS was (42.91 ± 10.89). Among them, the incidence of severe anxiety, moderate anxiety and mild anxiety were 2.17% (5/230), 4.78% (11/230) and 16.09% (37/230), respectively. The incidence of anxiety in female medical staff was higher than that in male [25.67% (48/187) vs 11.63% (5/43), Z=-2.008, P=0.045], the score of SAS in female medical staff was higher than that in male [(43.78±11.12) vs (39.14 ± 9.01), t =-2.548, P=0.012]. The incidence of anxiety in nurses was higher than that in doctors [26.88% (43/160) vs 14.29% (10/70), Z=-2.066, P=0.039], and the score of SAS in nurses was higher than that in doctors [(44.84±10.42) vs (38.50±10.72), t =-4.207, P&lt;0.001]. The incidence of stress disorder in medical staff was 27.39% (63/230), and the score of PTSD-SS was (42.92 ± 17.88). The score of PTSD-SS in female medical staff was higher than that of male [(44.30±18.42) vs(36.91 ± 13.95), t=-2.472, P=0.014]. Conclusions: In COVID-19 epidemic, the incidence of anxiety and stress disorder is high among medical staff. Medical institutions should strengthen the training of psychological skills of medical staff. Special attention should be paid to the mental health of female nurses.</t>
+  </si>
+  <si>
+    <t>[ J Z%Huang%elasticNoEmail%4,  M F% Han%elasticNoEmail%4,  T D% Luo%elasticNoEmail%4,  A K% Ren%elasticNoEmail%4,  X P% Zhou%elasticNoEmail%4]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,                          Yu%Wang%null%0,                          Hong%Wang%null%1,                          Zhaorui%Liu%null%1,                          Xin%Yu%null%1,                          Jie%Yan%null%2,                          Yaqin%Yu%null%1,                          Changgui%Kou%null%1,                          Xiufeng%Xu%null%1,                          Jin%Lu%null%1,                          Zhizhong%Wang%null%1,                          Shulan%He%null%1,                          Yifeng%Xu%null%1,                          Yanling%He%null%1,                          Tao%Li%null%3,                          Wanjun%Guo%null%1,                          Hongjun%Tian%null%1,                          Guangming%Xu%null%1,                          Xiangdong%Xu%null%1,                          Yanjuan%Ma%null%1,                          Linhong%Wang%null%1,                          Limin%Wang%null%1,                          Yongping%Yan%null%1,                          Bo%Wang%null%0,                          Shuiyuan%Xiao%null%1,                          Liang%Zhou%null%1,                          Lingjiang%Li%null%1,                          Liwen%Tan%null%1,                          Tingting%Zhang%null%1,                          Chao%Ma%null%1,                          Qiang%Li%null%2,                          Hua%Ding%null%1,                          Hongchun%Geng%null%1,                          Fujun%Jia%null%1,                          Jianfei%Shi%null%1,                          Shiliang%Wang%null%1,                          Ning%Zhang%null%1,                          Xinbai%Du%null%1,                          Xiangdong%Du%null%1,                          Yue%Wu%null%2,                         Yueqin%Huang%null%1,                         Yu%Wang%null%0,                         Hong%Wang%null%1,                         Zhaorui%Liu%null%1,                         Xin%Yu%null%1,                         Jie%Yan%null%1,                         Yaqin%Yu%null%1,                         Changgui%Kou%null%1,                         Xiufeng%Xu%null%1,                         Jin%Lu%null%1,                         Zhizhong%Wang%null%1,                         Shulan%He%null%1,                         Yifeng%Xu%null%2,                         Yanling%He%null%1,                         Tao%Li%null%0,                         Wanjun%Guo%null%1,                         Hongjun%Tian%null%1,                         Guangming%Xu%null%1,                         Xiangdong%Xu%null%1,                         Yanjuan%Ma%null%1,                         Linhong%Wang%null%1,                         Limin%Wang%null%1,                         Yongping%Yan%null%1,                         Bo%Wang%null%1,                         Shuiyuan%Xiao%null%1,                         Liang%Zhou%null%1,                         Lingjiang%Li%null%1,                         Liwen%Tan%null%1,                         Tingting%Zhang%null%1,                         Chao%Ma%null%1,                         Qiang%Li%null%1,                         Hua%Ding%null%1,                         Hongchun%Geng%null%1,                         Fujun%Jia%null%1,                         Jianfei%Shi%null%1,                         Shiliang%Wang%null%1,                         Ning%Zhang%null%0,                         Xinbai%Du%null%1,                         Xiangdong%Du%null%1,                         Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                         Simeng%Ma%NULL%4,                         Min%Chen%NULL%2,                         Jun%Yang%NULL%2,                         Ying%Wang%NULL%4,                         Ruiting%Li%NULL%5,                         Lihua%Yao%NULL%4,                         Hanping%Bai%NULL%2,                         Zhongxiang%Cai%NULL%4,                         Bing%Xiang Yang%NULL%2,                         Shaohua%Hu%NULL%4,                         Kerang%Zhang%NULL%2,                         Gaohua%Wang%NULL%4,                         Ci%Ma%NULL%2,                         Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                         Kin Kit%Li%NULL%1,                         Henry Ho Hin%Chan%NULL%1,                         Yuan Yuan%Yi%NULL%1,                         Arthur%Tang%NULL%1,                         Wan In%Wei%NULL%1,                         Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                         Simeng%Ma%NULL%0,                         Ying%Wang%NULL%0,                         Zhongxiang%Cai%NULL%0,                         Jianbo%Hu%NULL%2,                         Ning%Wei%NULL%2,                         Jiang%Wu%NULL%2,                         Hui%Du%NULL%2,                         Tingting%Chen%NULL%2,                         Ruiting%Li%NULL%0,                         Huawei%Tan%NULL%2,                         Lijun%Kang%NULL%2,                         Lihua%Yao%NULL%0,                         Manli%Huang%NULL%2,                         Huafen%Wang%NULL%2,                         Gaohua%Wang%NULL%0,                         Zhongchun%Liu%NULL%0,                         Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                         Fan%Zhang%NULL%1,                         Cun%Wei%NULL%1,                         Yanpu%Jia%NULL%1,                         Zhilei%Shang%NULL%1,                         Luna%Sun%NULL%1,                         Lili%Wu%NULL%1,                         Zhuoer%Sun%NULL%1,                         Yaoguang%Zhou%NULL%1,                         Yan%Wang%NULL%1,                         Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                         Hang%Wang%NULL%1,                         Yuxing%Lin%NULL%1,                         Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                         Lan%Deng%NULL%4,                         Lan%Deng%NULL%0,                         Liyan%Zhang%NULL%2,                         Qiuyan%Lang%NULL%2,                         Chunyan%Liao%NULL%2,                         Nannan%Wang%NULL%2,                         Mingqin%Qin%2026142822@qq.com%2,                         Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                         Minh H.%Nguyen%NULL%1,                         Binh N.%Do%NULL%1,                         Cuong Q.%Tran%NULL%2,                         Cuong Q.%Tran%NULL%0,                         Thao T. P.%Nguyen%NULL%1,                         Khue M.%Pham%NULL%2,                         Khue M.%Pham%NULL%0,                         Linh V.%Pham%NULL%2,                         Linh V.%Pham%NULL%0,                         Khanh V.%Tran%NULL%1,                         Trang T.%Duong%NULL%1,                         Tien V.%Tran%NULL%1,                         Thai H.%Duong%NULL%1,                         Tham T.%Nguyen%NULL%1,                         Quyen H.%Nguyen%NULL%1,                         Thanh M.%Hoang%NULL%1,                         Kien T.%Nguyen%NULL%1,                         Thu T. M.%Pham%NULL%1,                         Shwu-Huey%Yang%NULL%1,                         Jane C.-J.%Chao%NULL%2,                         Jane C.-J.%Chao%NULL%0,                         Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                         Francesco%Cinetto%NULL%1,                         Cinzia%Milito%NULL%1,                         Livia%Bonanni%NULL%1,                         Anna Maria%Pesce%NULL%1,                         Giorgia%Leodori%NULL%1,                         Giulia%Garzi%NULL%1,                         Marzia%Miglionico%NULL%1,                         Stefano%Tabolli%NULL%1,                         Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                         Bin%Shen%NULL%1,                         Min%Zhao%NULL%1,                         Zhen%Wang%NULL%2,                         Zhen%Wang%NULL%0,                         Bin%Xie%NULL%1,                         Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                         Sarvodaya%Tripathy%NULL%1,                         Sujita Kumar%Kar%NULL%1,                         Nivedita%Sharma%NULL%1,                         Sudhir Kumar%Verma%NULL%1,                         Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                         Nicholas W.S.%Chew%NULL%1,                         Grace K.H.%Lee%NULL%1,                         Mingxue%Jing%NULL%1,                         Yihui%Goh%NULL%1,                         Leonard L.L.%Yeo%NULL%1,                         Ka%Zhang%NULL%1,                         Howe-Keat%Chin%NULL%1,                         Aftab%Ahmad%NULL%1,                         Faheem Ahmed%Khan%NULL%1,                         Ganesh Napolean%Shanmugam%NULL%1,                         Bernard P.L.%Chan%NULL%1,                         Sibi%Sunny%NULL%1,                         Bharatendu%Chandra%NULL%1,                         Jonathan J.Y.%Ong%NULL%1,                         Prakash R.%Paliwal%NULL%1,                         Lily Y.H.%Wong%NULL%1,                         Renarebecca%Sagayanathan%NULL%1,                         Jin Tao%Chen%NULL%1,                         Alison Ying%Ying Ng%NULL%1,                         Hock Luen%Teoh%NULL%1,                         Cyrus S.%Ho%NULL%3,                         Roger C.%Ho%NULL%5,                         Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                         Riyu%Pan%NULL%5,                         Riyu%Pan%NULL%0,                         Xiaoyang%Wan%NULL%3,                         Yilin%Tan%NULL%3,                         Linkang%Xu%NULL%3,                         Cyrus S.%Ho%NULL%0,                         Roger C.%Ho%NULL%0,                         Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                         Marina%Serper%NULL%1,                         Lauren%Opsasnick%NULL%1,                         Rachel M.%O'Conor%NULL%1,                         Laura M.%Curtis%NULL%1,                         Julia Yoshino%Benavente%NULL%1,                         Guisselle%Wismer%NULL%1,                         Stephanie%Batio%NULL%1,                         Morgan%Eifler%NULL%1,                         Pauline%Zheng%NULL%1,                         Andrea%Russell%NULL%1,                         Marina%Arvanitis%NULL%1,                         Daniela%Ladner%NULL%1,                         Mary%Kwasny%NULL%1,                         Stephen D.%Persell%NULL%1,                         Theresa%Rowe%NULL%1,                         Jeffrey A.%Linder%NULL%1,                         Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                         Yan%Zhang%NULL%2,                         Desheng%Kong%NULL%2,                         Shiyue%Li%NULL%2,                         Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                         Zhenxin%Liao%NULL%2,                         Haojie%Huang%NULL%2,                         Boyue%Jiang%NULL%2,                         Xueyan%Zhang%NULL%2,                         Yingwen%Wang%NULL%2,                         Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                         Kun%Wang%NULL%0,                         Lu%Yin%NULL%0,                         Wen-feng%Zhao%NULL%1,                         Qing%Xue%NULL%1,                         Mao%Peng%NULL%1,                         Bao-quan%Min%NULL%1,                         Qing%Tian%NULL%1,                         Hai-xia%Leng%NULL%1,                         Jia-lin%Du%NULL%1,                         Hong%Chang%NULL%1,                         Yuan%Yang%NULL%0,                         Wei%Li%NULL%1,                         Fang-fang%Shangguan%NULL%1,                         Tian-yi%Yan%NULL%1,                         Hui-qing%Dong%NULL%1,                         Ying%Han%NULL%1,                         Yu-ping%Wang%NULL%1,                         Fiammetta%Cosci%NULL%1,                         Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                         Zheng Feei%Ma%NULL%4,                         Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                         M.%Zhou%NULL%1,                         F.%Tang%NULL%1,                         Y.%Wang%NULL%1,                         H.%Nie%NULL%1,                         L.%Zhang%NULL%1,                         G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                          Wen%Li%NULL%1,                          Yuan%Yang%NULL%3,                          Yuan%Yang%NULL%0,                          Yu%Wang%NULL%0,                          Qinge%Zhang%NULL%1,                          Teris%Cheung%NULL%1,                          Xinjuan%Wu%NULL%1,                          Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                          Baoren%Tu%NULL%2,                          Jing%Ma%NULL%2,                          Limin%Chen%NULL%2,                          Lei%Fu%NULL%2,                          Yongfang%Jiang%NULL%2,                          Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                          Jing%Wei%NULL%1,                          Huadong%Zhu%NULL%1,                          Yanping%Duan%NULL%1,                          Wenqi%Geng%NULL%1,                          Xia%Hong%NULL%1,                          Jing%Jiang%NULL%1,                          Xiaohui%Zhao%NULL%1,                          Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                          Ziwei%Fang%NULL%2,                          Guoqiang%Hou%NULL%2,                          Mei%Han%NULL%2,                          Xinrong%Xu%NULL%2,                          Jiaxin%Dong%NULL%2,                          Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                          Pinpin%Zheng%NULL%2,                          Pinpin%Zheng%NULL%0,                          Yingnan%Jia%NULL%1,                          Hao%Chen%NULL%1,                          Yimeng%Mao%NULL%1,                          Suhong%Chen%NULL%1,                          Yi%Wang%NULL%1,                          Hua%Fu%NULL%1,                          Junming%Dai%NULL%1,                          Kenji%Hashimoto%NULL%10,                          Kenji%Hashimoto%NULL%0,                          Junling%Gao%NULL%3,                          Junling%Gao%NULL%0,                          Junling%Gao%NULL%0,                          Kenji%Hashimoto%NULL%0,                          Kenji%Hashimoto%NULL%0,                          Kenji%Hashimoto%NULL%0,                          Kenji%Hashimoto%NULL%0,                          Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To investigate the mental health of clinical first-line medical staff in COVID-19 epidemic and provide theoretical basis for psychological intervention.
+ Method: The mental health status of the first-line medical staff was investigated by Self-rating Anxiety Acale (SAS) and Post-Traumatic Stress Disorder Self-rating Scale(PTSD-SS).
+ From February 7 to 14, 2020, 246 medical staff were investigated who participated in the treatment of COVID-19 using cluster sampling , and received 230 responses, with a recovery rate of 93.5%.
+ Results: The incidence of anxiety in medical staff was 23.04% (53/230), and the score of SAS was (42.91 ± 10.89).
+ Among them, the incidence of severe anxiety, moderate anxiety and mild anxiety were 2.17% (5/230), 4.78% (11/230) and 16.09% (37/230), respectively.
+ The incidence of anxiety in female medical staff was higher than that in male [25.67% (48/187) vs 11.63% (5/43), Z=-2.008, P=0.045], the score of SAS in female medical staff was higher than that in male [(43.78±11.12) vs (39.14 ± 9.01), t =-2.548, P=0.012].
+ The incidence of anxiety in nurses was higher than that in doctors [26.88% (43/160) vs 14.29% (10/70), Z=-2.066, P=0.039], and the score of SAS in nurses was higher than that in doctors [(44.84±10.42) vs (38.50±10.72), t =-4.207, P&lt;0.001].
+ The incidence of stress disorder in medical staff was 27.39% (63/230), and the score of PTSD-SS was (42.92 ± 17.88).
+ The score of PTSD-SS in female medical staff was higher than that of male [(44.30±18.42) vs(36.91 ± 13.95), t=-2.472, P=0.014].
+ Conclusions: In COVID-19 epidemic, the incidence of anxiety and stress disorder is high among medical staff.
+ Medical institutions should strengthen the training of psychological skills of medical staff.
+ Special attention should be paid to the mental health of female nurses.
+</t>
+  </si>
+  <si>
+    <t>[ J Z%Huang%elasticNoEmail%4,   M F% Han%elasticNoEmail%4,   T D% Luo%elasticNoEmail%4,   A K% Ren%elasticNoEmail%4,   X P% Zhou%elasticNoEmail%4]</t>
+  </si>
+  <si>
+    <t>[ Yueqin%Huang%null%1,                           Yu%Wang%null%0,                           Hong%Wang%null%1,                           Zhaorui%Liu%null%1,                           Xin%Yu%null%1,                           Jie%Yan%null%2,                           Yaqin%Yu%null%1,                           Changgui%Kou%null%1,                           Xiufeng%Xu%null%1,                           Jin%Lu%null%1,                           Zhizhong%Wang%null%1,                           Shulan%He%null%1,                           Yifeng%Xu%null%1,                           Yanling%He%null%1,                           Tao%Li%null%3,                           Wanjun%Guo%null%1,                           Hongjun%Tian%null%1,                           Guangming%Xu%null%1,                           Xiangdong%Xu%null%1,                           Yanjuan%Ma%null%1,                           Linhong%Wang%null%1,                           Limin%Wang%null%1,                           Yongping%Yan%null%1,                           Bo%Wang%null%0,                           Shuiyuan%Xiao%null%1,                           Liang%Zhou%null%1,                           Lingjiang%Li%null%1,                           Liwen%Tan%null%1,                           Tingting%Zhang%null%1,                           Chao%Ma%null%1,                           Qiang%Li%null%2,                           Hua%Ding%null%1,                           Hongchun%Geng%null%1,                           Fujun%Jia%null%1,                           Jianfei%Shi%null%1,                           Shiliang%Wang%null%1,                           Ning%Zhang%null%1,                           Xinbai%Du%null%1,                           Xiangdong%Du%null%1,                           Yue%Wu%null%2,                          Yueqin%Huang%null%1,                          Yu%Wang%null%0,                          Hong%Wang%null%1,                          Zhaorui%Liu%null%1,                          Xin%Yu%null%1,                          Jie%Yan%null%1,                          Yaqin%Yu%null%1,                          Changgui%Kou%null%1,                          Xiufeng%Xu%null%1,                          Jin%Lu%null%1,                          Zhizhong%Wang%null%1,                          Shulan%He%null%1,                          Yifeng%Xu%null%2,                          Yanling%He%null%1,                          Tao%Li%null%0,                          Wanjun%Guo%null%1,                          Hongjun%Tian%null%1,                          Guangming%Xu%null%1,                          Xiangdong%Xu%null%1,                          Yanjuan%Ma%null%1,                          Linhong%Wang%null%1,                          Limin%Wang%null%1,                          Yongping%Yan%null%1,                          Bo%Wang%null%1,                          Shuiyuan%Xiao%null%1,                          Liang%Zhou%null%1,                          Lingjiang%Li%null%1,                          Liwen%Tan%null%1,                          Tingting%Zhang%null%1,                          Chao%Ma%null%1,                          Qiang%Li%null%1,                          Hua%Ding%null%1,                          Hongchun%Geng%null%1,                          Fujun%Jia%null%1,                          Jianfei%Shi%null%1,                          Shiliang%Wang%null%1,                          Ning%Zhang%null%0,                          Xinbai%Du%null%1,                          Xiangdong%Du%null%1,                          Yue%Wu%null%1]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                          Simeng%Ma%NULL%4,                          Min%Chen%NULL%2,                          Jun%Yang%NULL%2,                          Ying%Wang%NULL%4,                          Ruiting%Li%NULL%5,                          Lihua%Yao%NULL%4,                          Hanping%Bai%NULL%2,                          Zhongxiang%Cai%NULL%4,                          Bing%Xiang Yang%NULL%2,                          Shaohua%Hu%NULL%4,                          Kerang%Zhang%NULL%2,                          Gaohua%Wang%NULL%4,                          Ci%Ma%NULL%2,                          Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                          Kin Kit%Li%NULL%1,                          Henry Ho Hin%Chan%NULL%1,                          Yuan Yuan%Yi%NULL%1,                          Arthur%Tang%NULL%1,                          Wan In%Wei%NULL%1,                          Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                          Simeng%Ma%NULL%0,                          Ying%Wang%NULL%0,                          Zhongxiang%Cai%NULL%0,                          Jianbo%Hu%NULL%2,                          Ning%Wei%NULL%2,                          Jiang%Wu%NULL%2,                          Hui%Du%NULL%2,                          Tingting%Chen%NULL%2,                          Ruiting%Li%NULL%0,                          Huawei%Tan%NULL%2,                          Lijun%Kang%NULL%2,                          Lihua%Yao%NULL%0,                          Manli%Huang%NULL%2,                          Huafen%Wang%NULL%2,                          Gaohua%Wang%NULL%0,                          Zhongchun%Liu%NULL%0,                          Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                          Fan%Zhang%NULL%1,                          Cun%Wei%NULL%1,                          Yanpu%Jia%NULL%1,                          Zhilei%Shang%NULL%1,                          Luna%Sun%NULL%1,                          Lili%Wu%NULL%1,                          Zhuoer%Sun%NULL%1,                          Yaoguang%Zhou%NULL%1,                          Yan%Wang%NULL%1,                          Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                          Hang%Wang%NULL%1,                          Yuxing%Lin%NULL%1,                          Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                          Lan%Deng%NULL%4,                          Lan%Deng%NULL%0,                          Liyan%Zhang%NULL%2,                          Qiuyan%Lang%NULL%2,                          Chunyan%Liao%NULL%2,                          Nannan%Wang%NULL%2,                          Mingqin%Qin%2026142822@qq.com%2,                          Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                          Minh H.%Nguyen%NULL%1,                          Binh N.%Do%NULL%1,                          Cuong Q.%Tran%NULL%2,                          Cuong Q.%Tran%NULL%0,                          Thao T. P.%Nguyen%NULL%1,                          Khue M.%Pham%NULL%2,                          Khue M.%Pham%NULL%0,                          Linh V.%Pham%NULL%2,                          Linh V.%Pham%NULL%0,                          Khanh V.%Tran%NULL%1,                          Trang T.%Duong%NULL%1,                          Tien V.%Tran%NULL%1,                          Thai H.%Duong%NULL%1,                          Tham T.%Nguyen%NULL%1,                          Quyen H.%Nguyen%NULL%1,                          Thanh M.%Hoang%NULL%1,                          Kien T.%Nguyen%NULL%1,                          Thu T. M.%Pham%NULL%1,                          Shwu-Huey%Yang%NULL%1,                          Jane C.-J.%Chao%NULL%2,                          Jane C.-J.%Chao%NULL%0,                          Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                          Francesco%Cinetto%NULL%1,                          Cinzia%Milito%NULL%1,                          Livia%Bonanni%NULL%1,                          Anna Maria%Pesce%NULL%1,                          Giorgia%Leodori%NULL%1,                          Giulia%Garzi%NULL%1,                          Marzia%Miglionico%NULL%1,                          Stefano%Tabolli%NULL%1,                          Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                          Bin%Shen%NULL%1,                          Min%Zhao%NULL%1,                          Zhen%Wang%NULL%2,                          Zhen%Wang%NULL%0,                          Bin%Xie%NULL%1,                          Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                          Sarvodaya%Tripathy%NULL%1,                          Sujita Kumar%Kar%NULL%1,                          Nivedita%Sharma%NULL%1,                          Sudhir Kumar%Verma%NULL%1,                          Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                          Nicholas W.S.%Chew%NULL%1,                          Grace K.H.%Lee%NULL%1,                          Mingxue%Jing%NULL%1,                          Yihui%Goh%NULL%1,                          Leonard L.L.%Yeo%NULL%1,                          Ka%Zhang%NULL%1,                          Howe-Keat%Chin%NULL%1,                          Aftab%Ahmad%NULL%1,                          Faheem Ahmed%Khan%NULL%1,                          Ganesh Napolean%Shanmugam%NULL%1,                          Bernard P.L.%Chan%NULL%1,                          Sibi%Sunny%NULL%1,                          Bharatendu%Chandra%NULL%1,                          Jonathan J.Y.%Ong%NULL%1,                          Prakash R.%Paliwal%NULL%1,                          Lily Y.H.%Wong%NULL%1,                          Renarebecca%Sagayanathan%NULL%1,                          Jin Tao%Chen%NULL%1,                          Alison Ying%Ying Ng%NULL%1,                          Hock Luen%Teoh%NULL%1,                          Cyrus S.%Ho%NULL%3,                          Roger C.%Ho%NULL%5,                          Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                          Riyu%Pan%NULL%5,                          Riyu%Pan%NULL%0,                          Xiaoyang%Wan%NULL%3,                          Yilin%Tan%NULL%3,                          Linkang%Xu%NULL%3,                          Cyrus S.%Ho%NULL%0,                          Roger C.%Ho%NULL%0,                          Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                          Marina%Serper%NULL%1,                          Lauren%Opsasnick%NULL%1,                          Rachel M.%O'Conor%NULL%1,                          Laura M.%Curtis%NULL%1,                          Julia Yoshino%Benavente%NULL%1,                          Guisselle%Wismer%NULL%1,                          Stephanie%Batio%NULL%1,                          Morgan%Eifler%NULL%1,                          Pauline%Zheng%NULL%1,                          Andrea%Russell%NULL%1,                          Marina%Arvanitis%NULL%1,                          Daniela%Ladner%NULL%1,                          Mary%Kwasny%NULL%1,                          Stephen D.%Persell%NULL%1,                          Theresa%Rowe%NULL%1,                          Jeffrey A.%Linder%NULL%1,                          Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                          Yan%Zhang%NULL%2,                          Desheng%Kong%NULL%2,                          Shiyue%Li%NULL%2,                          Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                          Zhenxin%Liao%NULL%2,                          Haojie%Huang%NULL%2,                          Boyue%Jiang%NULL%2,                          Xueyan%Zhang%NULL%2,                          Yingwen%Wang%NULL%2,                          Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                          Kun%Wang%NULL%0,                          Lu%Yin%NULL%0,                          Wen-feng%Zhao%NULL%1,                          Qing%Xue%NULL%1,                          Mao%Peng%NULL%1,                          Bao-quan%Min%NULL%1,                          Qing%Tian%NULL%1,                          Hai-xia%Leng%NULL%1,                          Jia-lin%Du%NULL%1,                          Hong%Chang%NULL%1,                          Yuan%Yang%NULL%0,                          Wei%Li%NULL%1,                          Fang-fang%Shangguan%NULL%1,                          Tian-yi%Yan%NULL%1,                          Hui-qing%Dong%NULL%1,                          Ying%Han%NULL%1,                          Yu-ping%Wang%NULL%1,                          Fiammetta%Cosci%NULL%1,                          Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                          Zheng Feei%Ma%NULL%4,                          Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                          M.%Zhou%NULL%1,                          F.%Tang%NULL%1,                          Y.%Wang%NULL%1,                          H.%Nie%NULL%1,                          L.%Zhang%NULL%1,                          G.%You%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2938,7 +3115,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>748</v>
+        <v>801</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2970,7 +3147,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>749</v>
+        <v>802</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -3002,7 +3179,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>750</v>
+        <v>803</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -3034,7 +3211,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -3066,7 +3243,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -3098,7 +3275,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -3130,7 +3307,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>752</v>
+        <v>805</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -3156,22 +3333,22 @@
         <v>43910.0</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>777</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>806</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>807</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>780</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>781</v>
       </c>
       <c r="I9" t="s">
         <v>42</v>
@@ -3194,7 +3371,7 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>753</v>
+        <v>808</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -3226,7 +3403,7 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>754</v>
+        <v>809</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -3258,7 +3435,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>755</v>
+        <v>810</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -3290,7 +3467,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>756</v>
+        <v>811</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -3322,7 +3499,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>757</v>
+        <v>812</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -3354,7 +3531,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>758</v>
+        <v>813</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -3386,7 +3563,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>759</v>
+        <v>814</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3450,7 +3627,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>760</v>
+        <v>815</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -3482,7 +3659,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>761</v>
+        <v>816</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -3514,7 +3691,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>762</v>
+        <v>817</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3546,7 +3723,7 @@
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>763</v>
+        <v>818</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -3578,7 +3755,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>764</v>
+        <v>819</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3610,7 +3787,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>765</v>
+        <v>820</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -3642,7 +3819,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -3674,7 +3851,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>766</v>
+        <v>821</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -3706,7 +3883,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>767</v>
+        <v>822</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3738,7 +3915,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>768</v>
+        <v>823</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -3770,7 +3947,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>769</v>
+        <v>824</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -3802,7 +3979,7 @@
         <v>149</v>
       </c>
       <c r="E29" t="s">
-        <v>770</v>
+        <v>825</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -3834,7 +4011,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>771</v>
+        <v>826</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>
